--- a/res/fonts/sortingOrder.xlsx
+++ b/res/fonts/sortingOrder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacomostert/wp43s/res/fonts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\jaco\c43\res\fonts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D5EAF0-8851-CA48-82D3-6F443F47D207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FCBEDF-0A58-4B23-BFC5-CC81E4D1F55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="1580" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sorting_new1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3735" uniqueCount="2442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3747" uniqueCount="2447">
   <si>
     <t>Code point</t>
   </si>
@@ -7359,6 +7359,21 @@
   </si>
   <si>
     <t>INFORMATION SEPARATOR THREE</t>
+  </si>
+  <si>
+    <t>longshighstroke</t>
+  </si>
+  <si>
+    <t>long f</t>
+  </si>
+  <si>
+    <t>long g</t>
+  </si>
+  <si>
+    <t>ẝ</t>
+  </si>
+  <si>
+    <t>ẟ</t>
   </si>
 </sst>
 </file>
@@ -7368,7 +7383,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\“#\”;\“@\”"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -8688,26 +8703,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H636"/>
+  <dimension ref="A1:H638"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A625" workbookViewId="0">
-      <selection activeCell="B636" sqref="B636"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A616" workbookViewId="0">
+      <selection activeCell="A637" sqref="A637"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.3046875" defaultRowHeight="20.05" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.15234375" style="9" customWidth="1"/>
     <col min="2" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="21.84375" style="9" customWidth="1"/>
     <col min="5" max="5" width="17" style="9" customWidth="1"/>
     <col min="6" max="6" width="6" style="9" customWidth="1"/>
     <col min="7" max="7" width="12" style="9" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.33203125" style="1"/>
+    <col min="8" max="8" width="10.15234375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="8.3046875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.3046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="20.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8733,12 +8748,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>IF(ISERROR(VLOOKUP(H2,A1:H635,3,1)),C2,VLOOKUP(H2,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H2,A1:H637,3,1)),C2,VLOOKUP(H2,A1:H637,3,1))</f>
         <v>1</v>
       </c>
       <c r="C2" s="3">
@@ -8760,12 +8775,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="20.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="4">
-        <f>IF(ISERROR(VLOOKUP(H3,A1:H635,3,1)),C3,VLOOKUP(H3,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H3,A1:H637,3,1)),C3,VLOOKUP(H3,A1:H637,3,1))</f>
         <v>488</v>
       </c>
       <c r="C3" s="5">
@@ -8787,12 +8802,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="20.05" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="4">
-        <f>IF(ISERROR(VLOOKUP(H4,A1:H635,3,1)),C4,VLOOKUP(H4,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H4,A1:H637,3,1)),C4,VLOOKUP(H4,A1:H637,3,1))</f>
         <v>501</v>
       </c>
       <c r="C4" s="5">
@@ -8810,12 +8825,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="20.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="4">
-        <f>IF(ISERROR(VLOOKUP(H5,A1:H635,3,1)),C5,VLOOKUP(H5,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H5,A1:H637,3,1)),C5,VLOOKUP(H5,A1:H637,3,1))</f>
         <v>590</v>
       </c>
       <c r="C5" s="5">
@@ -8837,12 +8852,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="20.05" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="4">
-        <f>IF(ISERROR(VLOOKUP(H6,A1:H635,3,1)),C6,VLOOKUP(H6,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H6,A1:H637,3,1)),C6,VLOOKUP(H6,A1:H637,3,1))</f>
         <v>552</v>
       </c>
       <c r="C6" s="5">
@@ -8864,12 +8879,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="20.05" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="4">
-        <f>IF(ISERROR(VLOOKUP(H7,A1:H635,3,1)),C7,VLOOKUP(H7,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H7,A1:H637,3,1)),C7,VLOOKUP(H7,A1:H637,3,1))</f>
         <v>552</v>
       </c>
       <c r="C7" s="5">
@@ -8891,12 +8906,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="20.05" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="4">
-        <f>IF(ISERROR(VLOOKUP(H8,A1:H635,3,1)),C8,VLOOKUP(H8,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H8,A1:H637,3,1)),C8,VLOOKUP(H8,A1:H637,3,1))</f>
         <v>532</v>
       </c>
       <c r="C8" s="5">
@@ -8918,12 +8933,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="20.05" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="4">
-        <f>IF(ISERROR(VLOOKUP(H9,A1:H635,3,1)),C9,VLOOKUP(H9,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H9,A1:H637,3,1)),C9,VLOOKUP(H9,A1:H637,3,1))</f>
         <v>496</v>
       </c>
       <c r="C9" s="5">
@@ -8945,12 +8960,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="20.05" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="4">
-        <f>IF(ISERROR(VLOOKUP(H10,A1:H635,3,1)),C10,VLOOKUP(H10,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H10,A1:H637,3,1)),C10,VLOOKUP(H10,A1:H637,3,1))</f>
         <v>449</v>
       </c>
       <c r="C10" s="5">
@@ -8972,12 +8987,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="20.05" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="4">
-        <f>IF(ISERROR(VLOOKUP(H11,A1:H635,3,1)),C11,VLOOKUP(H11,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H11,A1:H637,3,1)),C11,VLOOKUP(H11,A1:H637,3,1))</f>
         <v>449</v>
       </c>
       <c r="C11" s="5">
@@ -8999,12 +9014,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="20.05" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="4">
-        <f>IF(ISERROR(VLOOKUP(H12,A1:H635,3,1)),C12,VLOOKUP(H12,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H12,A1:H637,3,1)),C12,VLOOKUP(H12,A1:H637,3,1))</f>
         <v>474</v>
       </c>
       <c r="C12" s="5">
@@ -9026,12 +9041,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="20.05" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="4">
-        <f>IF(ISERROR(VLOOKUP(H13,A1:H635,3,1)),C13,VLOOKUP(H13,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H13,A1:H637,3,1)),C13,VLOOKUP(H13,A1:H637,3,1))</f>
         <v>465</v>
       </c>
       <c r="C13" s="5">
@@ -9053,12 +9068,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="20.05" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="4">
-        <f>IF(ISERROR(VLOOKUP(H14,A1:H635,3,1)),C14,VLOOKUP(H14,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H14,A1:H637,3,1)),C14,VLOOKUP(H14,A1:H637,3,1))</f>
         <v>483</v>
       </c>
       <c r="C14" s="5">
@@ -9080,12 +9095,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="20.05" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B15" s="4">
-        <f>IF(ISERROR(VLOOKUP(H15,A1:H635,3,1)),C15,VLOOKUP(H15,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H15,A1:H637,3,1)),C15,VLOOKUP(H15,A1:H637,3,1))</f>
         <v>469</v>
       </c>
       <c r="C15" s="5">
@@ -9107,12 +9122,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="20.05" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="4">
-        <f>IF(ISERROR(VLOOKUP(H16,A1:H635,3,1)),C16,VLOOKUP(H16,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H16,A1:H637,3,1)),C16,VLOOKUP(H16,A1:H637,3,1))</f>
         <v>485</v>
       </c>
       <c r="C16" s="5">
@@ -9134,12 +9149,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="20.05" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="4">
-        <f>IF(ISERROR(VLOOKUP(H17,A1:H635,3,1)),C17,VLOOKUP(H17,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H17,A1:H637,3,1)),C17,VLOOKUP(H17,A1:H637,3,1))</f>
         <v>480</v>
       </c>
       <c r="C17" s="5">
@@ -9161,12 +9176,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="20.05" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="4">
-        <f>IF(ISERROR(VLOOKUP(H18,A1:H635,3,1)),C18,VLOOKUP(H18,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H18,A1:H637,3,1)),C18,VLOOKUP(H18,A1:H637,3,1))</f>
         <v>10</v>
       </c>
       <c r="C18" s="5">
@@ -9188,12 +9203,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="20.05" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B19" s="4">
-        <f>IF(ISERROR(VLOOKUP(H19,A1:H635,3,1)),C19,VLOOKUP(H19,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H19,A1:H637,3,1)),C19,VLOOKUP(H19,A1:H637,3,1))</f>
         <v>15</v>
       </c>
       <c r="C19" s="5">
@@ -9215,12 +9230,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="20.05" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B20" s="4">
-        <f>IF(ISERROR(VLOOKUP(H20,A1:H635,3,1)),C20,VLOOKUP(H20,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H20,A1:H637,3,1)),C20,VLOOKUP(H20,A1:H637,3,1))</f>
         <v>22</v>
       </c>
       <c r="C20" s="5">
@@ -9242,12 +9257,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="20.05" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B21" s="4">
-        <f>IF(ISERROR(VLOOKUP(H21,A1:H635,3,1)),C21,VLOOKUP(H21,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H21,A1:H637,3,1)),C21,VLOOKUP(H21,A1:H637,3,1))</f>
         <v>26</v>
       </c>
       <c r="C21" s="5">
@@ -9269,12 +9284,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="20.05" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B22" s="4">
-        <f>IF(ISERROR(VLOOKUP(H22,A1:H635,3,1)),C22,VLOOKUP(H22,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H22,A1:H637,3,1)),C22,VLOOKUP(H22,A1:H637,3,1))</f>
         <v>31</v>
       </c>
       <c r="C22" s="5">
@@ -9296,12 +9311,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="20.05" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B23" s="4">
-        <f>IF(ISERROR(VLOOKUP(H23,A1:H635,3,1)),C23,VLOOKUP(H23,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H23,A1:H637,3,1)),C23,VLOOKUP(H23,A1:H637,3,1))</f>
         <v>35</v>
       </c>
       <c r="C23" s="5">
@@ -9323,12 +9338,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="20.05" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B24" s="4">
-        <f>IF(ISERROR(VLOOKUP(H24,A1:H635,3,1)),C24,VLOOKUP(H24,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H24,A1:H637,3,1)),C24,VLOOKUP(H24,A1:H637,3,1))</f>
         <v>39</v>
       </c>
       <c r="C24" s="5">
@@ -9350,12 +9365,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="20.05" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B25" s="4">
-        <f>IF(ISERROR(VLOOKUP(H25,A1:H635,3,1)),C25,VLOOKUP(H25,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H25,A1:H637,3,1)),C25,VLOOKUP(H25,A1:H637,3,1))</f>
         <v>43</v>
       </c>
       <c r="C25" s="5">
@@ -9377,12 +9392,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="20.05" customHeight="1">
       <c r="A26" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B26" s="4">
-        <f>IF(ISERROR(VLOOKUP(H26,A1:H635,3,1)),C26,VLOOKUP(H26,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H26,A1:H637,3,1)),C26,VLOOKUP(H26,A1:H637,3,1))</f>
         <v>47</v>
       </c>
       <c r="C26" s="5">
@@ -9404,12 +9419,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="20.05" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B27" s="4">
-        <f>IF(ISERROR(VLOOKUP(H27,A1:H635,3,1)),C27,VLOOKUP(H27,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H27,A1:H637,3,1)),C27,VLOOKUP(H27,A1:H637,3,1))</f>
         <v>51</v>
       </c>
       <c r="C27" s="5">
@@ -9431,12 +9446,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="20.05" customHeight="1">
       <c r="A28" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B28" s="4">
-        <f>IF(ISERROR(VLOOKUP(H28,A1:H635,3,1)),C28,VLOOKUP(H28,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H28,A1:H637,3,1)),C28,VLOOKUP(H28,A1:H637,3,1))</f>
         <v>492</v>
       </c>
       <c r="C28" s="5">
@@ -9458,12 +9473,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="20.05" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B29" s="4">
-        <f>IF(ISERROR(VLOOKUP(H29,A1:H635,3,1)),C29,VLOOKUP(H29,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H29,A1:H637,3,1)),C29,VLOOKUP(H29,A1:H637,3,1))</f>
         <v>495</v>
       </c>
       <c r="C29" s="5">
@@ -9485,12 +9500,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="20.05" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B30" s="4">
-        <f>IF(ISERROR(VLOOKUP(H30,A1:H635,3,1)),C30,VLOOKUP(H30,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H30,A1:H637,3,1)),C30,VLOOKUP(H30,A1:H637,3,1))</f>
         <v>538</v>
       </c>
       <c r="C30" s="5">
@@ -9512,12 +9527,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="20.05" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B31" s="4">
-        <f>IF(ISERROR(VLOOKUP(H31,A1:H635,3,1)),C31,VLOOKUP(H31,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H31,A1:H637,3,1)),C31,VLOOKUP(H31,A1:H637,3,1))</f>
         <v>538</v>
       </c>
       <c r="C31" s="5">
@@ -9539,12 +9554,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="20.05" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>120</v>
       </c>
       <c r="B32" s="4">
-        <f>IF(ISERROR(VLOOKUP(H32,A1:H635,3,1)),C32,VLOOKUP(H32,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H32,A1:H637,3,1)),C32,VLOOKUP(H32,A1:H637,3,1))</f>
         <v>538</v>
       </c>
       <c r="C32" s="5">
@@ -9566,12 +9581,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="20.05" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>124</v>
       </c>
       <c r="B33" s="4">
-        <f>IF(ISERROR(VLOOKUP(H33,A1:H635,3,1)),C33,VLOOKUP(H33,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H33,A1:H637,3,1)),C33,VLOOKUP(H33,A1:H637,3,1))</f>
         <v>490</v>
       </c>
       <c r="C33" s="5">
@@ -9593,12 +9608,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" ht="20.05" customHeight="1">
       <c r="A34" s="8" t="s">
         <v>128</v>
       </c>
       <c r="B34" s="4">
-        <f>IF(ISERROR(VLOOKUP(H34,A1:H635,3,1)),C34,VLOOKUP(H34,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H34,A1:H637,3,1)),C34,VLOOKUP(H34,A1:H637,3,1))</f>
         <v>508</v>
       </c>
       <c r="C34" s="5">
@@ -9620,12 +9635,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" ht="20.05" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B35" s="4">
-        <f>IF(ISERROR(VLOOKUP(H35,A1:H635,3,1)),C35,VLOOKUP(H35,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H35,A1:H637,3,1)),C35,VLOOKUP(H35,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C35" s="5">
@@ -9647,12 +9662,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" ht="20.05" customHeight="1">
       <c r="A36" s="8" t="s">
         <v>135</v>
       </c>
       <c r="B36" s="4">
-        <f>IF(ISERROR(VLOOKUP(H36,A1:H635,3,1)),C36,VLOOKUP(H36,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H36,A1:H637,3,1)),C36,VLOOKUP(H36,A1:H637,3,1))</f>
         <v>89</v>
       </c>
       <c r="C36" s="5">
@@ -9674,12 +9689,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" ht="20.05" customHeight="1">
       <c r="A37" s="8" t="s">
         <v>138</v>
       </c>
       <c r="B37" s="4">
-        <f>IF(ISERROR(VLOOKUP(H37,A1:H635,3,1)),C37,VLOOKUP(H37,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H37,A1:H637,3,1)),C37,VLOOKUP(H37,A1:H637,3,1))</f>
         <v>95</v>
       </c>
       <c r="C37" s="5">
@@ -9701,12 +9716,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" ht="20.05" customHeight="1">
       <c r="A38" s="8" t="s">
         <v>141</v>
       </c>
       <c r="B38" s="4">
-        <f>IF(ISERROR(VLOOKUP(H38,A1:H635,3,1)),C38,VLOOKUP(H38,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H38,A1:H637,3,1)),C38,VLOOKUP(H38,A1:H637,3,1))</f>
         <v>109</v>
       </c>
       <c r="C38" s="5">
@@ -9728,12 +9743,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" ht="20.05" customHeight="1">
       <c r="A39" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B39" s="4">
-        <f>IF(ISERROR(VLOOKUP(H39,A1:H635,3,1)),C39,VLOOKUP(H39,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H39,A1:H637,3,1)),C39,VLOOKUP(H39,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C39" s="5">
@@ -9755,12 +9770,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" ht="20.05" customHeight="1">
       <c r="A40" s="8" t="s">
         <v>147</v>
       </c>
       <c r="B40" s="4">
-        <f>IF(ISERROR(VLOOKUP(H40,A1:H635,3,1)),C40,VLOOKUP(H40,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H40,A1:H637,3,1)),C40,VLOOKUP(H40,A1:H637,3,1))</f>
         <v>146</v>
       </c>
       <c r="C40" s="5">
@@ -9782,12 +9797,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" ht="20.05" customHeight="1">
       <c r="A41" s="8" t="s">
         <v>150</v>
       </c>
       <c r="B41" s="4">
-        <f>IF(ISERROR(VLOOKUP(H41,A1:H635,3,1)),C41,VLOOKUP(H41,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H41,A1:H637,3,1)),C41,VLOOKUP(H41,A1:H637,3,1))</f>
         <v>152</v>
       </c>
       <c r="C41" s="5">
@@ -9809,12 +9824,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" ht="20.05" customHeight="1">
       <c r="A42" s="8" t="s">
         <v>153</v>
       </c>
       <c r="B42" s="4">
-        <f>IF(ISERROR(VLOOKUP(H42,A1:H635,3,1)),C42,VLOOKUP(H42,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H42,A1:H637,3,1)),C42,VLOOKUP(H42,A1:H637,3,1))</f>
         <v>160</v>
       </c>
       <c r="C42" s="5">
@@ -9836,12 +9851,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" ht="20.05" customHeight="1">
       <c r="A43" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B43" s="4">
-        <f>IF(ISERROR(VLOOKUP(H43,A1:H635,3,1)),C43,VLOOKUP(H43,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H43,A1:H637,3,1)),C43,VLOOKUP(H43,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C43" s="5">
@@ -9863,12 +9878,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" ht="20.05" customHeight="1">
       <c r="A44" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B44" s="4">
-        <f>IF(ISERROR(VLOOKUP(H44,A1:H635,3,1)),C44,VLOOKUP(H44,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H44,A1:H637,3,1)),C44,VLOOKUP(H44,A1:H637,3,1))</f>
         <v>191</v>
       </c>
       <c r="C44" s="5">
@@ -9890,12 +9905,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" ht="20.05" customHeight="1">
       <c r="A45" s="8" t="s">
         <v>162</v>
       </c>
       <c r="B45" s="4">
-        <f>IF(ISERROR(VLOOKUP(H45,A1:H635,3,1)),C45,VLOOKUP(H45,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H45,A1:H637,3,1)),C45,VLOOKUP(H45,A1:H637,3,1))</f>
         <v>197</v>
       </c>
       <c r="C45" s="5">
@@ -9917,12 +9932,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" ht="20.05" customHeight="1">
       <c r="A46" s="8" t="s">
         <v>165</v>
       </c>
       <c r="B46" s="4">
-        <f>IF(ISERROR(VLOOKUP(H46,A1:H635,3,1)),C46,VLOOKUP(H46,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H46,A1:H637,3,1)),C46,VLOOKUP(H46,A1:H637,3,1))</f>
         <v>203</v>
       </c>
       <c r="C46" s="5">
@@ -9944,12 +9959,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" ht="20.05" customHeight="1">
       <c r="A47" s="8" t="s">
         <v>168</v>
       </c>
       <c r="B47" s="4">
-        <f>IF(ISERROR(VLOOKUP(H47,A1:H635,3,1)),C47,VLOOKUP(H47,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H47,A1:H637,3,1)),C47,VLOOKUP(H47,A1:H637,3,1))</f>
         <v>215</v>
       </c>
       <c r="C47" s="5">
@@ -9971,12 +9986,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" ht="20.05" customHeight="1">
       <c r="A48" s="8" t="s">
         <v>171</v>
       </c>
       <c r="B48" s="4">
-        <f>IF(ISERROR(VLOOKUP(H48,A1:H635,3,1)),C48,VLOOKUP(H48,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H48,A1:H637,3,1)),C48,VLOOKUP(H48,A1:H637,3,1))</f>
         <v>221</v>
       </c>
       <c r="C48" s="5">
@@ -9998,12 +10013,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" ht="20.05" customHeight="1">
       <c r="A49" s="8" t="s">
         <v>174</v>
       </c>
       <c r="B49" s="4">
-        <f>IF(ISERROR(VLOOKUP(H49,A1:H635,3,1)),C49,VLOOKUP(H49,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H49,A1:H637,3,1)),C49,VLOOKUP(H49,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C49" s="5">
@@ -10025,12 +10040,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" ht="20.05" customHeight="1">
       <c r="A50" s="8" t="s">
         <v>177</v>
       </c>
       <c r="B50" s="4">
-        <f>IF(ISERROR(VLOOKUP(H50,A1:H635,3,1)),C50,VLOOKUP(H50,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H50,A1:H637,3,1)),C50,VLOOKUP(H50,A1:H637,3,1))</f>
         <v>259</v>
       </c>
       <c r="C50" s="5">
@@ -10052,12 +10067,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" ht="20.05" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>180</v>
       </c>
       <c r="B51" s="4">
-        <f>IF(ISERROR(VLOOKUP(H51,A1:H635,3,1)),C51,VLOOKUP(H51,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H51,A1:H637,3,1)),C51,VLOOKUP(H51,A1:H637,3,1))</f>
         <v>265</v>
       </c>
       <c r="C51" s="5">
@@ -10079,12 +10094,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" ht="20.05" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>183</v>
       </c>
       <c r="B52" s="4">
-        <f>IF(ISERROR(VLOOKUP(H52,A1:H635,3,1)),C52,VLOOKUP(H52,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H52,A1:H637,3,1)),C52,VLOOKUP(H52,A1:H637,3,1))</f>
         <v>272</v>
       </c>
       <c r="C52" s="5">
@@ -10106,12 +10121,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" ht="20.05" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>186</v>
       </c>
       <c r="B53" s="4">
-        <f>IF(ISERROR(VLOOKUP(H53,A1:H635,3,1)),C53,VLOOKUP(H53,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H53,A1:H637,3,1)),C53,VLOOKUP(H53,A1:H637,3,1))</f>
         <v>283</v>
       </c>
       <c r="C53" s="5">
@@ -10133,12 +10148,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" ht="20.05" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>189</v>
       </c>
       <c r="B54" s="4">
-        <f>IF(ISERROR(VLOOKUP(H54,A1:H635,3,1)),C54,VLOOKUP(H54,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H54,A1:H637,3,1)),C54,VLOOKUP(H54,A1:H637,3,1))</f>
         <v>296</v>
       </c>
       <c r="C54" s="5">
@@ -10160,12 +10175,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" ht="20.05" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>192</v>
       </c>
       <c r="B55" s="4">
-        <f>IF(ISERROR(VLOOKUP(H55,A1:H635,3,1)),C55,VLOOKUP(H55,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H55,A1:H637,3,1)),C55,VLOOKUP(H55,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C55" s="5">
@@ -10187,12 +10202,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" ht="20.05" customHeight="1">
       <c r="A56" s="8" t="s">
         <v>195</v>
       </c>
       <c r="B56" s="4">
-        <f>IF(ISERROR(VLOOKUP(H56,A1:H635,3,1)),C56,VLOOKUP(H56,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H56,A1:H637,3,1)),C56,VLOOKUP(H56,A1:H637,3,1))</f>
         <v>331</v>
       </c>
       <c r="C56" s="5">
@@ -10214,12 +10229,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" ht="20.05" customHeight="1">
       <c r="A57" s="8" t="s">
         <v>198</v>
       </c>
       <c r="B57" s="4">
-        <f>IF(ISERROR(VLOOKUP(H57,A1:H635,3,1)),C57,VLOOKUP(H57,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H57,A1:H637,3,1)),C57,VLOOKUP(H57,A1:H637,3,1))</f>
         <v>337</v>
       </c>
       <c r="C57" s="5">
@@ -10241,12 +10256,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" ht="20.05" customHeight="1">
       <c r="A58" s="8" t="s">
         <v>201</v>
       </c>
       <c r="B58" s="4">
-        <f>IF(ISERROR(VLOOKUP(H58,A1:H635,3,1)),C58,VLOOKUP(H58,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H58,A1:H637,3,1)),C58,VLOOKUP(H58,A1:H637,3,1))</f>
         <v>345</v>
       </c>
       <c r="C58" s="5">
@@ -10268,12 +10283,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" ht="20.05" customHeight="1">
       <c r="A59" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B59" s="4">
-        <f>IF(ISERROR(VLOOKUP(H59,A1:H635,3,1)),C59,VLOOKUP(H59,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H59,A1:H637,3,1)),C59,VLOOKUP(H59,A1:H637,3,1))</f>
         <v>355</v>
       </c>
       <c r="C59" s="5">
@@ -10295,12 +10310,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" ht="20.05" customHeight="1">
       <c r="A60" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B60" s="4">
-        <f>IF(ISERROR(VLOOKUP(H60,A1:H635,3,1)),C60,VLOOKUP(H60,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H60,A1:H637,3,1)),C60,VLOOKUP(H60,A1:H637,3,1))</f>
         <v>369</v>
       </c>
       <c r="C60" s="5">
@@ -10322,12 +10337,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" ht="20.05" customHeight="1">
       <c r="A61" s="8" t="s">
         <v>210</v>
       </c>
       <c r="B61" s="4">
-        <f>IF(ISERROR(VLOOKUP(H61,A1:H635,3,1)),C61,VLOOKUP(H61,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H61,A1:H637,3,1)),C61,VLOOKUP(H61,A1:H637,3,1))</f>
         <v>451</v>
       </c>
       <c r="C61" s="5">
@@ -10349,12 +10364,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" ht="20.05" customHeight="1">
       <c r="A62" s="8" t="s">
         <v>214</v>
       </c>
       <c r="B62" s="4">
-        <f>IF(ISERROR(VLOOKUP(H62,A1:H635,3,1)),C62,VLOOKUP(H62,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H62,A1:H637,3,1)),C62,VLOOKUP(H62,A1:H637,3,1))</f>
         <v>480</v>
       </c>
       <c r="C62" s="5">
@@ -10376,12 +10391,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" ht="20.05" customHeight="1">
       <c r="A63" s="8" t="s">
         <v>218</v>
       </c>
       <c r="B63" s="4">
-        <f>IF(ISERROR(VLOOKUP(H63,A1:H635,3,1)),C63,VLOOKUP(H63,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H63,A1:H637,3,1)),C63,VLOOKUP(H63,A1:H637,3,1))</f>
         <v>451</v>
       </c>
       <c r="C63" s="5">
@@ -10403,12 +10418,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" ht="20.05" customHeight="1">
       <c r="A64" s="8" t="s">
         <v>222</v>
       </c>
       <c r="B64" s="4">
-        <f>IF(ISERROR(VLOOKUP(H64,A1:H635,3,1)),C64,VLOOKUP(H64,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H64,A1:H637,3,1)),C64,VLOOKUP(H64,A1:H637,3,1))</f>
         <v>482</v>
       </c>
       <c r="C64" s="5">
@@ -10430,12 +10445,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" ht="20.05" customHeight="1">
       <c r="A65" s="8" t="s">
         <v>226</v>
       </c>
       <c r="B65" s="4">
-        <f>IF(ISERROR(VLOOKUP(H65,A1:H635,3,1)),C65,VLOOKUP(H65,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H65,A1:H637,3,1)),C65,VLOOKUP(H65,A1:H637,3,1))</f>
         <v>509</v>
       </c>
       <c r="C65" s="5">
@@ -10457,12 +10472,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" ht="20.05" customHeight="1">
       <c r="A66" s="8" t="s">
         <v>230</v>
       </c>
       <c r="B66" s="4">
-        <f>IF(ISERROR(VLOOKUP(H66,A1:H635,3,1)),C66,VLOOKUP(H66,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H66,A1:H637,3,1)),C66,VLOOKUP(H66,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C66" s="5">
@@ -10484,12 +10499,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" ht="20.05" customHeight="1">
       <c r="A67" s="8" t="s">
         <v>233</v>
       </c>
       <c r="B67" s="4">
-        <f>IF(ISERROR(VLOOKUP(H67,A1:H635,3,1)),C67,VLOOKUP(H67,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H67,A1:H637,3,1)),C67,VLOOKUP(H67,A1:H637,3,1))</f>
         <v>89</v>
       </c>
       <c r="C67" s="5">
@@ -10511,12 +10526,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" ht="20.05" customHeight="1">
       <c r="A68" s="8" t="s">
         <v>236</v>
       </c>
       <c r="B68" s="4">
-        <f>IF(ISERROR(VLOOKUP(H68,A1:H635,3,1)),C68,VLOOKUP(H68,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H68,A1:H637,3,1)),C68,VLOOKUP(H68,A1:H637,3,1))</f>
         <v>95</v>
       </c>
       <c r="C68" s="5">
@@ -10538,12 +10553,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" ht="20.05" customHeight="1">
       <c r="A69" s="8" t="s">
         <v>239</v>
       </c>
       <c r="B69" s="4">
-        <f>IF(ISERROR(VLOOKUP(H69,A1:H635,3,1)),C69,VLOOKUP(H69,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H69,A1:H637,3,1)),C69,VLOOKUP(H69,A1:H637,3,1))</f>
         <v>109</v>
       </c>
       <c r="C69" s="5">
@@ -10565,12 +10580,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" ht="20.05" customHeight="1">
       <c r="A70" s="8" t="s">
         <v>242</v>
       </c>
       <c r="B70" s="4">
-        <f>IF(ISERROR(VLOOKUP(H70,A1:H635,3,1)),C70,VLOOKUP(H70,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H70,A1:H637,3,1)),C70,VLOOKUP(H70,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C70" s="5">
@@ -10592,12 +10607,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" ht="20.05" customHeight="1">
       <c r="A71" s="8" t="s">
         <v>245</v>
       </c>
       <c r="B71" s="4">
-        <f>IF(ISERROR(VLOOKUP(H71,A1:H635,3,1)),C71,VLOOKUP(H71,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H71,A1:H637,3,1)),C71,VLOOKUP(H71,A1:H637,3,1))</f>
         <v>146</v>
       </c>
       <c r="C71" s="5">
@@ -10619,12 +10634,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" ht="20.05" customHeight="1">
       <c r="A72" s="8" t="s">
         <v>248</v>
       </c>
       <c r="B72" s="4">
-        <f>IF(ISERROR(VLOOKUP(H72,A1:H635,3,1)),C72,VLOOKUP(H72,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H72,A1:H637,3,1)),C72,VLOOKUP(H72,A1:H637,3,1))</f>
         <v>152</v>
       </c>
       <c r="C72" s="5">
@@ -10646,12 +10661,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" ht="20.05" customHeight="1">
       <c r="A73" s="8" t="s">
         <v>251</v>
       </c>
       <c r="B73" s="4">
-        <f>IF(ISERROR(VLOOKUP(H73,A1:H635,3,1)),C73,VLOOKUP(H73,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H73,A1:H637,3,1)),C73,VLOOKUP(H73,A1:H637,3,1))</f>
         <v>160</v>
       </c>
       <c r="C73" s="5">
@@ -10673,12 +10688,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" ht="20.05" customHeight="1">
       <c r="A74" s="8" t="s">
         <v>254</v>
       </c>
       <c r="B74" s="4">
-        <f>IF(ISERROR(VLOOKUP(H74,A1:H635,3,1)),C74,VLOOKUP(H74,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H74,A1:H637,3,1)),C74,VLOOKUP(H74,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C74" s="5">
@@ -10700,12 +10715,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" ht="20.05" customHeight="1">
       <c r="A75" s="8" t="s">
         <v>257</v>
       </c>
       <c r="B75" s="4">
-        <f>IF(ISERROR(VLOOKUP(H75,A1:H635,3,1)),C75,VLOOKUP(H75,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H75,A1:H637,3,1)),C75,VLOOKUP(H75,A1:H637,3,1))</f>
         <v>191</v>
       </c>
       <c r="C75" s="5">
@@ -10727,12 +10742,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" ht="20.05" customHeight="1">
       <c r="A76" s="8" t="s">
         <v>260</v>
       </c>
       <c r="B76" s="4">
-        <f>IF(ISERROR(VLOOKUP(H76,A1:H635,3,1)),C76,VLOOKUP(H76,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H76,A1:H637,3,1)),C76,VLOOKUP(H76,A1:H637,3,1))</f>
         <v>197</v>
       </c>
       <c r="C76" s="5">
@@ -10754,12 +10769,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" ht="20.05" customHeight="1">
       <c r="A77" s="8" t="s">
         <v>263</v>
       </c>
       <c r="B77" s="4">
-        <f>IF(ISERROR(VLOOKUP(H77,A1:H635,3,1)),C77,VLOOKUP(H77,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H77,A1:H637,3,1)),C77,VLOOKUP(H77,A1:H637,3,1))</f>
         <v>203</v>
       </c>
       <c r="C77" s="5">
@@ -10781,12 +10796,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" ht="20.05" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>266</v>
       </c>
       <c r="B78" s="4">
-        <f>IF(ISERROR(VLOOKUP(H78,A1:H635,3,1)),C78,VLOOKUP(H78,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H78,A1:H637,3,1)),C78,VLOOKUP(H78,A1:H637,3,1))</f>
         <v>215</v>
       </c>
       <c r="C78" s="5">
@@ -10808,12 +10823,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" ht="20.05" customHeight="1">
       <c r="A79" s="8" t="s">
         <v>269</v>
       </c>
       <c r="B79" s="4">
-        <f>IF(ISERROR(VLOOKUP(H79,A1:H635,3,1)),C79,VLOOKUP(H79,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H79,A1:H637,3,1)),C79,VLOOKUP(H79,A1:H637,3,1))</f>
         <v>221</v>
       </c>
       <c r="C79" s="5">
@@ -10835,12 +10850,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" ht="20.05" customHeight="1">
       <c r="A80" s="8" t="s">
         <v>272</v>
       </c>
       <c r="B80" s="4">
-        <f>IF(ISERROR(VLOOKUP(H80,A1:H635,3,1)),C80,VLOOKUP(H80,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H80,A1:H637,3,1)),C80,VLOOKUP(H80,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C80" s="5">
@@ -10862,12 +10877,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="20.05" customHeight="1">
       <c r="A81" s="8" t="s">
         <v>275</v>
       </c>
       <c r="B81" s="4">
-        <f>IF(ISERROR(VLOOKUP(H81,A1:H635,3,1)),C81,VLOOKUP(H81,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H81,A1:H637,3,1)),C81,VLOOKUP(H81,A1:H637,3,1))</f>
         <v>259</v>
       </c>
       <c r="C81" s="5">
@@ -10889,12 +10904,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="20.05" customHeight="1">
       <c r="A82" s="8" t="s">
         <v>278</v>
       </c>
       <c r="B82" s="4">
-        <f>IF(ISERROR(VLOOKUP(H82,A1:H635,3,1)),C82,VLOOKUP(H82,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H82,A1:H637,3,1)),C82,VLOOKUP(H82,A1:H637,3,1))</f>
         <v>265</v>
       </c>
       <c r="C82" s="5">
@@ -10916,12 +10931,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8" ht="20.05" customHeight="1">
       <c r="A83" s="8" t="s">
         <v>281</v>
       </c>
       <c r="B83" s="4">
-        <f>IF(ISERROR(VLOOKUP(H83,A1:H635,3,1)),C83,VLOOKUP(H83,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H83,A1:H637,3,1)),C83,VLOOKUP(H83,A1:H637,3,1))</f>
         <v>272</v>
       </c>
       <c r="C83" s="5">
@@ -10943,12 +10958,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="20.05" customHeight="1">
       <c r="A84" s="8" t="s">
         <v>284</v>
       </c>
       <c r="B84" s="4">
-        <f>IF(ISERROR(VLOOKUP(H84,A1:H635,3,1)),C84,VLOOKUP(H84,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H84,A1:H637,3,1)),C84,VLOOKUP(H84,A1:H637,3,1))</f>
         <v>283</v>
       </c>
       <c r="C84" s="5">
@@ -10970,12 +10985,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="20.05" customHeight="1">
       <c r="A85" s="8" t="s">
         <v>287</v>
       </c>
       <c r="B85" s="4">
-        <f>IF(ISERROR(VLOOKUP(H85,A1:H635,3,1)),C85,VLOOKUP(H85,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H85,A1:H637,3,1)),C85,VLOOKUP(H85,A1:H637,3,1))</f>
         <v>296</v>
       </c>
       <c r="C85" s="5">
@@ -10997,12 +11012,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="20.05" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>290</v>
       </c>
       <c r="B86" s="4">
-        <f>IF(ISERROR(VLOOKUP(H86,A1:H635,3,1)),C86,VLOOKUP(H86,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H86,A1:H637,3,1)),C86,VLOOKUP(H86,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C86" s="5">
@@ -11024,12 +11039,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="20.05" customHeight="1">
       <c r="A87" s="8" t="s">
         <v>293</v>
       </c>
       <c r="B87" s="4">
-        <f>IF(ISERROR(VLOOKUP(H87,A1:H635,3,1)),C87,VLOOKUP(H87,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H87,A1:H637,3,1)),C87,VLOOKUP(H87,A1:H637,3,1))</f>
         <v>331</v>
       </c>
       <c r="C87" s="5">
@@ -11051,12 +11066,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="20.05" customHeight="1">
       <c r="A88" s="8" t="s">
         <v>296</v>
       </c>
       <c r="B88" s="4">
-        <f>IF(ISERROR(VLOOKUP(H88,A1:H635,3,1)),C88,VLOOKUP(H88,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H88,A1:H637,3,1)),C88,VLOOKUP(H88,A1:H637,3,1))</f>
         <v>337</v>
       </c>
       <c r="C88" s="5">
@@ -11078,12 +11093,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="20.05" customHeight="1">
       <c r="A89" s="8" t="s">
         <v>299</v>
       </c>
       <c r="B89" s="4">
-        <f>IF(ISERROR(VLOOKUP(H89,A1:H635,3,1)),C89,VLOOKUP(H89,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H89,A1:H637,3,1)),C89,VLOOKUP(H89,A1:H637,3,1))</f>
         <v>345</v>
       </c>
       <c r="C89" s="5">
@@ -11105,12 +11120,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="20.05" customHeight="1">
       <c r="A90" s="8" t="s">
         <v>302</v>
       </c>
       <c r="B90" s="4">
-        <f>IF(ISERROR(VLOOKUP(H90,A1:H635,3,1)),C90,VLOOKUP(H90,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H90,A1:H637,3,1)),C90,VLOOKUP(H90,A1:H637,3,1))</f>
         <v>355</v>
       </c>
       <c r="C90" s="5">
@@ -11132,12 +11147,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="20.05" customHeight="1">
       <c r="A91" s="8" t="s">
         <v>305</v>
       </c>
       <c r="B91" s="4">
-        <f>IF(ISERROR(VLOOKUP(H91,A1:H635,3,1)),C91,VLOOKUP(H91,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H91,A1:H637,3,1)),C91,VLOOKUP(H91,A1:H637,3,1))</f>
         <v>369</v>
       </c>
       <c r="C91" s="5">
@@ -11159,12 +11174,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="20.05" customHeight="1">
       <c r="A92" s="8" t="s">
         <v>308</v>
       </c>
       <c r="B92" s="4">
-        <f>IF(ISERROR(VLOOKUP(H92,A1:H635,3,1)),C92,VLOOKUP(H92,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H92,A1:H637,3,1)),C92,VLOOKUP(H92,A1:H637,3,1))</f>
         <v>459</v>
       </c>
       <c r="C92" s="5">
@@ -11186,12 +11201,12 @@
         <v>308</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" ht="20.05" customHeight="1">
       <c r="A93" s="8" t="s">
         <v>312</v>
       </c>
       <c r="B93" s="4">
-        <f>IF(ISERROR(VLOOKUP(H93,A1:H635,3,1)),C93,VLOOKUP(H93,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H93,A1:H637,3,1)),C93,VLOOKUP(H93,A1:H637,3,1))</f>
         <v>533</v>
       </c>
       <c r="C93" s="5">
@@ -11213,12 +11228,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="20.05" customHeight="1">
       <c r="A94" s="8" t="s">
         <v>316</v>
       </c>
       <c r="B94" s="4">
-        <f>IF(ISERROR(VLOOKUP(H94,A1:H635,3,1)),C94,VLOOKUP(H94,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H94,A1:H637,3,1)),C94,VLOOKUP(H94,A1:H637,3,1))</f>
         <v>459</v>
       </c>
       <c r="C94" s="5">
@@ -11240,12 +11255,12 @@
         <v>308</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="20.05" customHeight="1">
       <c r="A95" s="8" t="s">
         <v>320</v>
       </c>
       <c r="B95" s="4">
-        <f>IF(ISERROR(VLOOKUP(H95,A1:H635,3,1)),C95,VLOOKUP(H95,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H95,A1:H637,3,1)),C95,VLOOKUP(H95,A1:H637,3,1))</f>
         <v>511</v>
       </c>
       <c r="C95" s="5">
@@ -11267,12 +11282,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="20.05" customHeight="1">
       <c r="A96" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B96" s="4">
-        <f>IF(ISERROR(VLOOKUP(H96,A1:H635,3,1)),C96,VLOOKUP(H96,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H96,A1:H637,3,1)),C96,VLOOKUP(H96,A1:H637,3,1))</f>
         <v>488</v>
       </c>
       <c r="C96" s="5">
@@ -11294,12 +11309,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" ht="20.05" customHeight="1">
       <c r="A97" s="8" t="s">
         <v>328</v>
       </c>
       <c r="B97" s="4">
-        <f>IF(ISERROR(VLOOKUP(H97,A1:H635,3,1)),C97,VLOOKUP(H97,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H97,A1:H637,3,1)),C97,VLOOKUP(H97,A1:H637,3,1))</f>
         <v>552</v>
       </c>
       <c r="C97" s="5">
@@ -11321,12 +11336,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8" ht="20.05" customHeight="1">
       <c r="A98" s="8" t="s">
         <v>332</v>
       </c>
       <c r="B98" s="4">
-        <f>IF(ISERROR(VLOOKUP(H98,A1:H635,3,1)),C98,VLOOKUP(H98,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H98,A1:H637,3,1)),C98,VLOOKUP(H98,A1:H637,3,1))</f>
         <v>552</v>
       </c>
       <c r="C98" s="5">
@@ -11348,12 +11363,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8" ht="20.05" customHeight="1">
       <c r="A99" s="8" t="s">
         <v>336</v>
       </c>
       <c r="B99" s="4">
-        <f>IF(ISERROR(VLOOKUP(H99,A1:H635,3,1)),C99,VLOOKUP(H99,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H99,A1:H637,3,1)),C99,VLOOKUP(H99,A1:H637,3,1))</f>
         <v>552</v>
       </c>
       <c r="C99" s="5">
@@ -11375,12 +11390,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:8" ht="20.05" customHeight="1">
       <c r="A100" s="8" t="s">
         <v>340</v>
       </c>
       <c r="B100" s="4">
-        <f>IF(ISERROR(VLOOKUP(H100,A1:H635,3,1)),C100,VLOOKUP(H100,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H100,A1:H637,3,1)),C100,VLOOKUP(H100,A1:H637,3,1))</f>
         <v>552</v>
       </c>
       <c r="C100" s="5">
@@ -11402,12 +11417,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8" ht="20.05" customHeight="1">
       <c r="A101" s="8" t="s">
         <v>344</v>
       </c>
       <c r="B101" s="4">
-        <f>IF(ISERROR(VLOOKUP(H101,A1:H635,3,1)),C101,VLOOKUP(H101,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H101,A1:H637,3,1)),C101,VLOOKUP(H101,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C101" s="5">
@@ -11429,12 +11444,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8" ht="20.05" customHeight="1">
       <c r="A102" s="8" t="s">
         <v>348</v>
       </c>
       <c r="B102" s="4">
-        <f>IF(ISERROR(VLOOKUP(H102,A1:H635,3,1)),C102,VLOOKUP(H102,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H102,A1:H637,3,1)),C102,VLOOKUP(H102,A1:H637,3,1))</f>
         <v>501</v>
       </c>
       <c r="C102" s="5">
@@ -11454,12 +11469,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8" ht="20.05" customHeight="1">
       <c r="A103" s="8" t="s">
         <v>352</v>
       </c>
       <c r="B103" s="4">
-        <f>IF(ISERROR(VLOOKUP(H103,A1:H635,3,1)),C103,VLOOKUP(H103,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H103,A1:H637,3,1)),C103,VLOOKUP(H103,A1:H637,3,1))</f>
         <v>526</v>
       </c>
       <c r="C103" s="5">
@@ -11481,12 +11496,12 @@
         <v>352</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8" ht="20.05" customHeight="1">
       <c r="A104" s="8" t="s">
         <v>356</v>
       </c>
       <c r="B104" s="4">
-        <f>IF(ISERROR(VLOOKUP(H104,A1:H635,3,1)),C104,VLOOKUP(H104,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H104,A1:H637,3,1)),C104,VLOOKUP(H104,A1:H637,3,1))</f>
         <v>10</v>
       </c>
       <c r="C104" s="5">
@@ -11508,12 +11523,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8" ht="20.05" customHeight="1">
       <c r="A105" s="8" t="s">
         <v>360</v>
       </c>
       <c r="B105" s="4">
-        <f>IF(ISERROR(VLOOKUP(H105,A1:H635,3,1)),C105,VLOOKUP(H105,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H105,A1:H637,3,1)),C105,VLOOKUP(H105,A1:H637,3,1))</f>
         <v>465</v>
       </c>
       <c r="C105" s="5">
@@ -11535,12 +11550,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8" ht="20.05" customHeight="1">
       <c r="A106" s="8" t="s">
         <v>364</v>
       </c>
       <c r="B106" s="4">
-        <f>IF(ISERROR(VLOOKUP(H106,A1:H635,3,1)),C106,VLOOKUP(H106,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H106,A1:H637,3,1)),C106,VLOOKUP(H106,A1:H637,3,1))</f>
         <v>413</v>
       </c>
       <c r="C106" s="5">
@@ -11562,12 +11577,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8" ht="20.05" customHeight="1">
       <c r="A107" s="8" t="s">
         <v>370</v>
       </c>
       <c r="B107" s="4">
-        <f>IF(ISERROR(VLOOKUP(H107,A1:H635,3,1)),C107,VLOOKUP(H107,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H107,A1:H637,3,1)),C107,VLOOKUP(H107,A1:H637,3,1))</f>
         <v>474</v>
       </c>
       <c r="C107" s="5">
@@ -11589,12 +11604,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:8" ht="20.05" customHeight="1">
       <c r="A108" s="8" t="s">
         <v>374</v>
       </c>
       <c r="B108" s="4">
-        <f>IF(ISERROR(VLOOKUP(H108,A1:H635,3,1)),C108,VLOOKUP(H108,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H108,A1:H637,3,1)),C108,VLOOKUP(H108,A1:H637,3,1))</f>
         <v>501</v>
       </c>
       <c r="C108" s="5">
@@ -11614,12 +11629,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:8" ht="20.05" customHeight="1">
       <c r="A109" s="8" t="s">
         <v>378</v>
       </c>
       <c r="B109" s="4">
-        <f>IF(ISERROR(VLOOKUP(H109,A1:H635,3,1)),C109,VLOOKUP(H109,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H109,A1:H637,3,1)),C109,VLOOKUP(H109,A1:H637,3,1))</f>
         <v>15</v>
       </c>
       <c r="C109" s="5">
@@ -11641,12 +11656,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:8" ht="20.05" customHeight="1">
       <c r="A110" s="8" t="s">
         <v>382</v>
       </c>
       <c r="B110" s="4">
-        <f>IF(ISERROR(VLOOKUP(H110,A1:H635,3,1)),C110,VLOOKUP(H110,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H110,A1:H637,3,1)),C110,VLOOKUP(H110,A1:H637,3,1))</f>
         <v>15</v>
       </c>
       <c r="C110" s="5">
@@ -11668,12 +11683,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:8" ht="20.05" customHeight="1">
       <c r="A111" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B111" s="4">
-        <f>IF(ISERROR(VLOOKUP(H111,A1:H635,3,1)),C111,VLOOKUP(H111,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H111,A1:H637,3,1)),C111,VLOOKUP(H111,A1:H637,3,1))</f>
         <v>490</v>
       </c>
       <c r="C111" s="5">
@@ -11695,12 +11710,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:8" ht="20.05" customHeight="1">
       <c r="A112" s="8" t="s">
         <v>390</v>
       </c>
       <c r="B112" s="4">
-        <f>IF(ISERROR(VLOOKUP(H112,A1:H635,3,1)),C112,VLOOKUP(H112,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H112,A1:H637,3,1)),C112,VLOOKUP(H112,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C112" s="5">
@@ -11722,12 +11737,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:8" ht="20.05" customHeight="1">
       <c r="A113" s="8" t="s">
         <v>394</v>
       </c>
       <c r="B113" s="4">
-        <f>IF(ISERROR(VLOOKUP(H113,A1:H635,3,1)),C113,VLOOKUP(H113,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H113,A1:H637,3,1)),C113,VLOOKUP(H113,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C113" s="5">
@@ -11749,12 +11764,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:8" ht="20.05" customHeight="1">
       <c r="A114" s="8" t="s">
         <v>398</v>
       </c>
       <c r="B114" s="4">
-        <f>IF(ISERROR(VLOOKUP(H114,A1:H635,3,1)),C114,VLOOKUP(H114,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H114,A1:H637,3,1)),C114,VLOOKUP(H114,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C114" s="5">
@@ -11776,12 +11791,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:8" ht="20.05" customHeight="1">
       <c r="A115" s="8" t="s">
         <v>402</v>
       </c>
       <c r="B115" s="4">
-        <f>IF(ISERROR(VLOOKUP(H115,A1:H635,3,1)),C115,VLOOKUP(H115,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H115,A1:H637,3,1)),C115,VLOOKUP(H115,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C115" s="5">
@@ -11803,12 +11818,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:8" ht="20.05" customHeight="1">
       <c r="A116" s="8" t="s">
         <v>406</v>
       </c>
       <c r="B116" s="4">
-        <f>IF(ISERROR(VLOOKUP(H116,A1:H635,3,1)),C116,VLOOKUP(H116,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H116,A1:H637,3,1)),C116,VLOOKUP(H116,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C116" s="5">
@@ -11830,12 +11845,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:8" ht="20.05" customHeight="1">
       <c r="A117" s="8" t="s">
         <v>410</v>
       </c>
       <c r="B117" s="4">
-        <f>IF(ISERROR(VLOOKUP(H117,A1:H635,3,1)),C117,VLOOKUP(H117,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H117,A1:H637,3,1)),C117,VLOOKUP(H117,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C117" s="5">
@@ -11857,12 +11872,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:8" ht="20.05" customHeight="1">
       <c r="A118" s="8" t="s">
         <v>414</v>
       </c>
       <c r="B118" s="4">
-        <f>IF(ISERROR(VLOOKUP(H118,A1:H635,3,1)),C118,VLOOKUP(H118,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H118,A1:H637,3,1)),C118,VLOOKUP(H118,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C118" s="5">
@@ -11884,12 +11899,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:8" ht="20.05" customHeight="1">
       <c r="A119" s="8" t="s">
         <v>418</v>
       </c>
       <c r="B119" s="4">
-        <f>IF(ISERROR(VLOOKUP(H119,A1:H635,3,1)),C119,VLOOKUP(H119,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H119,A1:H637,3,1)),C119,VLOOKUP(H119,A1:H637,3,1))</f>
         <v>95</v>
       </c>
       <c r="C119" s="5">
@@ -11911,12 +11926,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:8" ht="20.05" customHeight="1">
       <c r="A120" s="8" t="s">
         <v>422</v>
       </c>
       <c r="B120" s="4">
-        <f>IF(ISERROR(VLOOKUP(H120,A1:H635,3,1)),C120,VLOOKUP(H120,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H120,A1:H637,3,1)),C120,VLOOKUP(H120,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C120" s="5">
@@ -11938,12 +11953,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:8" ht="20.05" customHeight="1">
       <c r="A121" s="8" t="s">
         <v>426</v>
       </c>
       <c r="B121" s="4">
-        <f>IF(ISERROR(VLOOKUP(H121,A1:H635,3,1)),C121,VLOOKUP(H121,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H121,A1:H637,3,1)),C121,VLOOKUP(H121,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C121" s="5">
@@ -11965,12 +11980,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:8" ht="20.05" customHeight="1">
       <c r="A122" s="8" t="s">
         <v>430</v>
       </c>
       <c r="B122" s="4">
-        <f>IF(ISERROR(VLOOKUP(H122,A1:H635,3,1)),C122,VLOOKUP(H122,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H122,A1:H637,3,1)),C122,VLOOKUP(H122,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C122" s="5">
@@ -11992,12 +12007,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:8" ht="20.05" customHeight="1">
       <c r="A123" s="8" t="s">
         <v>434</v>
       </c>
       <c r="B123" s="4">
-        <f>IF(ISERROR(VLOOKUP(H123,A1:H635,3,1)),C123,VLOOKUP(H123,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H123,A1:H637,3,1)),C123,VLOOKUP(H123,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C123" s="5">
@@ -12019,12 +12034,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:8" ht="20.05" customHeight="1">
       <c r="A124" s="8" t="s">
         <v>438</v>
       </c>
       <c r="B124" s="4">
-        <f>IF(ISERROR(VLOOKUP(H124,A1:H635,3,1)),C124,VLOOKUP(H124,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H124,A1:H637,3,1)),C124,VLOOKUP(H124,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C124" s="5">
@@ -12046,12 +12061,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:8" ht="20.05" customHeight="1">
       <c r="A125" s="8" t="s">
         <v>442</v>
       </c>
       <c r="B125" s="4">
-        <f>IF(ISERROR(VLOOKUP(H125,A1:H635,3,1)),C125,VLOOKUP(H125,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H125,A1:H637,3,1)),C125,VLOOKUP(H125,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C125" s="5">
@@ -12073,12 +12088,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:8" ht="20.05" customHeight="1">
       <c r="A126" s="8" t="s">
         <v>446</v>
       </c>
       <c r="B126" s="4">
-        <f>IF(ISERROR(VLOOKUP(H126,A1:H635,3,1)),C126,VLOOKUP(H126,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H126,A1:H637,3,1)),C126,VLOOKUP(H126,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C126" s="5">
@@ -12100,12 +12115,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:8" ht="20.05" customHeight="1">
       <c r="A127" s="8" t="s">
         <v>450</v>
       </c>
       <c r="B127" s="4">
-        <f>IF(ISERROR(VLOOKUP(H127,A1:H635,3,1)),C127,VLOOKUP(H127,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H127,A1:H637,3,1)),C127,VLOOKUP(H127,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C127" s="5">
@@ -12127,12 +12142,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:8" ht="20.05" customHeight="1">
       <c r="A128" s="8" t="s">
         <v>454</v>
       </c>
       <c r="B128" s="4">
-        <f>IF(ISERROR(VLOOKUP(H128,A1:H635,3,1)),C128,VLOOKUP(H128,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H128,A1:H637,3,1)),C128,VLOOKUP(H128,A1:H637,3,1))</f>
         <v>109</v>
       </c>
       <c r="C128" s="5">
@@ -12154,12 +12169,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:8" ht="20.05" customHeight="1">
       <c r="A129" s="8" t="s">
         <v>458</v>
       </c>
       <c r="B129" s="4">
-        <f>IF(ISERROR(VLOOKUP(H129,A1:H635,3,1)),C129,VLOOKUP(H129,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H129,A1:H637,3,1)),C129,VLOOKUP(H129,A1:H637,3,1))</f>
         <v>221</v>
       </c>
       <c r="C129" s="5">
@@ -12181,12 +12196,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:8" ht="20.05" customHeight="1">
       <c r="A130" s="8" t="s">
         <v>463</v>
       </c>
       <c r="B130" s="4">
-        <f>IF(ISERROR(VLOOKUP(H130,A1:H635,3,1)),C130,VLOOKUP(H130,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H130,A1:H637,3,1)),C130,VLOOKUP(H130,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C130" s="5">
@@ -12208,12 +12223,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:8" ht="20.05" customHeight="1">
       <c r="A131" s="8" t="s">
         <v>468</v>
       </c>
       <c r="B131" s="4">
-        <f>IF(ISERROR(VLOOKUP(H131,A1:H635,3,1)),C131,VLOOKUP(H131,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H131,A1:H637,3,1)),C131,VLOOKUP(H131,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C131" s="5">
@@ -12235,12 +12250,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:8" ht="20.05" customHeight="1">
       <c r="A132" s="8" t="s">
         <v>472</v>
       </c>
       <c r="B132" s="4">
-        <f>IF(ISERROR(VLOOKUP(H132,A1:H635,3,1)),C132,VLOOKUP(H132,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H132,A1:H637,3,1)),C132,VLOOKUP(H132,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C132" s="5">
@@ -12262,12 +12277,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:8" ht="20.05" customHeight="1">
       <c r="A133" s="8" t="s">
         <v>476</v>
       </c>
       <c r="B133" s="4">
-        <f>IF(ISERROR(VLOOKUP(H133,A1:H635,3,1)),C133,VLOOKUP(H133,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H133,A1:H637,3,1)),C133,VLOOKUP(H133,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C133" s="5">
@@ -12289,12 +12304,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:8" ht="20.05" customHeight="1">
       <c r="A134" s="8" t="s">
         <v>480</v>
       </c>
       <c r="B134" s="4">
-        <f>IF(ISERROR(VLOOKUP(H134,A1:H635,3,1)),C134,VLOOKUP(H134,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H134,A1:H637,3,1)),C134,VLOOKUP(H134,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C134" s="5">
@@ -12316,12 +12331,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:8" ht="20.05" customHeight="1">
       <c r="A135" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B135" s="4">
-        <f>IF(ISERROR(VLOOKUP(H135,A1:H635,3,1)),C135,VLOOKUP(H135,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H135,A1:H637,3,1)),C135,VLOOKUP(H135,A1:H637,3,1))</f>
         <v>474</v>
       </c>
       <c r="C135" s="5">
@@ -12343,12 +12358,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:8" ht="20.05" customHeight="1">
       <c r="A136" s="8" t="s">
         <v>486</v>
       </c>
       <c r="B136" s="4">
-        <f>IF(ISERROR(VLOOKUP(H136,A1:H635,3,1)),C136,VLOOKUP(H136,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H136,A1:H637,3,1)),C136,VLOOKUP(H136,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C136" s="5">
@@ -12370,12 +12385,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:8" ht="20.05" customHeight="1">
       <c r="A137" s="8" t="s">
         <v>490</v>
       </c>
       <c r="B137" s="4">
-        <f>IF(ISERROR(VLOOKUP(H137,A1:H635,3,1)),C137,VLOOKUP(H137,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H137,A1:H637,3,1)),C137,VLOOKUP(H137,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C137" s="5">
@@ -12397,12 +12412,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:8" ht="20.05" customHeight="1">
       <c r="A138" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B138" s="4">
-        <f>IF(ISERROR(VLOOKUP(H138,A1:H635,3,1)),C138,VLOOKUP(H138,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H138,A1:H637,3,1)),C138,VLOOKUP(H138,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C138" s="5">
@@ -12424,12 +12439,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:8" ht="20.05" customHeight="1">
       <c r="A139" s="8" t="s">
         <v>498</v>
       </c>
       <c r="B139" s="4">
-        <f>IF(ISERROR(VLOOKUP(H139,A1:H635,3,1)),C139,VLOOKUP(H139,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H139,A1:H637,3,1)),C139,VLOOKUP(H139,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C139" s="5">
@@ -12451,12 +12466,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:8" ht="20.05" customHeight="1">
       <c r="A140" s="8" t="s">
         <v>502</v>
       </c>
       <c r="B140" s="4">
-        <f>IF(ISERROR(VLOOKUP(H140,A1:H635,3,1)),C140,VLOOKUP(H140,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H140,A1:H637,3,1)),C140,VLOOKUP(H140,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C140" s="5">
@@ -12478,12 +12493,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:8" ht="20.05" customHeight="1">
       <c r="A141" s="8" t="s">
         <v>506</v>
       </c>
       <c r="B141" s="4">
-        <f>IF(ISERROR(VLOOKUP(H141,A1:H635,3,1)),C141,VLOOKUP(H141,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H141,A1:H637,3,1)),C141,VLOOKUP(H141,A1:H637,3,1))</f>
         <v>355</v>
       </c>
       <c r="C141" s="5">
@@ -12505,12 +12520,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:8" ht="20.05" customHeight="1">
       <c r="A142" s="8" t="s">
         <v>510</v>
       </c>
       <c r="B142" s="4">
-        <f>IF(ISERROR(VLOOKUP(H142,A1:H635,3,1)),C142,VLOOKUP(H142,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H142,A1:H637,3,1)),C142,VLOOKUP(H142,A1:H637,3,1))</f>
         <v>283</v>
       </c>
       <c r="C142" s="5">
@@ -12532,12 +12547,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:8" ht="20.05" customHeight="1">
       <c r="A143" s="8" t="s">
         <v>514</v>
       </c>
       <c r="B143" s="4">
-        <f>IF(ISERROR(VLOOKUP(H143,A1:H635,3,1)),C143,VLOOKUP(H143,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H143,A1:H637,3,1)),C143,VLOOKUP(H143,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C143" s="5">
@@ -12559,12 +12574,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:8" ht="20.05" customHeight="1">
       <c r="A144" s="8" t="s">
         <v>518</v>
       </c>
       <c r="B144" s="4">
-        <f>IF(ISERROR(VLOOKUP(H144,A1:H635,3,1)),C144,VLOOKUP(H144,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H144,A1:H637,3,1)),C144,VLOOKUP(H144,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C144" s="5">
@@ -12586,12 +12601,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:8" ht="20.05" customHeight="1">
       <c r="A145" s="8" t="s">
         <v>522</v>
       </c>
       <c r="B145" s="4">
-        <f>IF(ISERROR(VLOOKUP(H145,A1:H635,3,1)),C145,VLOOKUP(H145,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H145,A1:H637,3,1)),C145,VLOOKUP(H145,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C145" s="5">
@@ -12613,12 +12628,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:8" ht="20.05" customHeight="1">
       <c r="A146" s="8" t="s">
         <v>526</v>
       </c>
       <c r="B146" s="4">
-        <f>IF(ISERROR(VLOOKUP(H146,A1:H635,3,1)),C146,VLOOKUP(H146,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H146,A1:H637,3,1)),C146,VLOOKUP(H146,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C146" s="5">
@@ -12640,12 +12655,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:8" ht="20.05" customHeight="1">
       <c r="A147" s="8" t="s">
         <v>530</v>
       </c>
       <c r="B147" s="4">
-        <f>IF(ISERROR(VLOOKUP(H147,A1:H635,3,1)),C147,VLOOKUP(H147,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H147,A1:H637,3,1)),C147,VLOOKUP(H147,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C147" s="5">
@@ -12667,12 +12682,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:8" ht="20.05" customHeight="1">
       <c r="A148" s="8" t="s">
         <v>534</v>
       </c>
       <c r="B148" s="4">
-        <f>IF(ISERROR(VLOOKUP(H148,A1:H635,3,1)),C148,VLOOKUP(H148,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H148,A1:H637,3,1)),C148,VLOOKUP(H148,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C148" s="5">
@@ -12694,12 +12709,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:8" ht="20.05" customHeight="1">
       <c r="A149" s="8" t="s">
         <v>538</v>
       </c>
       <c r="B149" s="4">
-        <f>IF(ISERROR(VLOOKUP(H149,A1:H635,3,1)),C149,VLOOKUP(H149,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H149,A1:H637,3,1)),C149,VLOOKUP(H149,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C149" s="5">
@@ -12721,12 +12736,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:8" ht="20.05" customHeight="1">
       <c r="A150" s="8" t="s">
         <v>542</v>
       </c>
       <c r="B150" s="4">
-        <f>IF(ISERROR(VLOOKUP(H150,A1:H635,3,1)),C150,VLOOKUP(H150,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H150,A1:H637,3,1)),C150,VLOOKUP(H150,A1:H637,3,1))</f>
         <v>95</v>
       </c>
       <c r="C150" s="5">
@@ -12748,12 +12763,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:8" ht="20.05" customHeight="1">
       <c r="A151" s="8" t="s">
         <v>546</v>
       </c>
       <c r="B151" s="4">
-        <f>IF(ISERROR(VLOOKUP(H151,A1:H635,3,1)),C151,VLOOKUP(H151,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H151,A1:H637,3,1)),C151,VLOOKUP(H151,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C151" s="5">
@@ -12775,12 +12790,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:8" ht="20.05" customHeight="1">
       <c r="A152" s="8" t="s">
         <v>550</v>
       </c>
       <c r="B152" s="4">
-        <f>IF(ISERROR(VLOOKUP(H152,A1:H635,3,1)),C152,VLOOKUP(H152,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H152,A1:H637,3,1)),C152,VLOOKUP(H152,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C152" s="5">
@@ -12802,12 +12817,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:8" ht="20.05" customHeight="1">
       <c r="A153" s="8" t="s">
         <v>554</v>
       </c>
       <c r="B153" s="4">
-        <f>IF(ISERROR(VLOOKUP(H153,A1:H635,3,1)),C153,VLOOKUP(H153,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H153,A1:H637,3,1)),C153,VLOOKUP(H153,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C153" s="5">
@@ -12829,12 +12844,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:8" ht="20.05" customHeight="1">
       <c r="A154" s="8" t="s">
         <v>558</v>
       </c>
       <c r="B154" s="4">
-        <f>IF(ISERROR(VLOOKUP(H154,A1:H635,3,1)),C154,VLOOKUP(H154,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H154,A1:H637,3,1)),C154,VLOOKUP(H154,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C154" s="5">
@@ -12856,12 +12871,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:8" ht="20.05" customHeight="1">
       <c r="A155" s="8" t="s">
         <v>562</v>
       </c>
       <c r="B155" s="4">
-        <f>IF(ISERROR(VLOOKUP(H155,A1:H635,3,1)),C155,VLOOKUP(H155,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H155,A1:H637,3,1)),C155,VLOOKUP(H155,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C155" s="5">
@@ -12883,12 +12898,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:8" ht="20.05" customHeight="1">
       <c r="A156" s="8" t="s">
         <v>566</v>
       </c>
       <c r="B156" s="4">
-        <f>IF(ISERROR(VLOOKUP(H156,A1:H635,3,1)),C156,VLOOKUP(H156,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H156,A1:H637,3,1)),C156,VLOOKUP(H156,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C156" s="5">
@@ -12910,12 +12925,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:8" ht="20.05" customHeight="1">
       <c r="A157" s="8" t="s">
         <v>570</v>
       </c>
       <c r="B157" s="4">
-        <f>IF(ISERROR(VLOOKUP(H157,A1:H635,3,1)),C157,VLOOKUP(H157,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H157,A1:H637,3,1)),C157,VLOOKUP(H157,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C157" s="5">
@@ -12937,12 +12952,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:8" ht="20.05" customHeight="1">
       <c r="A158" s="8" t="s">
         <v>574</v>
       </c>
       <c r="B158" s="4">
-        <f>IF(ISERROR(VLOOKUP(H158,A1:H635,3,1)),C158,VLOOKUP(H158,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H158,A1:H637,3,1)),C158,VLOOKUP(H158,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C158" s="5">
@@ -12964,12 +12979,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:8" ht="20.05" customHeight="1">
       <c r="A159" s="8" t="s">
         <v>578</v>
       </c>
       <c r="B159" s="4">
-        <f>IF(ISERROR(VLOOKUP(H159,A1:H635,3,1)),C159,VLOOKUP(H159,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H159,A1:H637,3,1)),C159,VLOOKUP(H159,A1:H637,3,1))</f>
         <v>109</v>
       </c>
       <c r="C159" s="5">
@@ -12991,12 +13006,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:8" ht="20.05" customHeight="1">
       <c r="A160" s="8" t="s">
         <v>582</v>
       </c>
       <c r="B160" s="4">
-        <f>IF(ISERROR(VLOOKUP(H160,A1:H635,3,1)),C160,VLOOKUP(H160,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H160,A1:H637,3,1)),C160,VLOOKUP(H160,A1:H637,3,1))</f>
         <v>221</v>
       </c>
       <c r="C160" s="5">
@@ -13018,12 +13033,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:8" ht="20.05" customHeight="1">
       <c r="A161" s="8" t="s">
         <v>586</v>
       </c>
       <c r="B161" s="4">
-        <f>IF(ISERROR(VLOOKUP(H161,A1:H635,3,1)),C161,VLOOKUP(H161,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H161,A1:H637,3,1)),C161,VLOOKUP(H161,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C161" s="5">
@@ -13045,12 +13060,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:8" ht="20.05" customHeight="1">
       <c r="A162" s="8" t="s">
         <v>590</v>
       </c>
       <c r="B162" s="4">
-        <f>IF(ISERROR(VLOOKUP(H162,A1:H635,3,1)),C162,VLOOKUP(H162,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H162,A1:H637,3,1)),C162,VLOOKUP(H162,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C162" s="5">
@@ -13072,12 +13087,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:8" ht="20.05" customHeight="1">
       <c r="A163" s="8" t="s">
         <v>594</v>
       </c>
       <c r="B163" s="4">
-        <f>IF(ISERROR(VLOOKUP(H163,A1:H635,3,1)),C163,VLOOKUP(H163,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H163,A1:H637,3,1)),C163,VLOOKUP(H163,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C163" s="5">
@@ -13099,12 +13114,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:8" ht="20.05" customHeight="1">
       <c r="A164" s="8" t="s">
         <v>598</v>
       </c>
       <c r="B164" s="4">
-        <f>IF(ISERROR(VLOOKUP(H164,A1:H635,3,1)),C164,VLOOKUP(H164,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H164,A1:H637,3,1)),C164,VLOOKUP(H164,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C164" s="5">
@@ -13126,12 +13141,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:8" ht="20.05" customHeight="1">
       <c r="A165" s="8" t="s">
         <v>602</v>
       </c>
       <c r="B165" s="4">
-        <f>IF(ISERROR(VLOOKUP(H165,A1:H635,3,1)),C165,VLOOKUP(H165,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H165,A1:H637,3,1)),C165,VLOOKUP(H165,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C165" s="5">
@@ -13153,12 +13168,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:8" ht="20.05" customHeight="1">
       <c r="A166" s="8" t="s">
         <v>606</v>
       </c>
       <c r="B166" s="4">
-        <f>IF(ISERROR(VLOOKUP(H166,A1:H635,3,1)),C166,VLOOKUP(H166,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H166,A1:H637,3,1)),C166,VLOOKUP(H166,A1:H637,3,1))</f>
         <v>492</v>
       </c>
       <c r="C166" s="5">
@@ -13180,12 +13195,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:8" ht="20.05" customHeight="1">
       <c r="A167" s="8" t="s">
         <v>610</v>
       </c>
       <c r="B167" s="4">
-        <f>IF(ISERROR(VLOOKUP(H167,A1:H635,3,1)),C167,VLOOKUP(H167,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H167,A1:H637,3,1)),C167,VLOOKUP(H167,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C167" s="5">
@@ -13207,12 +13222,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:8" ht="20.05" customHeight="1">
       <c r="A168" s="8" t="s">
         <v>614</v>
       </c>
       <c r="B168" s="4">
-        <f>IF(ISERROR(VLOOKUP(H168,A1:H635,3,1)),C168,VLOOKUP(H168,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H168,A1:H637,3,1)),C168,VLOOKUP(H168,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C168" s="5">
@@ -13234,12 +13249,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:8" ht="20.05" customHeight="1">
       <c r="A169" s="8" t="s">
         <v>618</v>
       </c>
       <c r="B169" s="4">
-        <f>IF(ISERROR(VLOOKUP(H169,A1:H635,3,1)),C169,VLOOKUP(H169,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H169,A1:H637,3,1)),C169,VLOOKUP(H169,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C169" s="5">
@@ -13261,12 +13276,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:8" ht="20.05" customHeight="1">
       <c r="A170" s="8" t="s">
         <v>622</v>
       </c>
       <c r="B170" s="4">
-        <f>IF(ISERROR(VLOOKUP(H170,A1:H635,3,1)),C170,VLOOKUP(H170,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H170,A1:H637,3,1)),C170,VLOOKUP(H170,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C170" s="5">
@@ -13288,12 +13303,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:8" ht="20.05" customHeight="1">
       <c r="A171" s="8" t="s">
         <v>626</v>
       </c>
       <c r="B171" s="4">
-        <f>IF(ISERROR(VLOOKUP(H171,A1:H635,3,1)),C171,VLOOKUP(H171,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H171,A1:H637,3,1)),C171,VLOOKUP(H171,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C171" s="5">
@@ -13315,12 +13330,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:8" ht="20.05" customHeight="1">
       <c r="A172" s="8" t="s">
         <v>630</v>
       </c>
       <c r="B172" s="4">
-        <f>IF(ISERROR(VLOOKUP(H172,A1:H635,3,1)),C172,VLOOKUP(H172,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H172,A1:H637,3,1)),C172,VLOOKUP(H172,A1:H637,3,1))</f>
         <v>355</v>
       </c>
       <c r="C172" s="5">
@@ -13342,12 +13357,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:8" ht="20.05" customHeight="1">
       <c r="A173" s="8" t="s">
         <v>634</v>
       </c>
       <c r="B173" s="4">
-        <f>IF(ISERROR(VLOOKUP(H173,A1:H635,3,1)),C173,VLOOKUP(H173,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H173,A1:H637,3,1)),C173,VLOOKUP(H173,A1:H637,3,1))</f>
         <v>355</v>
       </c>
       <c r="C173" s="5">
@@ -13369,12 +13384,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:8" ht="20.05" customHeight="1">
       <c r="A174" s="8" t="s">
         <v>638</v>
       </c>
       <c r="B174" s="4">
-        <f>IF(ISERROR(VLOOKUP(H174,A1:H635,3,1)),C174,VLOOKUP(H174,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H174,A1:H637,3,1)),C174,VLOOKUP(H174,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C174" s="5">
@@ -13396,12 +13411,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:8" ht="20.05" customHeight="1">
       <c r="A175" s="8" t="s">
         <v>642</v>
       </c>
       <c r="B175" s="4">
-        <f>IF(ISERROR(VLOOKUP(H175,A1:H635,3,1)),C175,VLOOKUP(H175,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H175,A1:H637,3,1)),C175,VLOOKUP(H175,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C175" s="5">
@@ -13423,12 +13438,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:8" ht="20.05" customHeight="1">
       <c r="A176" s="8" t="s">
         <v>646</v>
       </c>
       <c r="B176" s="4">
-        <f>IF(ISERROR(VLOOKUP(H176,A1:H635,3,1)),C176,VLOOKUP(H176,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H176,A1:H637,3,1)),C176,VLOOKUP(H176,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C176" s="5">
@@ -13450,12 +13465,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:8" ht="20.05" customHeight="1">
       <c r="A177" s="8" t="s">
         <v>650</v>
       </c>
       <c r="B177" s="4">
-        <f>IF(ISERROR(VLOOKUP(H177,A1:H635,3,1)),C177,VLOOKUP(H177,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H177,A1:H637,3,1)),C177,VLOOKUP(H177,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C177" s="5">
@@ -13477,12 +13492,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:8" ht="20.05" customHeight="1">
       <c r="A178" s="8" t="s">
         <v>654</v>
       </c>
       <c r="B178" s="4">
-        <f>IF(ISERROR(VLOOKUP(H178,A1:H635,3,1)),C178,VLOOKUP(H178,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H178,A1:H637,3,1)),C178,VLOOKUP(H178,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C178" s="5">
@@ -13504,12 +13519,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:8" ht="20.05" customHeight="1">
       <c r="A179" s="8" t="s">
         <v>658</v>
       </c>
       <c r="B179" s="4">
-        <f>IF(ISERROR(VLOOKUP(H179,A1:H635,3,1)),C179,VLOOKUP(H179,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H179,A1:H637,3,1)),C179,VLOOKUP(H179,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C179" s="5">
@@ -13531,12 +13546,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:8" ht="20.05" customHeight="1">
       <c r="A180" s="8" t="s">
         <v>662</v>
       </c>
       <c r="B180" s="4">
-        <f>IF(ISERROR(VLOOKUP(H180,A1:H635,3,1)),C180,VLOOKUP(H180,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H180,A1:H637,3,1)),C180,VLOOKUP(H180,A1:H637,3,1))</f>
         <v>95</v>
       </c>
       <c r="C180" s="5">
@@ -13558,12 +13573,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:8" ht="20.05" customHeight="1">
       <c r="A181" s="8" t="s">
         <v>666</v>
       </c>
       <c r="B181" s="4">
-        <f>IF(ISERROR(VLOOKUP(H181,A1:H635,3,1)),C181,VLOOKUP(H181,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H181,A1:H637,3,1)),C181,VLOOKUP(H181,A1:H637,3,1))</f>
         <v>95</v>
       </c>
       <c r="C181" s="5">
@@ -13585,12 +13600,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:8" ht="20.05" customHeight="1">
       <c r="A182" s="8" t="s">
         <v>670</v>
       </c>
       <c r="B182" s="4">
-        <f>IF(ISERROR(VLOOKUP(H182,A1:H635,3,1)),C182,VLOOKUP(H182,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H182,A1:H637,3,1)),C182,VLOOKUP(H182,A1:H637,3,1))</f>
         <v>95</v>
       </c>
       <c r="C182" s="5">
@@ -13612,12 +13627,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:8" ht="20.05" customHeight="1">
       <c r="A183" s="8" t="s">
         <v>674</v>
       </c>
       <c r="B183" s="4">
-        <f>IF(ISERROR(VLOOKUP(H183,A1:H635,3,1)),C183,VLOOKUP(H183,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H183,A1:H637,3,1)),C183,VLOOKUP(H183,A1:H637,3,1))</f>
         <v>95</v>
       </c>
       <c r="C183" s="5">
@@ -13639,12 +13654,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:8" ht="20.05" customHeight="1">
       <c r="A184" s="8" t="s">
         <v>678</v>
       </c>
       <c r="B184" s="4">
-        <f>IF(ISERROR(VLOOKUP(H184,A1:H635,3,1)),C184,VLOOKUP(H184,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H184,A1:H637,3,1)),C184,VLOOKUP(H184,A1:H637,3,1))</f>
         <v>109</v>
       </c>
       <c r="C184" s="5">
@@ -13666,12 +13681,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:8" ht="20.05" customHeight="1">
       <c r="A185" s="8" t="s">
         <v>682</v>
       </c>
       <c r="B185" s="4">
-        <f>IF(ISERROR(VLOOKUP(H185,A1:H635,3,1)),C185,VLOOKUP(H185,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H185,A1:H637,3,1)),C185,VLOOKUP(H185,A1:H637,3,1))</f>
         <v>109</v>
       </c>
       <c r="C185" s="5">
@@ -13693,12 +13708,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:8" ht="20.05" customHeight="1">
       <c r="A186" s="8" t="s">
         <v>686</v>
       </c>
       <c r="B186" s="4">
-        <f>IF(ISERROR(VLOOKUP(H186,A1:H635,3,1)),C186,VLOOKUP(H186,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H186,A1:H637,3,1)),C186,VLOOKUP(H186,A1:H637,3,1))</f>
         <v>109</v>
       </c>
       <c r="C186" s="5">
@@ -13720,12 +13735,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:8" ht="20.05" customHeight="1">
       <c r="A187" s="8" t="s">
         <v>690</v>
       </c>
       <c r="B187" s="4">
-        <f>IF(ISERROR(VLOOKUP(H187,A1:H635,3,1)),C187,VLOOKUP(H187,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H187,A1:H637,3,1)),C187,VLOOKUP(H187,A1:H637,3,1))</f>
         <v>109</v>
       </c>
       <c r="C187" s="5">
@@ -13747,12 +13762,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:8" ht="20.05" customHeight="1">
       <c r="A188" s="8" t="s">
         <v>694</v>
       </c>
       <c r="B188" s="4">
-        <f>IF(ISERROR(VLOOKUP(H188,A1:H635,3,1)),C188,VLOOKUP(H188,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H188,A1:H637,3,1)),C188,VLOOKUP(H188,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C188" s="5">
@@ -13774,12 +13789,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:8" ht="20.05" customHeight="1">
       <c r="A189" s="8" t="s">
         <v>698</v>
       </c>
       <c r="B189" s="4">
-        <f>IF(ISERROR(VLOOKUP(H189,A1:H635,3,1)),C189,VLOOKUP(H189,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H189,A1:H637,3,1)),C189,VLOOKUP(H189,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C189" s="5">
@@ -13801,12 +13816,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:8" ht="20.05" customHeight="1">
       <c r="A190" s="8" t="s">
         <v>702</v>
       </c>
       <c r="B190" s="4">
-        <f>IF(ISERROR(VLOOKUP(H190,A1:H635,3,1)),C190,VLOOKUP(H190,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H190,A1:H637,3,1)),C190,VLOOKUP(H190,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C190" s="5">
@@ -13828,12 +13843,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:8" ht="20.05" customHeight="1">
       <c r="A191" s="8" t="s">
         <v>706</v>
       </c>
       <c r="B191" s="4">
-        <f>IF(ISERROR(VLOOKUP(H191,A1:H635,3,1)),C191,VLOOKUP(H191,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H191,A1:H637,3,1)),C191,VLOOKUP(H191,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C191" s="5">
@@ -13855,12 +13870,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:8" ht="20.05" customHeight="1">
       <c r="A192" s="8" t="s">
         <v>710</v>
       </c>
       <c r="B192" s="4">
-        <f>IF(ISERROR(VLOOKUP(H192,A1:H635,3,1)),C192,VLOOKUP(H192,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H192,A1:H637,3,1)),C192,VLOOKUP(H192,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C192" s="5">
@@ -13882,12 +13897,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:8" ht="20.05" customHeight="1">
       <c r="A193" s="8" t="s">
         <v>714</v>
       </c>
       <c r="B193" s="4">
-        <f>IF(ISERROR(VLOOKUP(H193,A1:H635,3,1)),C193,VLOOKUP(H193,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H193,A1:H637,3,1)),C193,VLOOKUP(H193,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C193" s="5">
@@ -13909,12 +13924,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:8" ht="20.05" customHeight="1">
       <c r="A194" s="8" t="s">
         <v>718</v>
       </c>
       <c r="B194" s="4">
-        <f>IF(ISERROR(VLOOKUP(H194,A1:H635,3,1)),C194,VLOOKUP(H194,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H194,A1:H637,3,1)),C194,VLOOKUP(H194,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C194" s="5">
@@ -13936,12 +13951,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:8" ht="20.05" customHeight="1">
       <c r="A195" s="8" t="s">
         <v>722</v>
       </c>
       <c r="B195" s="4">
-        <f>IF(ISERROR(VLOOKUP(H195,A1:H635,3,1)),C195,VLOOKUP(H195,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H195,A1:H637,3,1)),C195,VLOOKUP(H195,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C195" s="5">
@@ -13963,12 +13978,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:8" ht="20.05" customHeight="1">
       <c r="A196" s="8" t="s">
         <v>726</v>
       </c>
       <c r="B196" s="4">
-        <f>IF(ISERROR(VLOOKUP(H196,A1:H635,3,1)),C196,VLOOKUP(H196,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H196,A1:H637,3,1)),C196,VLOOKUP(H196,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C196" s="5">
@@ -13990,12 +14005,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:8" ht="20.05" customHeight="1">
       <c r="A197" s="8" t="s">
         <v>730</v>
       </c>
       <c r="B197" s="4">
-        <f>IF(ISERROR(VLOOKUP(H197,A1:H635,3,1)),C197,VLOOKUP(H197,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H197,A1:H637,3,1)),C197,VLOOKUP(H197,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C197" s="5">
@@ -14017,12 +14032,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:8" ht="20.05" customHeight="1">
       <c r="A198" s="8" t="s">
         <v>734</v>
       </c>
       <c r="B198" s="4">
-        <f>IF(ISERROR(VLOOKUP(H198,A1:H635,3,1)),C198,VLOOKUP(H198,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H198,A1:H637,3,1)),C198,VLOOKUP(H198,A1:H637,3,1))</f>
         <v>152</v>
       </c>
       <c r="C198" s="5">
@@ -14044,12 +14059,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:8" ht="20.05" customHeight="1">
       <c r="A199" s="8" t="s">
         <v>738</v>
       </c>
       <c r="B199" s="4">
-        <f>IF(ISERROR(VLOOKUP(H199,A1:H635,3,1)),C199,VLOOKUP(H199,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H199,A1:H637,3,1)),C199,VLOOKUP(H199,A1:H637,3,1))</f>
         <v>152</v>
       </c>
       <c r="C199" s="5">
@@ -14071,12 +14086,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:8" ht="20.05" customHeight="1">
       <c r="A200" s="8" t="s">
         <v>742</v>
       </c>
       <c r="B200" s="4">
-        <f>IF(ISERROR(VLOOKUP(H200,A1:H635,3,1)),C200,VLOOKUP(H200,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H200,A1:H637,3,1)),C200,VLOOKUP(H200,A1:H637,3,1))</f>
         <v>160</v>
       </c>
       <c r="C200" s="5">
@@ -14098,12 +14113,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:8" ht="20.05" customHeight="1">
       <c r="A201" s="8" t="s">
         <v>746</v>
       </c>
       <c r="B201" s="4">
-        <f>IF(ISERROR(VLOOKUP(H201,A1:H635,3,1)),C201,VLOOKUP(H201,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H201,A1:H637,3,1)),C201,VLOOKUP(H201,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C201" s="5">
@@ -14125,12 +14140,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:8" ht="20.05" customHeight="1">
       <c r="A202" s="8" t="s">
         <v>750</v>
       </c>
       <c r="B202" s="4">
-        <f>IF(ISERROR(VLOOKUP(H202,A1:H635,3,1)),C202,VLOOKUP(H202,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H202,A1:H637,3,1)),C202,VLOOKUP(H202,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C202" s="5">
@@ -14152,12 +14167,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:8" ht="20.05" customHeight="1">
       <c r="A203" s="8" t="s">
         <v>754</v>
       </c>
       <c r="B203" s="4">
-        <f>IF(ISERROR(VLOOKUP(H203,A1:H635,3,1)),C203,VLOOKUP(H203,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H203,A1:H637,3,1)),C203,VLOOKUP(H203,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C203" s="5">
@@ -14179,12 +14194,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:8" ht="20.05" customHeight="1">
       <c r="A204" s="8" t="s">
         <v>758</v>
       </c>
       <c r="B204" s="4">
-        <f>IF(ISERROR(VLOOKUP(H204,A1:H635,3,1)),C204,VLOOKUP(H204,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H204,A1:H637,3,1)),C204,VLOOKUP(H204,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C204" s="5">
@@ -14206,12 +14221,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:8" ht="20.05" customHeight="1">
       <c r="A205" s="8" t="s">
         <v>762</v>
       </c>
       <c r="B205" s="4">
-        <f>IF(ISERROR(VLOOKUP(H205,A1:H635,3,1)),C205,VLOOKUP(H205,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H205,A1:H637,3,1)),C205,VLOOKUP(H205,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C205" s="5">
@@ -14233,12 +14248,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:8" ht="20.05" customHeight="1">
       <c r="A206" s="8" t="s">
         <v>766</v>
       </c>
       <c r="B206" s="4">
-        <f>IF(ISERROR(VLOOKUP(H206,A1:H635,3,1)),C206,VLOOKUP(H206,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H206,A1:H637,3,1)),C206,VLOOKUP(H206,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C206" s="5">
@@ -14260,12 +14275,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:8" ht="20.05" customHeight="1">
       <c r="A207" s="8" t="s">
         <v>770</v>
       </c>
       <c r="B207" s="4">
-        <f>IF(ISERROR(VLOOKUP(H207,A1:H635,3,1)),C207,VLOOKUP(H207,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H207,A1:H637,3,1)),C207,VLOOKUP(H207,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C207" s="5">
@@ -14287,12 +14302,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:8" ht="20.05" customHeight="1">
       <c r="A208" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B208" s="4">
-        <f>IF(ISERROR(VLOOKUP(H208,A1:H635,3,1)),C208,VLOOKUP(H208,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H208,A1:H637,3,1)),C208,VLOOKUP(H208,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C208" s="5">
@@ -14314,12 +14329,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:8" ht="20.05" customHeight="1">
       <c r="A209" s="8" t="s">
         <v>778</v>
       </c>
       <c r="B209" s="4">
-        <f>IF(ISERROR(VLOOKUP(H209,A1:H635,3,1)),C209,VLOOKUP(H209,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H209,A1:H637,3,1)),C209,VLOOKUP(H209,A1:H637,3,1))</f>
         <v>203</v>
       </c>
       <c r="C209" s="5">
@@ -14341,12 +14356,12 @@
         <v>782</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:8" ht="20.05" customHeight="1">
       <c r="A210" s="8" t="s">
         <v>783</v>
       </c>
       <c r="B210" s="4">
-        <f>IF(ISERROR(VLOOKUP(H210,A1:H635,3,1)),C210,VLOOKUP(H210,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H210,A1:H637,3,1)),C210,VLOOKUP(H210,A1:H637,3,1))</f>
         <v>203</v>
       </c>
       <c r="C210" s="5">
@@ -14368,12 +14383,12 @@
         <v>782</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:8" ht="20.05" customHeight="1">
       <c r="A211" s="8" t="s">
         <v>787</v>
       </c>
       <c r="B211" s="4">
-        <f>IF(ISERROR(VLOOKUP(H211,A1:H635,3,1)),C211,VLOOKUP(H211,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H211,A1:H637,3,1)),C211,VLOOKUP(H211,A1:H637,3,1))</f>
         <v>203</v>
       </c>
       <c r="C211" s="5">
@@ -14395,12 +14410,12 @@
         <v>782</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:8" ht="20.05" customHeight="1">
       <c r="A212" s="8" t="s">
         <v>791</v>
       </c>
       <c r="B212" s="4">
-        <f>IF(ISERROR(VLOOKUP(H212,A1:H635,3,1)),C212,VLOOKUP(H212,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H212,A1:H637,3,1)),C212,VLOOKUP(H212,A1:H637,3,1))</f>
         <v>203</v>
       </c>
       <c r="C212" s="5">
@@ -14422,12 +14437,12 @@
         <v>782</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:8" ht="20.05" customHeight="1">
       <c r="A213" s="8" t="s">
         <v>795</v>
       </c>
       <c r="B213" s="4">
-        <f>IF(ISERROR(VLOOKUP(H213,A1:H635,3,1)),C213,VLOOKUP(H213,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H213,A1:H637,3,1)),C213,VLOOKUP(H213,A1:H637,3,1))</f>
         <v>203</v>
       </c>
       <c r="C213" s="5">
@@ -14449,12 +14464,12 @@
         <v>782</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:8" ht="20.05" customHeight="1">
       <c r="A214" s="8" t="s">
         <v>799</v>
       </c>
       <c r="B214" s="4">
-        <f>IF(ISERROR(VLOOKUP(H214,A1:H635,3,1)),C214,VLOOKUP(H214,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H214,A1:H637,3,1)),C214,VLOOKUP(H214,A1:H637,3,1))</f>
         <v>203</v>
       </c>
       <c r="C214" s="5">
@@ -14476,12 +14491,12 @@
         <v>782</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:8" ht="20.05" customHeight="1">
       <c r="A215" s="8" t="s">
         <v>803</v>
       </c>
       <c r="B215" s="4">
-        <f>IF(ISERROR(VLOOKUP(H215,A1:H635,3,1)),C215,VLOOKUP(H215,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H215,A1:H637,3,1)),C215,VLOOKUP(H215,A1:H637,3,1))</f>
         <v>221</v>
       </c>
       <c r="C215" s="5">
@@ -14503,12 +14518,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:8" ht="20.05" customHeight="1">
       <c r="A216" s="8" t="s">
         <v>807</v>
       </c>
       <c r="B216" s="4">
-        <f>IF(ISERROR(VLOOKUP(H216,A1:H635,3,1)),C216,VLOOKUP(H216,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H216,A1:H637,3,1)),C216,VLOOKUP(H216,A1:H637,3,1))</f>
         <v>221</v>
       </c>
       <c r="C216" s="5">
@@ -14530,12 +14545,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:8" ht="20.05" customHeight="1">
       <c r="A217" s="8" t="s">
         <v>811</v>
       </c>
       <c r="B217" s="4">
-        <f>IF(ISERROR(VLOOKUP(H217,A1:H635,3,1)),C217,VLOOKUP(H217,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H217,A1:H637,3,1)),C217,VLOOKUP(H217,A1:H637,3,1))</f>
         <v>221</v>
       </c>
       <c r="C217" s="5">
@@ -14557,12 +14572,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:8" ht="20.05" customHeight="1">
       <c r="A218" s="8" t="s">
         <v>815</v>
       </c>
       <c r="B218" s="4">
-        <f>IF(ISERROR(VLOOKUP(H218,A1:H635,3,1)),C218,VLOOKUP(H218,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H218,A1:H637,3,1)),C218,VLOOKUP(H218,A1:H637,3,1))</f>
         <v>221</v>
       </c>
       <c r="C218" s="5">
@@ -14584,12 +14599,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:8" ht="20.05" customHeight="1">
       <c r="A219" s="8" t="s">
         <v>819</v>
       </c>
       <c r="B219" s="4">
-        <f>IF(ISERROR(VLOOKUP(H219,A1:H635,3,1)),C219,VLOOKUP(H219,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H219,A1:H637,3,1)),C219,VLOOKUP(H219,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C219" s="5">
@@ -14611,12 +14626,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:8" ht="20.05" customHeight="1">
       <c r="A220" s="8" t="s">
         <v>823</v>
       </c>
       <c r="B220" s="4">
-        <f>IF(ISERROR(VLOOKUP(H220,A1:H635,3,1)),C220,VLOOKUP(H220,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H220,A1:H637,3,1)),C220,VLOOKUP(H220,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C220" s="5">
@@ -14638,12 +14653,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:8" ht="20.05" customHeight="1">
       <c r="A221" s="8" t="s">
         <v>827</v>
       </c>
       <c r="B221" s="4">
-        <f>IF(ISERROR(VLOOKUP(H221,A1:H635,3,1)),C221,VLOOKUP(H221,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H221,A1:H637,3,1)),C221,VLOOKUP(H221,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C221" s="5">
@@ -14665,12 +14680,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:8" ht="20.05" customHeight="1">
       <c r="A222" s="8" t="s">
         <v>831</v>
       </c>
       <c r="B222" s="4">
-        <f>IF(ISERROR(VLOOKUP(H222,A1:H635,3,1)),C222,VLOOKUP(H222,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H222,A1:H637,3,1)),C222,VLOOKUP(H222,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C222" s="5">
@@ -14692,12 +14707,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:8" ht="20.05" customHeight="1">
       <c r="A223" s="8" t="s">
         <v>835</v>
       </c>
       <c r="B223" s="4">
-        <f>IF(ISERROR(VLOOKUP(H223,A1:H635,3,1)),C223,VLOOKUP(H223,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H223,A1:H637,3,1)),C223,VLOOKUP(H223,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C223" s="5">
@@ -14719,12 +14734,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:8" ht="20.05" customHeight="1">
       <c r="A224" s="8" t="s">
         <v>839</v>
       </c>
       <c r="B224" s="4">
-        <f>IF(ISERROR(VLOOKUP(H224,A1:H635,3,1)),C224,VLOOKUP(H224,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H224,A1:H637,3,1)),C224,VLOOKUP(H224,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C224" s="5">
@@ -14746,12 +14761,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:8" ht="20.05" customHeight="1">
       <c r="A225" s="8" t="s">
         <v>843</v>
       </c>
       <c r="B225" s="4">
-        <f>IF(ISERROR(VLOOKUP(H225,A1:H635,3,1)),C225,VLOOKUP(H225,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H225,A1:H637,3,1)),C225,VLOOKUP(H225,A1:H637,3,1))</f>
         <v>272</v>
       </c>
       <c r="C225" s="5">
@@ -14773,12 +14788,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:8" ht="20.05" customHeight="1">
       <c r="A226" s="8" t="s">
         <v>847</v>
       </c>
       <c r="B226" s="4">
-        <f>IF(ISERROR(VLOOKUP(H226,A1:H635,3,1)),C226,VLOOKUP(H226,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H226,A1:H637,3,1)),C226,VLOOKUP(H226,A1:H637,3,1))</f>
         <v>272</v>
       </c>
       <c r="C226" s="5">
@@ -14800,12 +14815,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:8" ht="20.05" customHeight="1">
       <c r="A227" s="8" t="s">
         <v>851</v>
       </c>
       <c r="B227" s="4">
-        <f>IF(ISERROR(VLOOKUP(H227,A1:H635,3,1)),C227,VLOOKUP(H227,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H227,A1:H637,3,1)),C227,VLOOKUP(H227,A1:H637,3,1))</f>
         <v>272</v>
       </c>
       <c r="C227" s="5">
@@ -14827,12 +14842,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:8" ht="20.05" customHeight="1">
       <c r="A228" s="8" t="s">
         <v>855</v>
       </c>
       <c r="B228" s="4">
-        <f>IF(ISERROR(VLOOKUP(H228,A1:H635,3,1)),C228,VLOOKUP(H228,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H228,A1:H637,3,1)),C228,VLOOKUP(H228,A1:H637,3,1))</f>
         <v>272</v>
       </c>
       <c r="C228" s="5">
@@ -14854,12 +14869,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:8" ht="20.05" customHeight="1">
       <c r="A229" s="8" t="s">
         <v>859</v>
       </c>
       <c r="B229" s="4">
-        <f>IF(ISERROR(VLOOKUP(H229,A1:H635,3,1)),C229,VLOOKUP(H229,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H229,A1:H637,3,1)),C229,VLOOKUP(H229,A1:H637,3,1))</f>
         <v>283</v>
       </c>
       <c r="C229" s="5">
@@ -14881,12 +14896,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:8" ht="20.05" customHeight="1">
       <c r="A230" s="8" t="s">
         <v>863</v>
       </c>
       <c r="B230" s="4">
-        <f>IF(ISERROR(VLOOKUP(H230,A1:H635,3,1)),C230,VLOOKUP(H230,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H230,A1:H637,3,1)),C230,VLOOKUP(H230,A1:H637,3,1))</f>
         <v>283</v>
       </c>
       <c r="C230" s="5">
@@ -14908,12 +14923,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:8" ht="20.05" customHeight="1">
       <c r="A231" s="8" t="s">
         <v>867</v>
       </c>
       <c r="B231" s="4">
-        <f>IF(ISERROR(VLOOKUP(H231,A1:H635,3,1)),C231,VLOOKUP(H231,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H231,A1:H637,3,1)),C231,VLOOKUP(H231,A1:H637,3,1))</f>
         <v>283</v>
       </c>
       <c r="C231" s="5">
@@ -14935,12 +14950,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:8" ht="20.05" customHeight="1">
       <c r="A232" s="8" t="s">
         <v>871</v>
       </c>
       <c r="B232" s="4">
-        <f>IF(ISERROR(VLOOKUP(H232,A1:H635,3,1)),C232,VLOOKUP(H232,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H232,A1:H637,3,1)),C232,VLOOKUP(H232,A1:H637,3,1))</f>
         <v>283</v>
       </c>
       <c r="C232" s="5">
@@ -14962,12 +14977,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:8" ht="20.05" customHeight="1">
       <c r="A233" s="8" t="s">
         <v>875</v>
       </c>
       <c r="B233" s="4">
-        <f>IF(ISERROR(VLOOKUP(H233,A1:H635,3,1)),C233,VLOOKUP(H233,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H233,A1:H637,3,1)),C233,VLOOKUP(H233,A1:H637,3,1))</f>
         <v>283</v>
       </c>
       <c r="C233" s="5">
@@ -14989,12 +15004,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:8" ht="20.05" customHeight="1">
       <c r="A234" s="8" t="s">
         <v>879</v>
       </c>
       <c r="B234" s="4">
-        <f>IF(ISERROR(VLOOKUP(H234,A1:H635,3,1)),C234,VLOOKUP(H234,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H234,A1:H637,3,1)),C234,VLOOKUP(H234,A1:H637,3,1))</f>
         <v>283</v>
       </c>
       <c r="C234" s="5">
@@ -15016,12 +15031,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:8" ht="20.05" customHeight="1">
       <c r="A235" s="8" t="s">
         <v>883</v>
       </c>
       <c r="B235" s="4">
-        <f>IF(ISERROR(VLOOKUP(H235,A1:H635,3,1)),C235,VLOOKUP(H235,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H235,A1:H637,3,1)),C235,VLOOKUP(H235,A1:H637,3,1))</f>
         <v>296</v>
       </c>
       <c r="C235" s="5">
@@ -15043,12 +15058,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:8" ht="20.05" customHeight="1">
       <c r="A236" s="8" t="s">
         <v>887</v>
       </c>
       <c r="B236" s="4">
-        <f>IF(ISERROR(VLOOKUP(H236,A1:H635,3,1)),C236,VLOOKUP(H236,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H236,A1:H637,3,1)),C236,VLOOKUP(H236,A1:H637,3,1))</f>
         <v>296</v>
       </c>
       <c r="C236" s="5">
@@ -15070,12 +15085,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:8" ht="20.05" customHeight="1">
       <c r="A237" s="8" t="s">
         <v>891</v>
       </c>
       <c r="B237" s="4">
-        <f>IF(ISERROR(VLOOKUP(H237,A1:H635,3,1)),C237,VLOOKUP(H237,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H237,A1:H637,3,1)),C237,VLOOKUP(H237,A1:H637,3,1))</f>
         <v>296</v>
       </c>
       <c r="C237" s="5">
@@ -15097,12 +15112,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:8" ht="20.05" customHeight="1">
       <c r="A238" s="8" t="s">
         <v>895</v>
       </c>
       <c r="B238" s="4">
-        <f>IF(ISERROR(VLOOKUP(H238,A1:H635,3,1)),C238,VLOOKUP(H238,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H238,A1:H637,3,1)),C238,VLOOKUP(H238,A1:H637,3,1))</f>
         <v>296</v>
       </c>
       <c r="C238" s="5">
@@ -15124,12 +15139,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:8" ht="20.05" customHeight="1">
       <c r="A239" s="8" t="s">
         <v>899</v>
       </c>
       <c r="B239" s="4">
-        <f>IF(ISERROR(VLOOKUP(H239,A1:H635,3,1)),C239,VLOOKUP(H239,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H239,A1:H637,3,1)),C239,VLOOKUP(H239,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C239" s="5">
@@ -15151,12 +15166,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:8" ht="20.05" customHeight="1">
       <c r="A240" s="8" t="s">
         <v>903</v>
       </c>
       <c r="B240" s="4">
-        <f>IF(ISERROR(VLOOKUP(H240,A1:H635,3,1)),C240,VLOOKUP(H240,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H240,A1:H637,3,1)),C240,VLOOKUP(H240,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C240" s="5">
@@ -15178,12 +15193,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:8" ht="20.05" customHeight="1">
       <c r="A241" s="8" t="s">
         <v>907</v>
       </c>
       <c r="B241" s="4">
-        <f>IF(ISERROR(VLOOKUP(H241,A1:H635,3,1)),C241,VLOOKUP(H241,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H241,A1:H637,3,1)),C241,VLOOKUP(H241,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C241" s="5">
@@ -15205,12 +15220,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:8" ht="20.05" customHeight="1">
       <c r="A242" s="8" t="s">
         <v>911</v>
       </c>
       <c r="B242" s="4">
-        <f>IF(ISERROR(VLOOKUP(H242,A1:H635,3,1)),C242,VLOOKUP(H242,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H242,A1:H637,3,1)),C242,VLOOKUP(H242,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C242" s="5">
@@ -15232,12 +15247,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:8" ht="20.05" customHeight="1">
       <c r="A243" s="8" t="s">
         <v>915</v>
       </c>
       <c r="B243" s="4">
-        <f>IF(ISERROR(VLOOKUP(H243,A1:H635,3,1)),C243,VLOOKUP(H243,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H243,A1:H637,3,1)),C243,VLOOKUP(H243,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C243" s="5">
@@ -15259,12 +15274,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:8" ht="20.05" customHeight="1">
       <c r="A244" s="8" t="s">
         <v>919</v>
       </c>
       <c r="B244" s="4">
-        <f>IF(ISERROR(VLOOKUP(H244,A1:H635,3,1)),C244,VLOOKUP(H244,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H244,A1:H637,3,1)),C244,VLOOKUP(H244,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C244" s="5">
@@ -15286,12 +15301,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:8" ht="20.05" customHeight="1">
       <c r="A245" s="8" t="s">
         <v>923</v>
       </c>
       <c r="B245" s="4">
-        <f>IF(ISERROR(VLOOKUP(H245,A1:H635,3,1)),C245,VLOOKUP(H245,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H245,A1:H637,3,1)),C245,VLOOKUP(H245,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C245" s="5">
@@ -15313,12 +15328,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:8" ht="20.05" customHeight="1">
       <c r="A246" s="8" t="s">
         <v>927</v>
       </c>
       <c r="B246" s="4">
-        <f>IF(ISERROR(VLOOKUP(H246,A1:H635,3,1)),C246,VLOOKUP(H246,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H246,A1:H637,3,1)),C246,VLOOKUP(H246,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C246" s="5">
@@ -15340,12 +15355,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:8" ht="20.05" customHeight="1">
       <c r="A247" s="8" t="s">
         <v>931</v>
       </c>
       <c r="B247" s="4">
-        <f>IF(ISERROR(VLOOKUP(H247,A1:H635,3,1)),C247,VLOOKUP(H247,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H247,A1:H637,3,1)),C247,VLOOKUP(H247,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C247" s="5">
@@ -15367,12 +15382,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:8" ht="20.05" customHeight="1">
       <c r="A248" s="8" t="s">
         <v>935</v>
       </c>
       <c r="B248" s="4">
-        <f>IF(ISERROR(VLOOKUP(H248,A1:H635,3,1)),C248,VLOOKUP(H248,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H248,A1:H637,3,1)),C248,VLOOKUP(H248,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C248" s="5">
@@ -15394,12 +15409,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:8" ht="20.05" customHeight="1">
       <c r="A249" s="8" t="s">
         <v>939</v>
       </c>
       <c r="B249" s="4">
-        <f>IF(ISERROR(VLOOKUP(H249,A1:H635,3,1)),C249,VLOOKUP(H249,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H249,A1:H637,3,1)),C249,VLOOKUP(H249,A1:H637,3,1))</f>
         <v>337</v>
       </c>
       <c r="C249" s="5">
@@ -15421,12 +15436,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:8" ht="20.05" customHeight="1">
       <c r="A250" s="8" t="s">
         <v>943</v>
       </c>
       <c r="B250" s="4">
-        <f>IF(ISERROR(VLOOKUP(H250,A1:H635,3,1)),C250,VLOOKUP(H250,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H250,A1:H637,3,1)),C250,VLOOKUP(H250,A1:H637,3,1))</f>
         <v>337</v>
       </c>
       <c r="C250" s="5">
@@ -15448,12 +15463,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:8" ht="20.05" customHeight="1">
       <c r="A251" s="8" t="s">
         <v>947</v>
       </c>
       <c r="B251" s="4">
-        <f>IF(ISERROR(VLOOKUP(H251,A1:H635,3,1)),C251,VLOOKUP(H251,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H251,A1:H637,3,1)),C251,VLOOKUP(H251,A1:H637,3,1))</f>
         <v>355</v>
       </c>
       <c r="C251" s="5">
@@ -15475,12 +15490,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:8" ht="20.05" customHeight="1">
       <c r="A252" s="8" t="s">
         <v>951</v>
       </c>
       <c r="B252" s="4">
-        <f>IF(ISERROR(VLOOKUP(H252,A1:H635,3,1)),C252,VLOOKUP(H252,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H252,A1:H637,3,1)),C252,VLOOKUP(H252,A1:H637,3,1))</f>
         <v>355</v>
       </c>
       <c r="C252" s="5">
@@ -15502,12 +15517,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:8" ht="20.05" customHeight="1">
       <c r="A253" s="8" t="s">
         <v>955</v>
       </c>
       <c r="B253" s="4">
-        <f>IF(ISERROR(VLOOKUP(H253,A1:H635,3,1)),C253,VLOOKUP(H253,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H253,A1:H637,3,1)),C253,VLOOKUP(H253,A1:H637,3,1))</f>
         <v>355</v>
       </c>
       <c r="C253" s="5">
@@ -15529,12 +15544,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:8" ht="20.05" customHeight="1">
       <c r="A254" s="8" t="s">
         <v>959</v>
       </c>
       <c r="B254" s="4">
-        <f>IF(ISERROR(VLOOKUP(H254,A1:H635,3,1)),C254,VLOOKUP(H254,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H254,A1:H637,3,1)),C254,VLOOKUP(H254,A1:H637,3,1))</f>
         <v>369</v>
       </c>
       <c r="C254" s="5">
@@ -15556,12 +15571,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:8" ht="20.05" customHeight="1">
       <c r="A255" s="8" t="s">
         <v>963</v>
       </c>
       <c r="B255" s="4">
-        <f>IF(ISERROR(VLOOKUP(H255,A1:H635,3,1)),C255,VLOOKUP(H255,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H255,A1:H637,3,1)),C255,VLOOKUP(H255,A1:H637,3,1))</f>
         <v>369</v>
       </c>
       <c r="C255" s="5">
@@ -15583,12 +15598,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:8" ht="20.05" customHeight="1">
       <c r="A256" s="8" t="s">
         <v>967</v>
       </c>
       <c r="B256" s="4">
-        <f>IF(ISERROR(VLOOKUP(H256,A1:H635,3,1)),C256,VLOOKUP(H256,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H256,A1:H637,3,1)),C256,VLOOKUP(H256,A1:H637,3,1))</f>
         <v>369</v>
       </c>
       <c r="C256" s="5">
@@ -15610,12 +15625,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:8" ht="20.05" customHeight="1">
       <c r="A257" s="8" t="s">
         <v>971</v>
       </c>
       <c r="B257" s="4">
-        <f>IF(ISERROR(VLOOKUP(H257,A1:H635,3,1)),C257,VLOOKUP(H257,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H257,A1:H637,3,1)),C257,VLOOKUP(H257,A1:H637,3,1))</f>
         <v>369</v>
       </c>
       <c r="C257" s="5">
@@ -15637,12 +15652,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:8" ht="20.05" customHeight="1">
       <c r="A258" s="8" t="s">
         <v>975</v>
       </c>
       <c r="B258" s="4">
-        <f>IF(ISERROR(VLOOKUP(H258,A1:H635,3,1)),C258,VLOOKUP(H258,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H258,A1:H637,3,1)),C258,VLOOKUP(H258,A1:H637,3,1))</f>
         <v>369</v>
       </c>
       <c r="C258" s="5">
@@ -15664,12 +15679,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:8" ht="20.05" customHeight="1">
       <c r="A259" s="8" t="s">
         <v>979</v>
       </c>
       <c r="B259" s="4">
-        <f>IF(ISERROR(VLOOKUP(H259,A1:H635,3,1)),C259,VLOOKUP(H259,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H259,A1:H637,3,1)),C259,VLOOKUP(H259,A1:H637,3,1))</f>
         <v>369</v>
       </c>
       <c r="C259" s="5">
@@ -15691,12 +15706,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:8" ht="20.05" customHeight="1">
       <c r="A260" s="8" t="s">
         <v>983</v>
       </c>
       <c r="B260" s="4">
-        <f>IF(ISERROR(VLOOKUP(H260,A1:H635,3,1)),C260,VLOOKUP(H260,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H260,A1:H637,3,1)),C260,VLOOKUP(H260,A1:H637,3,1))</f>
         <v>355</v>
       </c>
       <c r="C260" s="5">
@@ -15718,12 +15733,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:8" ht="20.05" customHeight="1">
       <c r="A261" s="8" t="s">
         <v>987</v>
       </c>
       <c r="B261" s="4">
-        <f>IF(ISERROR(VLOOKUP(H261,A1:H635,3,1)),C261,VLOOKUP(H261,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H261,A1:H637,3,1)),C261,VLOOKUP(H261,A1:H637,3,1))</f>
         <v>355</v>
       </c>
       <c r="C261" s="5">
@@ -15745,12 +15760,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:8" ht="20.05" customHeight="1">
       <c r="A262" s="8" t="s">
         <v>991</v>
       </c>
       <c r="B262" s="4">
-        <f>IF(ISERROR(VLOOKUP(H262,A1:H635,3,1)),C262,VLOOKUP(H262,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H262,A1:H637,3,1)),C262,VLOOKUP(H262,A1:H637,3,1))</f>
         <v>345</v>
       </c>
       <c r="C262" s="5">
@@ -15772,12 +15787,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:8" ht="20.05" customHeight="1">
       <c r="A263" s="8" t="s">
         <v>995</v>
       </c>
       <c r="B263" s="4">
-        <f>IF(ISERROR(VLOOKUP(H263,A1:H635,3,1)),C263,VLOOKUP(H263,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H263,A1:H637,3,1)),C263,VLOOKUP(H263,A1:H637,3,1))</f>
         <v>345</v>
       </c>
       <c r="C263" s="5">
@@ -15799,12 +15814,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:8" ht="20.05" customHeight="1">
       <c r="A264" s="8" t="s">
         <v>998</v>
       </c>
       <c r="B264" s="4">
-        <f>IF(ISERROR(VLOOKUP(H264,A1:H635,3,1)),C264,VLOOKUP(H264,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H264,A1:H637,3,1)),C264,VLOOKUP(H264,A1:H637,3,1))</f>
         <v>345</v>
       </c>
       <c r="C264" s="5">
@@ -15826,12 +15841,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:8" ht="20.05" customHeight="1">
       <c r="A265" s="8" t="s">
         <v>1002</v>
       </c>
       <c r="B265" s="4">
-        <f>IF(ISERROR(VLOOKUP(H265,A1:H635,3,1)),C265,VLOOKUP(H265,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H265,A1:H637,3,1)),C265,VLOOKUP(H265,A1:H637,3,1))</f>
         <v>403</v>
       </c>
       <c r="C265" s="5">
@@ -15853,12 +15868,12 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:8" ht="20.05" customHeight="1">
       <c r="A266" s="8" t="s">
         <v>1008</v>
       </c>
       <c r="B266" s="4">
-        <f>IF(ISERROR(VLOOKUP(H266,A1:H635,3,1)),C266,VLOOKUP(H266,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H266,A1:H637,3,1)),C266,VLOOKUP(H266,A1:H637,3,1))</f>
         <v>382</v>
       </c>
       <c r="C266" s="5">
@@ -15880,12 +15895,12 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:8" ht="20.05" customHeight="1">
       <c r="A267" s="8" t="s">
         <v>1012</v>
       </c>
       <c r="B267" s="4">
-        <f>IF(ISERROR(VLOOKUP(H267,A1:H635,3,1)),C267,VLOOKUP(H267,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H267,A1:H637,3,1)),C267,VLOOKUP(H267,A1:H637,3,1))</f>
         <v>386</v>
       </c>
       <c r="C267" s="5">
@@ -15907,12 +15922,12 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:8" ht="20.05" customHeight="1">
       <c r="A268" s="8" t="s">
         <v>1016</v>
       </c>
       <c r="B268" s="4">
-        <f>IF(ISERROR(VLOOKUP(H268,A1:H635,3,1)),C268,VLOOKUP(H268,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H268,A1:H637,3,1)),C268,VLOOKUP(H268,A1:H637,3,1))</f>
         <v>388</v>
       </c>
       <c r="C268" s="5">
@@ -15934,12 +15949,12 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:8" ht="20.05" customHeight="1">
       <c r="A269" s="8" t="s">
         <v>1020</v>
       </c>
       <c r="B269" s="4">
-        <f>IF(ISERROR(VLOOKUP(H269,A1:H635,3,1)),C269,VLOOKUP(H269,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H269,A1:H637,3,1)),C269,VLOOKUP(H269,A1:H637,3,1))</f>
         <v>390</v>
       </c>
       <c r="C269" s="5">
@@ -15961,12 +15976,12 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:8" ht="20.05" customHeight="1">
       <c r="A270" s="8" t="s">
         <v>1024</v>
       </c>
       <c r="B270" s="4">
-        <f>IF(ISERROR(VLOOKUP(H270,A1:H635,3,1)),C270,VLOOKUP(H270,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H270,A1:H637,3,1)),C270,VLOOKUP(H270,A1:H637,3,1))</f>
         <v>393</v>
       </c>
       <c r="C270" s="5">
@@ -15988,12 +16003,12 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:8" ht="20.05" customHeight="1">
       <c r="A271" s="8" t="s">
         <v>1028</v>
       </c>
       <c r="B271" s="4">
-        <f>IF(ISERROR(VLOOKUP(H271,A1:H635,3,1)),C271,VLOOKUP(H271,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H271,A1:H637,3,1)),C271,VLOOKUP(H271,A1:H637,3,1))</f>
         <v>396</v>
       </c>
       <c r="C271" s="5">
@@ -16015,12 +16030,12 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:8" ht="20.05" customHeight="1">
       <c r="A272" s="8" t="s">
         <v>1032</v>
       </c>
       <c r="B272" s="4">
-        <f>IF(ISERROR(VLOOKUP(H272,A1:H635,3,1)),C272,VLOOKUP(H272,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H272,A1:H637,3,1)),C272,VLOOKUP(H272,A1:H637,3,1))</f>
         <v>398</v>
       </c>
       <c r="C272" s="5">
@@ -16042,12 +16057,12 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:8" ht="20.05" customHeight="1">
       <c r="A273" s="8" t="s">
         <v>1036</v>
       </c>
       <c r="B273" s="4">
-        <f>IF(ISERROR(VLOOKUP(H273,A1:H635,3,1)),C273,VLOOKUP(H273,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H273,A1:H637,3,1)),C273,VLOOKUP(H273,A1:H637,3,1))</f>
         <v>401</v>
       </c>
       <c r="C273" s="5">
@@ -16069,12 +16084,12 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:8" ht="20.05" customHeight="1">
       <c r="A274" s="8" t="s">
         <v>1007</v>
       </c>
       <c r="B274" s="4">
-        <f>IF(ISERROR(VLOOKUP(H274,A1:H635,3,1)),C274,VLOOKUP(H274,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H274,A1:H637,3,1)),C274,VLOOKUP(H274,A1:H637,3,1))</f>
         <v>403</v>
       </c>
       <c r="C274" s="5">
@@ -16096,12 +16111,12 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:8" ht="20.05" customHeight="1">
       <c r="A275" s="8" t="s">
         <v>1042</v>
       </c>
       <c r="B275" s="4">
-        <f>IF(ISERROR(VLOOKUP(H275,A1:H635,3,1)),C275,VLOOKUP(H275,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H275,A1:H637,3,1)),C275,VLOOKUP(H275,A1:H637,3,1))</f>
         <v>409</v>
       </c>
       <c r="C275" s="5">
@@ -16123,12 +16138,12 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:8" ht="20.05" customHeight="1">
       <c r="A276" s="8" t="s">
         <v>1046</v>
       </c>
       <c r="B276" s="4">
-        <f>IF(ISERROR(VLOOKUP(H276,A1:H635,3,1)),C276,VLOOKUP(H276,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H276,A1:H637,3,1)),C276,VLOOKUP(H276,A1:H637,3,1))</f>
         <v>411</v>
       </c>
       <c r="C276" s="5">
@@ -16150,12 +16165,12 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:8" ht="20.05" customHeight="1">
       <c r="A277" s="8" t="s">
         <v>369</v>
       </c>
       <c r="B277" s="4">
-        <f>IF(ISERROR(VLOOKUP(H277,A1:H635,3,1)),C277,VLOOKUP(H277,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H277,A1:H637,3,1)),C277,VLOOKUP(H277,A1:H637,3,1))</f>
         <v>413</v>
       </c>
       <c r="C277" s="5">
@@ -16177,12 +16192,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:8" ht="20.05" customHeight="1">
       <c r="A278" s="8" t="s">
         <v>1052</v>
       </c>
       <c r="B278" s="4">
-        <f>IF(ISERROR(VLOOKUP(H278,A1:H635,3,1)),C278,VLOOKUP(H278,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H278,A1:H637,3,1)),C278,VLOOKUP(H278,A1:H637,3,1))</f>
         <v>417</v>
       </c>
       <c r="C278" s="5">
@@ -16204,12 +16219,12 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:8" ht="20.05" customHeight="1">
       <c r="A279" s="8" t="s">
         <v>1056</v>
       </c>
       <c r="B279" s="4">
-        <f>IF(ISERROR(VLOOKUP(H279,A1:H635,3,1)),C279,VLOOKUP(H279,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H279,A1:H637,3,1)),C279,VLOOKUP(H279,A1:H637,3,1))</f>
         <v>419</v>
       </c>
       <c r="C279" s="5">
@@ -16231,12 +16246,12 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:8" ht="20.05" customHeight="1">
       <c r="A280" s="8" t="s">
         <v>1060</v>
       </c>
       <c r="B280" s="4">
-        <f>IF(ISERROR(VLOOKUP(H280,A1:H635,3,1)),C280,VLOOKUP(H280,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H280,A1:H637,3,1)),C280,VLOOKUP(H280,A1:H637,3,1))</f>
         <v>421</v>
       </c>
       <c r="C280" s="5">
@@ -16258,12 +16273,12 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:8" ht="20.05" customHeight="1">
       <c r="A281" s="8" t="s">
         <v>1064</v>
       </c>
       <c r="B281" s="4">
-        <f>IF(ISERROR(VLOOKUP(H281,A1:H635,3,1)),C281,VLOOKUP(H281,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H281,A1:H637,3,1)),C281,VLOOKUP(H281,A1:H637,3,1))</f>
         <v>424</v>
       </c>
       <c r="C281" s="5">
@@ -16285,12 +16300,12 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:8" ht="20.05" customHeight="1">
       <c r="A282" s="8" t="s">
         <v>1068</v>
       </c>
       <c r="B282" s="4">
-        <f>IF(ISERROR(VLOOKUP(H282,A1:H635,3,1)),C282,VLOOKUP(H282,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H282,A1:H637,3,1)),C282,VLOOKUP(H282,A1:H637,3,1))</f>
         <v>427</v>
       </c>
       <c r="C282" s="5">
@@ -16312,12 +16327,12 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:8" ht="20.05" customHeight="1">
       <c r="A283" s="8" t="s">
         <v>1072</v>
       </c>
       <c r="B283" s="4">
-        <f>IF(ISERROR(VLOOKUP(H283,A1:H635,3,1)),C283,VLOOKUP(H283,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H283,A1:H637,3,1)),C283,VLOOKUP(H283,A1:H637,3,1))</f>
         <v>429</v>
       </c>
       <c r="C283" s="5">
@@ -16339,12 +16354,12 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:8" ht="20.05" customHeight="1">
       <c r="A284" s="8" t="s">
         <v>1076</v>
       </c>
       <c r="B284" s="4">
-        <f>IF(ISERROR(VLOOKUP(H284,A1:H635,3,1)),C284,VLOOKUP(H284,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H284,A1:H637,3,1)),C284,VLOOKUP(H284,A1:H637,3,1))</f>
         <v>432</v>
       </c>
       <c r="C284" s="5">
@@ -16366,12 +16381,12 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:8" ht="20.05" customHeight="1">
       <c r="A285" s="8" t="s">
         <v>1080</v>
       </c>
       <c r="B285" s="4">
-        <f>IF(ISERROR(VLOOKUP(H285,A1:H635,3,1)),C285,VLOOKUP(H285,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H285,A1:H637,3,1)),C285,VLOOKUP(H285,A1:H637,3,1))</f>
         <v>434</v>
       </c>
       <c r="C285" s="5">
@@ -16393,12 +16408,12 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:8" ht="20.05" customHeight="1">
       <c r="A286" s="8" t="s">
         <v>1084</v>
       </c>
       <c r="B286" s="4">
-        <f>IF(ISERROR(VLOOKUP(H286,A1:H635,3,1)),C286,VLOOKUP(H286,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H286,A1:H637,3,1)),C286,VLOOKUP(H286,A1:H637,3,1))</f>
         <v>440</v>
       </c>
       <c r="C286" s="5">
@@ -16420,12 +16435,12 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:8" ht="20.05" customHeight="1">
       <c r="A287" s="8" t="s">
         <v>1088</v>
       </c>
       <c r="B287" s="4">
-        <f>IF(ISERROR(VLOOKUP(H287,A1:H635,3,1)),C287,VLOOKUP(H287,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H287,A1:H637,3,1)),C287,VLOOKUP(H287,A1:H637,3,1))</f>
         <v>442</v>
       </c>
       <c r="C287" s="5">
@@ -16447,12 +16462,12 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:8" ht="20.05" customHeight="1">
       <c r="A288" s="8" t="s">
         <v>1092</v>
       </c>
       <c r="B288" s="4">
-        <f>IF(ISERROR(VLOOKUP(H288,A1:H635,3,1)),C288,VLOOKUP(H288,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H288,A1:H637,3,1)),C288,VLOOKUP(H288,A1:H637,3,1))</f>
         <v>444</v>
       </c>
       <c r="C288" s="5">
@@ -16474,12 +16489,12 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:8" ht="20.05" customHeight="1">
       <c r="A289" s="8" t="s">
         <v>1096</v>
       </c>
       <c r="B289" s="4">
-        <f>IF(ISERROR(VLOOKUP(H289,A1:H635,3,1)),C289,VLOOKUP(H289,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H289,A1:H637,3,1)),C289,VLOOKUP(H289,A1:H637,3,1))</f>
         <v>446</v>
       </c>
       <c r="C289" s="5">
@@ -16501,12 +16516,12 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:8" ht="20.05" customHeight="1">
       <c r="A290" s="8" t="s">
         <v>1100</v>
       </c>
       <c r="B290" s="4">
-        <f>IF(ISERROR(VLOOKUP(H290,A1:H635,3,1)),C290,VLOOKUP(H290,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H290,A1:H637,3,1)),C290,VLOOKUP(H290,A1:H637,3,1))</f>
         <v>403</v>
       </c>
       <c r="C290" s="5">
@@ -16528,12 +16543,12 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:8" ht="20.05" customHeight="1">
       <c r="A291" s="8" t="s">
         <v>1104</v>
       </c>
       <c r="B291" s="4">
-        <f>IF(ISERROR(VLOOKUP(H291,A1:H635,3,1)),C291,VLOOKUP(H291,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H291,A1:H637,3,1)),C291,VLOOKUP(H291,A1:H637,3,1))</f>
         <v>434</v>
       </c>
       <c r="C291" s="5">
@@ -16555,12 +16570,12 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:8" ht="20.05" customHeight="1">
       <c r="A292" s="8" t="s">
         <v>1108</v>
       </c>
       <c r="B292" s="4">
-        <f>IF(ISERROR(VLOOKUP(H292,A1:H635,3,1)),C292,VLOOKUP(H292,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H292,A1:H637,3,1)),C292,VLOOKUP(H292,A1:H637,3,1))</f>
         <v>382</v>
       </c>
       <c r="C292" s="5">
@@ -16582,12 +16597,12 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:8" ht="20.05" customHeight="1">
       <c r="A293" s="8" t="s">
         <v>1112</v>
       </c>
       <c r="B293" s="4">
-        <f>IF(ISERROR(VLOOKUP(H293,A1:H635,3,1)),C293,VLOOKUP(H293,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H293,A1:H637,3,1)),C293,VLOOKUP(H293,A1:H637,3,1))</f>
         <v>393</v>
       </c>
       <c r="C293" s="5">
@@ -16609,12 +16624,12 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:8" ht="20.05" customHeight="1">
       <c r="A294" s="8" t="s">
         <v>1116</v>
       </c>
       <c r="B294" s="4">
-        <f>IF(ISERROR(VLOOKUP(H294,A1:H635,3,1)),C294,VLOOKUP(H294,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H294,A1:H637,3,1)),C294,VLOOKUP(H294,A1:H637,3,1))</f>
         <v>398</v>
       </c>
       <c r="C294" s="5">
@@ -16636,12 +16651,12 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:8" ht="20.05" customHeight="1">
       <c r="A295" s="8" t="s">
         <v>1120</v>
       </c>
       <c r="B295" s="4">
-        <f>IF(ISERROR(VLOOKUP(H295,A1:H635,3,1)),C295,VLOOKUP(H295,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H295,A1:H637,3,1)),C295,VLOOKUP(H295,A1:H637,3,1))</f>
         <v>403</v>
       </c>
       <c r="C295" s="5">
@@ -16663,12 +16678,12 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:8" ht="20.05" customHeight="1">
       <c r="A296" s="8" t="s">
         <v>1124</v>
       </c>
       <c r="B296" s="4">
-        <f>IF(ISERROR(VLOOKUP(H296,A1:H635,3,1)),C296,VLOOKUP(H296,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H296,A1:H637,3,1)),C296,VLOOKUP(H296,A1:H637,3,1))</f>
         <v>434</v>
       </c>
       <c r="C296" s="5">
@@ -16690,12 +16705,12 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:8" ht="20.05" customHeight="1">
       <c r="A297" s="8" t="s">
         <v>1128</v>
       </c>
       <c r="B297" s="4">
-        <f>IF(ISERROR(VLOOKUP(H297,A1:H635,3,1)),C297,VLOOKUP(H297,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H297,A1:H637,3,1)),C297,VLOOKUP(H297,A1:H637,3,1))</f>
         <v>382</v>
       </c>
       <c r="C297" s="5">
@@ -16717,12 +16732,12 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:8" ht="20.05" customHeight="1">
       <c r="A298" s="8" t="s">
         <v>1132</v>
       </c>
       <c r="B298" s="4">
-        <f>IF(ISERROR(VLOOKUP(H298,A1:H635,3,1)),C298,VLOOKUP(H298,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H298,A1:H637,3,1)),C298,VLOOKUP(H298,A1:H637,3,1))</f>
         <v>386</v>
       </c>
       <c r="C298" s="5">
@@ -16744,12 +16759,12 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:8" ht="20.05" customHeight="1">
       <c r="A299" s="8" t="s">
         <v>1136</v>
       </c>
       <c r="B299" s="4">
-        <f>IF(ISERROR(VLOOKUP(H299,A1:H635,3,1)),C299,VLOOKUP(H299,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H299,A1:H637,3,1)),C299,VLOOKUP(H299,A1:H637,3,1))</f>
         <v>388</v>
       </c>
       <c r="C299" s="5">
@@ -16771,12 +16786,12 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:8" ht="20.05" customHeight="1">
       <c r="A300" s="8" t="s">
         <v>1140</v>
       </c>
       <c r="B300" s="4">
-        <f>IF(ISERROR(VLOOKUP(H300,A1:H635,3,1)),C300,VLOOKUP(H300,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H300,A1:H637,3,1)),C300,VLOOKUP(H300,A1:H637,3,1))</f>
         <v>390</v>
       </c>
       <c r="C300" s="5">
@@ -16798,12 +16813,12 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:8" ht="20.05" customHeight="1">
       <c r="A301" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B301" s="4">
-        <f>IF(ISERROR(VLOOKUP(H301,A1:H635,3,1)),C301,VLOOKUP(H301,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H301,A1:H637,3,1)),C301,VLOOKUP(H301,A1:H637,3,1))</f>
         <v>393</v>
       </c>
       <c r="C301" s="5">
@@ -16825,12 +16840,12 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:8" ht="20.05" customHeight="1">
       <c r="A302" s="8" t="s">
         <v>1148</v>
       </c>
       <c r="B302" s="4">
-        <f>IF(ISERROR(VLOOKUP(H302,A1:H635,3,1)),C302,VLOOKUP(H302,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H302,A1:H637,3,1)),C302,VLOOKUP(H302,A1:H637,3,1))</f>
         <v>396</v>
       </c>
       <c r="C302" s="5">
@@ -16852,12 +16867,12 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:8" ht="20.05" customHeight="1">
       <c r="A303" s="8" t="s">
         <v>1152</v>
       </c>
       <c r="B303" s="4">
-        <f>IF(ISERROR(VLOOKUP(H303,A1:H635,3,1)),C303,VLOOKUP(H303,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H303,A1:H637,3,1)),C303,VLOOKUP(H303,A1:H637,3,1))</f>
         <v>398</v>
       </c>
       <c r="C303" s="5">
@@ -16879,12 +16894,12 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:8" ht="20.05" customHeight="1">
       <c r="A304" s="8" t="s">
         <v>1156</v>
       </c>
       <c r="B304" s="4">
-        <f>IF(ISERROR(VLOOKUP(H304,A1:H635,3,1)),C304,VLOOKUP(H304,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H304,A1:H637,3,1)),C304,VLOOKUP(H304,A1:H637,3,1))</f>
         <v>401</v>
       </c>
       <c r="C304" s="5">
@@ -16906,12 +16921,12 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:8" ht="20.05" customHeight="1">
       <c r="A305" s="8" t="s">
         <v>1160</v>
       </c>
       <c r="B305" s="4">
-        <f>IF(ISERROR(VLOOKUP(H305,A1:H635,3,1)),C305,VLOOKUP(H305,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H305,A1:H637,3,1)),C305,VLOOKUP(H305,A1:H637,3,1))</f>
         <v>403</v>
       </c>
       <c r="C305" s="5">
@@ -16933,12 +16948,12 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:8" ht="20.05" customHeight="1">
       <c r="A306" s="8" t="s">
         <v>1164</v>
       </c>
       <c r="B306" s="4">
-        <f>IF(ISERROR(VLOOKUP(H306,A1:H635,3,1)),C306,VLOOKUP(H306,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H306,A1:H637,3,1)),C306,VLOOKUP(H306,A1:H637,3,1))</f>
         <v>409</v>
       </c>
       <c r="C306" s="5">
@@ -16960,12 +16975,12 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:8" ht="20.05" customHeight="1">
       <c r="A307" s="8" t="s">
         <v>1168</v>
       </c>
       <c r="B307" s="4">
-        <f>IF(ISERROR(VLOOKUP(H307,A1:H635,3,1)),C307,VLOOKUP(H307,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H307,A1:H637,3,1)),C307,VLOOKUP(H307,A1:H637,3,1))</f>
         <v>411</v>
       </c>
       <c r="C307" s="5">
@@ -16987,12 +17002,12 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:8" ht="20.05" customHeight="1">
       <c r="A308" s="8" t="s">
         <v>1172</v>
       </c>
       <c r="B308" s="4">
-        <f>IF(ISERROR(VLOOKUP(H308,A1:H635,3,1)),C308,VLOOKUP(H308,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H308,A1:H637,3,1)),C308,VLOOKUP(H308,A1:H637,3,1))</f>
         <v>413</v>
       </c>
       <c r="C308" s="5">
@@ -17014,12 +17029,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:8" ht="20.05" customHeight="1">
       <c r="A309" s="8" t="s">
         <v>1175</v>
       </c>
       <c r="B309" s="4">
-        <f>IF(ISERROR(VLOOKUP(H309,A1:H635,3,1)),C309,VLOOKUP(H309,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H309,A1:H637,3,1)),C309,VLOOKUP(H309,A1:H637,3,1))</f>
         <v>417</v>
       </c>
       <c r="C309" s="5">
@@ -17041,12 +17056,12 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:8" ht="20.05" customHeight="1">
       <c r="A310" s="8" t="s">
         <v>1179</v>
       </c>
       <c r="B310" s="4">
-        <f>IF(ISERROR(VLOOKUP(H310,A1:H635,3,1)),C310,VLOOKUP(H310,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H310,A1:H637,3,1)),C310,VLOOKUP(H310,A1:H637,3,1))</f>
         <v>419</v>
       </c>
       <c r="C310" s="5">
@@ -17068,12 +17083,12 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:8" ht="20.05" customHeight="1">
       <c r="A311" s="8" t="s">
         <v>1183</v>
       </c>
       <c r="B311" s="4">
-        <f>IF(ISERROR(VLOOKUP(H311,A1:H635,3,1)),C311,VLOOKUP(H311,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H311,A1:H637,3,1)),C311,VLOOKUP(H311,A1:H637,3,1))</f>
         <v>421</v>
       </c>
       <c r="C311" s="5">
@@ -17095,12 +17110,12 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:8" ht="20.05" customHeight="1">
       <c r="A312" s="8" t="s">
         <v>1187</v>
       </c>
       <c r="B312" s="4">
-        <f>IF(ISERROR(VLOOKUP(H312,A1:H635,3,1)),C312,VLOOKUP(H312,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H312,A1:H637,3,1)),C312,VLOOKUP(H312,A1:H637,3,1))</f>
         <v>424</v>
       </c>
       <c r="C312" s="5">
@@ -17122,12 +17137,12 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:8" ht="20.05" customHeight="1">
       <c r="A313" s="8" t="s">
         <v>1191</v>
       </c>
       <c r="B313" s="4">
-        <f>IF(ISERROR(VLOOKUP(H313,A1:H635,3,1)),C313,VLOOKUP(H313,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H313,A1:H637,3,1)),C313,VLOOKUP(H313,A1:H637,3,1))</f>
         <v>427</v>
       </c>
       <c r="C313" s="5">
@@ -17149,12 +17164,12 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:8" ht="20.05" customHeight="1">
       <c r="A314" s="8" t="s">
         <v>1195</v>
       </c>
       <c r="B314" s="4">
-        <f>IF(ISERROR(VLOOKUP(H314,A1:H635,3,1)),C314,VLOOKUP(H314,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H314,A1:H637,3,1)),C314,VLOOKUP(H314,A1:H637,3,1))</f>
         <v>429</v>
       </c>
       <c r="C314" s="5">
@@ -17176,12 +17191,12 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:8" ht="20.05" customHeight="1">
       <c r="A315" s="8" t="s">
         <v>1199</v>
       </c>
       <c r="B315" s="4">
-        <f>IF(ISERROR(VLOOKUP(H315,A1:H635,3,1)),C315,VLOOKUP(H315,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H315,A1:H637,3,1)),C315,VLOOKUP(H315,A1:H637,3,1))</f>
         <v>429</v>
       </c>
       <c r="C315" s="5">
@@ -17203,12 +17218,12 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:8" ht="20.05" customHeight="1">
       <c r="A316" s="8" t="s">
         <v>1203</v>
       </c>
       <c r="B316" s="4">
-        <f>IF(ISERROR(VLOOKUP(H316,A1:H635,3,1)),C316,VLOOKUP(H316,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H316,A1:H637,3,1)),C316,VLOOKUP(H316,A1:H637,3,1))</f>
         <v>432</v>
       </c>
       <c r="C316" s="5">
@@ -17230,12 +17245,12 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:8" ht="20.05" customHeight="1">
       <c r="A317" s="8" t="s">
         <v>1207</v>
       </c>
       <c r="B317" s="4">
-        <f>IF(ISERROR(VLOOKUP(H317,A1:H635,3,1)),C317,VLOOKUP(H317,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H317,A1:H637,3,1)),C317,VLOOKUP(H317,A1:H637,3,1))</f>
         <v>434</v>
       </c>
       <c r="C317" s="5">
@@ -17257,12 +17272,12 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:8" ht="20.05" customHeight="1">
       <c r="A318" s="8" t="s">
         <v>1211</v>
       </c>
       <c r="B318" s="4">
-        <f>IF(ISERROR(VLOOKUP(H318,A1:H635,3,1)),C318,VLOOKUP(H318,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H318,A1:H637,3,1)),C318,VLOOKUP(H318,A1:H637,3,1))</f>
         <v>440</v>
       </c>
       <c r="C318" s="5">
@@ -17284,12 +17299,12 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:8" ht="20.05" customHeight="1">
       <c r="A319" s="8" t="s">
         <v>1215</v>
       </c>
       <c r="B319" s="4">
-        <f>IF(ISERROR(VLOOKUP(H319,A1:H635,3,1)),C319,VLOOKUP(H319,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H319,A1:H637,3,1)),C319,VLOOKUP(H319,A1:H637,3,1))</f>
         <v>442</v>
       </c>
       <c r="C319" s="5">
@@ -17311,12 +17326,12 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:8" ht="20.05" customHeight="1">
       <c r="A320" s="8" t="s">
         <v>1219</v>
       </c>
       <c r="B320" s="4">
-        <f>IF(ISERROR(VLOOKUP(H320,A1:H635,3,1)),C320,VLOOKUP(H320,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H320,A1:H637,3,1)),C320,VLOOKUP(H320,A1:H637,3,1))</f>
         <v>444</v>
       </c>
       <c r="C320" s="5">
@@ -17338,12 +17353,12 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:8" ht="20.05" customHeight="1">
       <c r="A321" s="8" t="s">
         <v>1223</v>
       </c>
       <c r="B321" s="4">
-        <f>IF(ISERROR(VLOOKUP(H321,A1:H635,3,1)),C321,VLOOKUP(H321,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H321,A1:H637,3,1)),C321,VLOOKUP(H321,A1:H637,3,1))</f>
         <v>446</v>
       </c>
       <c r="C321" s="5">
@@ -17365,12 +17380,12 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:8" ht="20.05" customHeight="1">
       <c r="A322" s="8" t="s">
         <v>1227</v>
       </c>
       <c r="B322" s="4">
-        <f>IF(ISERROR(VLOOKUP(H322,A1:H635,3,1)),C322,VLOOKUP(H322,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H322,A1:H637,3,1)),C322,VLOOKUP(H322,A1:H637,3,1))</f>
         <v>403</v>
       </c>
       <c r="C322" s="5">
@@ -17392,12 +17407,12 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:8" ht="20.05" customHeight="1">
       <c r="A323" s="8" t="s">
         <v>1231</v>
       </c>
       <c r="B323" s="4">
-        <f>IF(ISERROR(VLOOKUP(H323,A1:H635,3,1)),C323,VLOOKUP(H323,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H323,A1:H637,3,1)),C323,VLOOKUP(H323,A1:H637,3,1))</f>
         <v>434</v>
       </c>
       <c r="C323" s="5">
@@ -17419,12 +17434,12 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:8" ht="20.05" customHeight="1">
       <c r="A324" s="8" t="s">
         <v>1235</v>
       </c>
       <c r="B324" s="4">
-        <f>IF(ISERROR(VLOOKUP(H324,A1:H635,3,1)),C324,VLOOKUP(H324,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H324,A1:H637,3,1)),C324,VLOOKUP(H324,A1:H637,3,1))</f>
         <v>421</v>
       </c>
       <c r="C324" s="5">
@@ -17446,12 +17461,12 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:8" ht="20.05" customHeight="1">
       <c r="A325" s="8" t="s">
         <v>1239</v>
       </c>
       <c r="B325" s="4">
-        <f>IF(ISERROR(VLOOKUP(H325,A1:H635,3,1)),C325,VLOOKUP(H325,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H325,A1:H637,3,1)),C325,VLOOKUP(H325,A1:H637,3,1))</f>
         <v>434</v>
       </c>
       <c r="C325" s="5">
@@ -17473,12 +17488,12 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:8" ht="20.05" customHeight="1">
       <c r="A326" s="8" t="s">
         <v>1243</v>
       </c>
       <c r="B326" s="4">
-        <f>IF(ISERROR(VLOOKUP(H326,A1:H635,3,1)),C326,VLOOKUP(H326,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H326,A1:H637,3,1)),C326,VLOOKUP(H326,A1:H637,3,1))</f>
         <v>446</v>
       </c>
       <c r="C326" s="5">
@@ -17500,12 +17515,12 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:8" ht="20.05" customHeight="1">
       <c r="A327" s="8" t="s">
         <v>1247</v>
       </c>
       <c r="B327" s="4">
-        <f>IF(ISERROR(VLOOKUP(H327,A1:H635,3,1)),C327,VLOOKUP(H327,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H327,A1:H637,3,1)),C327,VLOOKUP(H327,A1:H637,3,1))</f>
         <v>1</v>
       </c>
       <c r="C327" s="5">
@@ -17527,12 +17542,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:8" ht="20.05" customHeight="1">
       <c r="A328" s="8" t="s">
         <v>1251</v>
       </c>
       <c r="B328" s="4">
-        <f>IF(ISERROR(VLOOKUP(H328,A1:H635,3,1)),C328,VLOOKUP(H328,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H328,A1:H637,3,1)),C328,VLOOKUP(H328,A1:H637,3,1))</f>
         <v>1</v>
       </c>
       <c r="C328" s="5">
@@ -17554,12 +17569,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:8" ht="20.05" customHeight="1">
       <c r="A329" s="8" t="s">
         <v>1255</v>
       </c>
       <c r="B329" s="4">
-        <f>IF(ISERROR(VLOOKUP(H329,A1:H635,3,1)),C329,VLOOKUP(H329,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H329,A1:H637,3,1)),C329,VLOOKUP(H329,A1:H637,3,1))</f>
         <v>1</v>
       </c>
       <c r="C329" s="5">
@@ -17581,12 +17596,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:8" ht="20.05" customHeight="1">
       <c r="A330" s="8" t="s">
         <v>1259</v>
       </c>
       <c r="B330" s="4">
-        <f>IF(ISERROR(VLOOKUP(H330,A1:H635,3,1)),C330,VLOOKUP(H330,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H330,A1:H637,3,1)),C330,VLOOKUP(H330,A1:H637,3,1))</f>
         <v>1</v>
       </c>
       <c r="C330" s="5">
@@ -17608,12 +17623,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:8" ht="20.05" customHeight="1">
       <c r="A331" s="8" t="s">
         <v>1263</v>
       </c>
       <c r="B331" s="4">
-        <f>IF(ISERROR(VLOOKUP(H331,A1:H635,3,1)),C331,VLOOKUP(H331,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H331,A1:H637,3,1)),C331,VLOOKUP(H331,A1:H637,3,1))</f>
         <v>1</v>
       </c>
       <c r="C331" s="5">
@@ -17635,12 +17650,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:8" ht="20.05" customHeight="1">
       <c r="A332" s="8" t="s">
         <v>1267</v>
       </c>
       <c r="B332" s="4">
-        <f>IF(ISERROR(VLOOKUP(H332,A1:H635,3,1)),C332,VLOOKUP(H332,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H332,A1:H637,3,1)),C332,VLOOKUP(H332,A1:H637,3,1))</f>
         <v>1</v>
       </c>
       <c r="C332" s="5">
@@ -17662,12 +17677,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:8" ht="20.05" customHeight="1">
       <c r="A333" s="8" t="s">
         <v>1271</v>
       </c>
       <c r="B333" s="4">
-        <f>IF(ISERROR(VLOOKUP(H333,A1:H635,3,1)),C333,VLOOKUP(H333,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H333,A1:H637,3,1)),C333,VLOOKUP(H333,A1:H637,3,1))</f>
         <v>1</v>
       </c>
       <c r="C333" s="5">
@@ -17689,12 +17704,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:8" ht="20.05" customHeight="1">
       <c r="A334" s="8" t="s">
         <v>1275</v>
       </c>
       <c r="B334" s="4">
-        <f>IF(ISERROR(VLOOKUP(H334,A1:H635,3,1)),C334,VLOOKUP(H334,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H334,A1:H637,3,1)),C334,VLOOKUP(H334,A1:H637,3,1))</f>
         <v>496</v>
       </c>
       <c r="C334" s="5">
@@ -17716,12 +17731,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:8" ht="20.05" customHeight="1">
       <c r="A335" s="8" t="s">
         <v>1279</v>
       </c>
       <c r="B335" s="4">
-        <f>IF(ISERROR(VLOOKUP(H335,A1:H635,3,1)),C335,VLOOKUP(H335,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H335,A1:H637,3,1)),C335,VLOOKUP(H335,A1:H637,3,1))</f>
         <v>496</v>
       </c>
       <c r="C335" s="5">
@@ -17743,12 +17758,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:8" ht="20.05" customHeight="1">
       <c r="A336" s="8" t="s">
         <v>1283</v>
       </c>
       <c r="B336" s="4">
-        <f>IF(ISERROR(VLOOKUP(H336,A1:H635,3,1)),C336,VLOOKUP(H336,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H336,A1:H637,3,1)),C336,VLOOKUP(H336,A1:H637,3,1))</f>
         <v>496</v>
       </c>
       <c r="C336" s="5">
@@ -17770,12 +17785,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:8" ht="20.05" customHeight="1">
       <c r="A337" s="8" t="s">
         <v>1287</v>
       </c>
       <c r="B337" s="4">
-        <f>IF(ISERROR(VLOOKUP(H337,A1:H635,3,1)),C337,VLOOKUP(H337,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H337,A1:H637,3,1)),C337,VLOOKUP(H337,A1:H637,3,1))</f>
         <v>496</v>
       </c>
       <c r="C337" s="5">
@@ -17797,12 +17812,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:8" ht="20.05" customHeight="1">
       <c r="A338" s="8" t="s">
         <v>1291</v>
       </c>
       <c r="B338" s="4">
-        <f>IF(ISERROR(VLOOKUP(H338,A1:H635,3,1)),C338,VLOOKUP(H338,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H338,A1:H637,3,1)),C338,VLOOKUP(H338,A1:H637,3,1))</f>
         <v>501</v>
       </c>
       <c r="C338" s="5">
@@ -17822,12 +17837,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:8" ht="20.05" customHeight="1">
       <c r="A339" s="8" t="s">
         <v>1295</v>
       </c>
       <c r="B339" s="4">
-        <f>IF(ISERROR(VLOOKUP(H339,A1:H635,3,1)),C339,VLOOKUP(H339,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H339,A1:H637,3,1)),C339,VLOOKUP(H339,A1:H637,3,1))</f>
         <v>501</v>
       </c>
       <c r="C339" s="5">
@@ -17847,12 +17862,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:8" ht="20.05" customHeight="1">
       <c r="A340" s="8" t="s">
         <v>1299</v>
       </c>
       <c r="B340" s="4">
-        <f>IF(ISERROR(VLOOKUP(H340,A1:H635,3,1)),C340,VLOOKUP(H340,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H340,A1:H637,3,1)),C340,VLOOKUP(H340,A1:H637,3,1))</f>
         <v>501</v>
       </c>
       <c r="C340" s="5">
@@ -17872,12 +17887,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:8" ht="20.05" customHeight="1">
       <c r="A341" s="8" t="s">
         <v>1303</v>
       </c>
       <c r="B341" s="4">
-        <f>IF(ISERROR(VLOOKUP(H341,A1:H635,3,1)),C341,VLOOKUP(H341,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H341,A1:H637,3,1)),C341,VLOOKUP(H341,A1:H637,3,1))</f>
         <v>501</v>
       </c>
       <c r="C341" s="5">
@@ -17897,12 +17912,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:8" ht="20.05" customHeight="1">
       <c r="A342" s="8" t="s">
         <v>1307</v>
       </c>
       <c r="B342" s="4">
-        <f>IF(ISERROR(VLOOKUP(H342,A1:H635,3,1)),C342,VLOOKUP(H342,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H342,A1:H637,3,1)),C342,VLOOKUP(H342,A1:H637,3,1))</f>
         <v>485</v>
       </c>
       <c r="C342" s="5">
@@ -17924,12 +17939,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:8" ht="20.05" customHeight="1">
       <c r="A343" s="8" t="s">
         <v>1311</v>
       </c>
       <c r="B343" s="4">
-        <f>IF(ISERROR(VLOOKUP(H343,A1:H635,3,1)),C343,VLOOKUP(H343,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H343,A1:H637,3,1)),C343,VLOOKUP(H343,A1:H637,3,1))</f>
         <v>15</v>
       </c>
       <c r="C343" s="5">
@@ -17951,12 +17966,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:8" ht="20.05" customHeight="1">
       <c r="A344" s="8" t="s">
         <v>1315</v>
       </c>
       <c r="B344" s="4">
-        <f>IF(ISERROR(VLOOKUP(H344,A1:H635,3,1)),C344,VLOOKUP(H344,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H344,A1:H637,3,1)),C344,VLOOKUP(H344,A1:H637,3,1))</f>
         <v>469</v>
       </c>
       <c r="C344" s="5">
@@ -17978,12 +17993,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:8" ht="20.05" customHeight="1">
       <c r="A345" s="8" t="s">
         <v>1319</v>
       </c>
       <c r="B345" s="4">
-        <f>IF(ISERROR(VLOOKUP(H345,A1:H635,3,1)),C345,VLOOKUP(H345,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H345,A1:H637,3,1)),C345,VLOOKUP(H345,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C345" s="5">
@@ -18005,12 +18020,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:8" ht="20.05" customHeight="1">
       <c r="A346" s="8" t="s">
         <v>1323</v>
       </c>
       <c r="B346" s="4">
-        <f>IF(ISERROR(VLOOKUP(H346,A1:H635,3,1)),C346,VLOOKUP(H346,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H346,A1:H637,3,1)),C346,VLOOKUP(H346,A1:H637,3,1))</f>
         <v>10</v>
       </c>
       <c r="C346" s="5">
@@ -18032,12 +18047,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:8" ht="20.05" customHeight="1">
       <c r="A347" s="8" t="s">
         <v>1327</v>
       </c>
       <c r="B347" s="4">
-        <f>IF(ISERROR(VLOOKUP(H347,A1:H635,3,1)),C347,VLOOKUP(H347,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H347,A1:H637,3,1)),C347,VLOOKUP(H347,A1:H637,3,1))</f>
         <v>15</v>
       </c>
       <c r="C347" s="5">
@@ -18059,12 +18074,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:8" ht="20.05" customHeight="1">
       <c r="A348" s="8" t="s">
         <v>1331</v>
       </c>
       <c r="B348" s="4">
-        <f>IF(ISERROR(VLOOKUP(H348,A1:H635,3,1)),C348,VLOOKUP(H348,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H348,A1:H637,3,1)),C348,VLOOKUP(H348,A1:H637,3,1))</f>
         <v>22</v>
       </c>
       <c r="C348" s="5">
@@ -18086,12 +18101,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:8" ht="20.05" customHeight="1">
       <c r="A349" s="8" t="s">
         <v>1335</v>
       </c>
       <c r="B349" s="4">
-        <f>IF(ISERROR(VLOOKUP(H349,A1:H635,3,1)),C349,VLOOKUP(H349,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H349,A1:H637,3,1)),C349,VLOOKUP(H349,A1:H637,3,1))</f>
         <v>26</v>
       </c>
       <c r="C349" s="5">
@@ -18113,12 +18128,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:8" ht="20.05" customHeight="1">
       <c r="A350" s="8" t="s">
         <v>1339</v>
       </c>
       <c r="B350" s="4">
-        <f>IF(ISERROR(VLOOKUP(H350,A1:H635,3,1)),C350,VLOOKUP(H350,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H350,A1:H637,3,1)),C350,VLOOKUP(H350,A1:H637,3,1))</f>
         <v>31</v>
       </c>
       <c r="C350" s="5">
@@ -18140,12 +18155,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:8" ht="20.05" customHeight="1">
       <c r="A351" s="8" t="s">
         <v>1343</v>
       </c>
       <c r="B351" s="4">
-        <f>IF(ISERROR(VLOOKUP(H351,A1:H635,3,1)),C351,VLOOKUP(H351,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H351,A1:H637,3,1)),C351,VLOOKUP(H351,A1:H637,3,1))</f>
         <v>35</v>
       </c>
       <c r="C351" s="5">
@@ -18167,12 +18182,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:8" ht="20.05" customHeight="1">
       <c r="A352" s="8" t="s">
         <v>1347</v>
       </c>
       <c r="B352" s="4">
-        <f>IF(ISERROR(VLOOKUP(H352,A1:H635,3,1)),C352,VLOOKUP(H352,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H352,A1:H637,3,1)),C352,VLOOKUP(H352,A1:H637,3,1))</f>
         <v>39</v>
       </c>
       <c r="C352" s="5">
@@ -18194,12 +18209,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:8" ht="20.05" customHeight="1">
       <c r="A353" s="8" t="s">
         <v>1351</v>
       </c>
       <c r="B353" s="4">
-        <f>IF(ISERROR(VLOOKUP(H353,A1:H635,3,1)),C353,VLOOKUP(H353,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H353,A1:H637,3,1)),C353,VLOOKUP(H353,A1:H637,3,1))</f>
         <v>43</v>
       </c>
       <c r="C353" s="5">
@@ -18221,12 +18236,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:8" ht="20.05" customHeight="1">
       <c r="A354" s="8" t="s">
         <v>1355</v>
       </c>
       <c r="B354" s="4">
-        <f>IF(ISERROR(VLOOKUP(H354,A1:H635,3,1)),C354,VLOOKUP(H354,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H354,A1:H637,3,1)),C354,VLOOKUP(H354,A1:H637,3,1))</f>
         <v>47</v>
       </c>
       <c r="C354" s="5">
@@ -18248,12 +18263,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:8" ht="20.05" customHeight="1">
       <c r="A355" s="8" t="s">
         <v>1359</v>
       </c>
       <c r="B355" s="4">
-        <f>IF(ISERROR(VLOOKUP(H355,A1:H635,3,1)),C355,VLOOKUP(H355,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H355,A1:H637,3,1)),C355,VLOOKUP(H355,A1:H637,3,1))</f>
         <v>51</v>
       </c>
       <c r="C355" s="5">
@@ -18275,12 +18290,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:8" ht="20.05" customHeight="1">
       <c r="A356" s="8" t="s">
         <v>1363</v>
       </c>
       <c r="B356" s="4">
-        <f>IF(ISERROR(VLOOKUP(H356,A1:H635,3,1)),C356,VLOOKUP(H356,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H356,A1:H637,3,1)),C356,VLOOKUP(H356,A1:H637,3,1))</f>
         <v>465</v>
       </c>
       <c r="C356" s="5">
@@ -18302,12 +18317,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:8" ht="20.05" customHeight="1">
       <c r="A357" s="8" t="s">
         <v>1367</v>
       </c>
       <c r="B357" s="4">
-        <f>IF(ISERROR(VLOOKUP(H357,A1:H635,3,1)),C357,VLOOKUP(H357,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H357,A1:H637,3,1)),C357,VLOOKUP(H357,A1:H637,3,1))</f>
         <v>469</v>
       </c>
       <c r="C357" s="5">
@@ -18329,12 +18344,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:8" ht="20.05" customHeight="1">
       <c r="A358" s="8" t="s">
         <v>1371</v>
       </c>
       <c r="B358" s="4">
-        <f>IF(ISERROR(VLOOKUP(H358,A1:H635,3,1)),C358,VLOOKUP(H358,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H358,A1:H637,3,1)),C358,VLOOKUP(H358,A1:H637,3,1))</f>
         <v>474</v>
       </c>
       <c r="C358" s="5">
@@ -18356,12 +18371,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:8" ht="20.05" customHeight="1">
       <c r="A359" s="8" t="s">
         <v>1374</v>
       </c>
       <c r="B359" s="4">
-        <f>IF(ISERROR(VLOOKUP(H359,A1:H635,3,1)),C359,VLOOKUP(H359,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H359,A1:H637,3,1)),C359,VLOOKUP(H359,A1:H637,3,1))</f>
         <v>561</v>
       </c>
       <c r="C359" s="5">
@@ -18383,12 +18398,12 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:8" ht="20.05" customHeight="1">
       <c r="A360" s="8" t="s">
         <v>1379</v>
       </c>
       <c r="B360" s="4">
-        <f>IF(ISERROR(VLOOKUP(H360,A1:H635,3,1)),C360,VLOOKUP(H360,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H360,A1:H637,3,1)),C360,VLOOKUP(H360,A1:H637,3,1))</f>
         <v>561</v>
       </c>
       <c r="C360" s="5">
@@ -18410,12 +18425,12 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:8" ht="20.05" customHeight="1">
       <c r="A361" s="8" t="s">
         <v>1382</v>
       </c>
       <c r="B361" s="4">
-        <f>IF(ISERROR(VLOOKUP(H361,A1:H635,3,1)),C361,VLOOKUP(H361,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H361,A1:H637,3,1)),C361,VLOOKUP(H361,A1:H637,3,1))</f>
         <v>552</v>
       </c>
       <c r="C361" s="5">
@@ -18437,12 +18452,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:8" ht="20.05" customHeight="1">
       <c r="A362" s="8" t="s">
         <v>1386</v>
       </c>
       <c r="B362" s="4">
-        <f>IF(ISERROR(VLOOKUP(H362,A1:H635,3,1)),C362,VLOOKUP(H362,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H362,A1:H637,3,1)),C362,VLOOKUP(H362,A1:H637,3,1))</f>
         <v>95</v>
       </c>
       <c r="C362" s="5">
@@ -18464,12 +18479,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:8" ht="20.05" customHeight="1">
       <c r="A363" s="8" t="s">
         <v>1390</v>
       </c>
       <c r="B363" s="4">
-        <f>IF(ISERROR(VLOOKUP(H363,A1:H635,3,1)),C363,VLOOKUP(H363,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H363,A1:H637,3,1)),C363,VLOOKUP(H363,A1:H637,3,1))</f>
         <v>160</v>
       </c>
       <c r="C363" s="5">
@@ -18491,12 +18506,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:8" ht="20.05" customHeight="1">
       <c r="A364" s="8" t="s">
         <v>1394</v>
       </c>
       <c r="B364" s="4">
-        <f>IF(ISERROR(VLOOKUP(H364,A1:H635,3,1)),C364,VLOOKUP(H364,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H364,A1:H637,3,1)),C364,VLOOKUP(H364,A1:H637,3,1))</f>
         <v>160</v>
       </c>
       <c r="C364" s="5">
@@ -18518,12 +18533,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:8" ht="20.05" customHeight="1">
       <c r="A365" s="8" t="s">
         <v>1398</v>
       </c>
       <c r="B365" s="4">
-        <f>IF(ISERROR(VLOOKUP(H365,A1:H635,3,1)),C365,VLOOKUP(H365,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H365,A1:H637,3,1)),C365,VLOOKUP(H365,A1:H637,3,1))</f>
         <v>221</v>
       </c>
       <c r="C365" s="5">
@@ -18545,12 +18560,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:8" ht="20.05" customHeight="1">
       <c r="A366" s="8" t="s">
         <v>1402</v>
       </c>
       <c r="B366" s="4">
-        <f>IF(ISERROR(VLOOKUP(H366,A1:H635,3,1)),C366,VLOOKUP(H366,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H366,A1:H637,3,1)),C366,VLOOKUP(H366,A1:H637,3,1))</f>
         <v>265</v>
       </c>
       <c r="C366" s="5">
@@ -18572,12 +18587,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:8" ht="20.05" customHeight="1">
       <c r="A367" s="8" t="s">
         <v>1406</v>
       </c>
       <c r="B367" s="4">
-        <f>IF(ISERROR(VLOOKUP(H367,A1:H635,3,1)),C367,VLOOKUP(H367,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H367,A1:H637,3,1)),C367,VLOOKUP(H367,A1:H637,3,1))</f>
         <v>272</v>
       </c>
       <c r="C367" s="5">
@@ -18599,12 +18614,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:8" ht="20.05" customHeight="1">
       <c r="A368" s="8" t="s">
         <v>1410</v>
       </c>
       <c r="B368" s="4">
-        <f>IF(ISERROR(VLOOKUP(H368,A1:H635,3,1)),C368,VLOOKUP(H368,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H368,A1:H637,3,1)),C368,VLOOKUP(H368,A1:H637,3,1))</f>
         <v>369</v>
       </c>
       <c r="C368" s="5">
@@ -18626,12 +18641,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:8" ht="20.05" customHeight="1">
       <c r="A369" s="8" t="s">
         <v>1414</v>
       </c>
       <c r="B369" s="4">
-        <f>IF(ISERROR(VLOOKUP(H369,A1:H635,3,1)),C369,VLOOKUP(H369,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H369,A1:H637,3,1)),C369,VLOOKUP(H369,A1:H637,3,1))</f>
         <v>10</v>
       </c>
       <c r="C369" s="5">
@@ -18653,12 +18668,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:8" ht="20.05" customHeight="1">
       <c r="A370" s="8" t="s">
         <v>1418</v>
       </c>
       <c r="B370" s="4">
-        <f>IF(ISERROR(VLOOKUP(H370,A1:H635,3,1)),C370,VLOOKUP(H370,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H370,A1:H637,3,1)),C370,VLOOKUP(H370,A1:H637,3,1))</f>
         <v>15</v>
       </c>
       <c r="C370" s="5">
@@ -18680,12 +18695,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:8" ht="20.05" customHeight="1">
       <c r="A371" s="8" t="s">
         <v>1422</v>
       </c>
       <c r="B371" s="4">
-        <f>IF(ISERROR(VLOOKUP(H371,A1:H635,3,1)),C371,VLOOKUP(H371,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H371,A1:H637,3,1)),C371,VLOOKUP(H371,A1:H637,3,1))</f>
         <v>22</v>
       </c>
       <c r="C371" s="5">
@@ -18707,12 +18722,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:8" ht="20.05" customHeight="1">
       <c r="A372" s="8" t="s">
         <v>1426</v>
       </c>
       <c r="B372" s="4">
-        <f>IF(ISERROR(VLOOKUP(H372,A1:H635,3,1)),C372,VLOOKUP(H372,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H372,A1:H637,3,1)),C372,VLOOKUP(H372,A1:H637,3,1))</f>
         <v>26</v>
       </c>
       <c r="C372" s="5">
@@ -18734,12 +18749,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:8" ht="20.05" customHeight="1">
       <c r="A373" s="8" t="s">
         <v>1430</v>
       </c>
       <c r="B373" s="4">
-        <f>IF(ISERROR(VLOOKUP(H373,A1:H635,3,1)),C373,VLOOKUP(H373,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H373,A1:H637,3,1)),C373,VLOOKUP(H373,A1:H637,3,1))</f>
         <v>31</v>
       </c>
       <c r="C373" s="5">
@@ -18761,12 +18776,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:8" ht="20.05" customHeight="1">
       <c r="A374" s="8" t="s">
         <v>1434</v>
       </c>
       <c r="B374" s="4">
-        <f>IF(ISERROR(VLOOKUP(H374,A1:H635,3,1)),C374,VLOOKUP(H374,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H374,A1:H637,3,1)),C374,VLOOKUP(H374,A1:H637,3,1))</f>
         <v>35</v>
       </c>
       <c r="C374" s="5">
@@ -18788,12 +18803,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:8" ht="20.05" customHeight="1">
       <c r="A375" s="8" t="s">
         <v>1438</v>
       </c>
       <c r="B375" s="4">
-        <f>IF(ISERROR(VLOOKUP(H375,A1:H635,3,1)),C375,VLOOKUP(H375,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H375,A1:H637,3,1)),C375,VLOOKUP(H375,A1:H637,3,1))</f>
         <v>39</v>
       </c>
       <c r="C375" s="5">
@@ -18815,12 +18830,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:8" ht="20.05" customHeight="1">
       <c r="A376" s="8" t="s">
         <v>1442</v>
       </c>
       <c r="B376" s="4">
-        <f>IF(ISERROR(VLOOKUP(H376,A1:H635,3,1)),C376,VLOOKUP(H376,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H376,A1:H637,3,1)),C376,VLOOKUP(H376,A1:H637,3,1))</f>
         <v>43</v>
       </c>
       <c r="C376" s="5">
@@ -18842,12 +18857,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:8" ht="20.05" customHeight="1">
       <c r="A377" s="8" t="s">
         <v>1446</v>
       </c>
       <c r="B377" s="4">
-        <f>IF(ISERROR(VLOOKUP(H377,A1:H635,3,1)),C377,VLOOKUP(H377,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H377,A1:H637,3,1)),C377,VLOOKUP(H377,A1:H637,3,1))</f>
         <v>47</v>
       </c>
       <c r="C377" s="5">
@@ -18869,12 +18884,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:8" ht="20.05" customHeight="1">
       <c r="A378" s="8" t="s">
         <v>1450</v>
       </c>
       <c r="B378" s="4">
-        <f>IF(ISERROR(VLOOKUP(H378,A1:H635,3,1)),C378,VLOOKUP(H378,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H378,A1:H637,3,1)),C378,VLOOKUP(H378,A1:H637,3,1))</f>
         <v>51</v>
       </c>
       <c r="C378" s="5">
@@ -18896,12 +18911,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:8" ht="20.05" customHeight="1">
       <c r="A379" s="8" t="s">
         <v>1454</v>
       </c>
       <c r="B379" s="4">
-        <f>IF(ISERROR(VLOOKUP(H379,A1:H635,3,1)),C379,VLOOKUP(H379,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H379,A1:H637,3,1)),C379,VLOOKUP(H379,A1:H637,3,1))</f>
         <v>465</v>
       </c>
       <c r="C379" s="5">
@@ -18923,12 +18938,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:8" ht="20.05" customHeight="1">
       <c r="A380" s="8" t="s">
         <v>1458</v>
       </c>
       <c r="B380" s="4">
-        <f>IF(ISERROR(VLOOKUP(H380,A1:H635,3,1)),C380,VLOOKUP(H380,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H380,A1:H637,3,1)),C380,VLOOKUP(H380,A1:H637,3,1))</f>
         <v>469</v>
       </c>
       <c r="C380" s="5">
@@ -18950,12 +18965,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:8" ht="20.05" customHeight="1">
       <c r="A381" s="8" t="s">
         <v>1462</v>
       </c>
       <c r="B381" s="4">
-        <f>IF(ISERROR(VLOOKUP(H381,A1:H635,3,1)),C381,VLOOKUP(H381,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H381,A1:H637,3,1)),C381,VLOOKUP(H381,A1:H637,3,1))</f>
         <v>514</v>
       </c>
       <c r="C381" s="5">
@@ -18977,12 +18992,12 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:8" ht="20.05" customHeight="1">
       <c r="A382" s="8" t="s">
         <v>1466</v>
       </c>
       <c r="B382" s="4">
-        <f>IF(ISERROR(VLOOKUP(H382,A1:H635,3,1)),C382,VLOOKUP(H382,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H382,A1:H637,3,1)),C382,VLOOKUP(H382,A1:H637,3,1))</f>
         <v>516</v>
       </c>
       <c r="C382" s="5">
@@ -19004,12 +19019,12 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:8" ht="20.05" customHeight="1">
       <c r="A383" s="8" t="s">
         <v>1470</v>
       </c>
       <c r="B383" s="4">
-        <f>IF(ISERROR(VLOOKUP(H383,A1:H635,3,1)),C383,VLOOKUP(H383,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H383,A1:H637,3,1)),C383,VLOOKUP(H383,A1:H637,3,1))</f>
         <v>512</v>
       </c>
       <c r="C383" s="5">
@@ -19031,12 +19046,12 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:8" ht="20.05" customHeight="1">
       <c r="A384" s="8" t="s">
         <v>1474</v>
       </c>
       <c r="B384" s="4">
-        <f>IF(ISERROR(VLOOKUP(H384,A1:H635,3,1)),C384,VLOOKUP(H384,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H384,A1:H637,3,1)),C384,VLOOKUP(H384,A1:H637,3,1))</f>
         <v>520</v>
       </c>
       <c r="C384" s="5">
@@ -19058,12 +19073,12 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:8" ht="20.05" customHeight="1">
       <c r="A385" s="8" t="s">
         <v>1478</v>
       </c>
       <c r="B385" s="4">
-        <f>IF(ISERROR(VLOOKUP(H385,A1:H635,3,1)),C385,VLOOKUP(H385,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H385,A1:H637,3,1)),C385,VLOOKUP(H385,A1:H637,3,1))</f>
         <v>514</v>
       </c>
       <c r="C385" s="5">
@@ -19085,12 +19100,12 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:8" ht="20.05" customHeight="1">
       <c r="A386" s="8" t="s">
         <v>1480</v>
       </c>
       <c r="B386" s="4">
-        <f>IF(ISERROR(VLOOKUP(H386,A1:H635,3,1)),C386,VLOOKUP(H386,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H386,A1:H637,3,1)),C386,VLOOKUP(H386,A1:H637,3,1))</f>
         <v>516</v>
       </c>
       <c r="C386" s="5">
@@ -19112,12 +19127,12 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:8" ht="20.05" customHeight="1">
       <c r="A387" s="8" t="s">
         <v>1482</v>
       </c>
       <c r="B387" s="4">
-        <f>IF(ISERROR(VLOOKUP(H387,A1:H635,3,1)),C387,VLOOKUP(H387,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H387,A1:H637,3,1)),C387,VLOOKUP(H387,A1:H637,3,1))</f>
         <v>512</v>
       </c>
       <c r="C387" s="5">
@@ -19139,13 +19154,13 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:8" ht="20.05" customHeight="1">
       <c r="A388" s="8" t="s">
         <v>1484</v>
       </c>
       <c r="B388" s="4">
-        <f>IF(ISERROR(VLOOKUP(H388,A1:H635,3,1)),C388,VLOOKUP(H388,A1:H635,3,1))</f>
-        <v>515</v>
+        <f>IF(ISERROR(VLOOKUP(H388,A1:H637,3,1)),C388,VLOOKUP(H388,A1:H637,3,1))</f>
+        <v>520</v>
       </c>
       <c r="C388" s="5">
         <v>520</v>
@@ -19166,12 +19181,12 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:8" ht="20.05" customHeight="1">
       <c r="A389" s="8" t="s">
         <v>1486</v>
       </c>
       <c r="B389" s="4">
-        <f>IF(ISERROR(VLOOKUP(H389,A1:H635,3,1)),C389,VLOOKUP(H389,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H389,A1:H637,3,1)),C389,VLOOKUP(H389,A1:H637,3,1))</f>
         <v>520</v>
       </c>
       <c r="C389" s="5">
@@ -19193,12 +19208,12 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:8" ht="20.05" customHeight="1">
       <c r="A390" s="8" t="s">
         <v>1490</v>
       </c>
       <c r="B390" s="4">
-        <f>IF(ISERROR(VLOOKUP(H390,A1:H635,3,1)),C390,VLOOKUP(H390,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H390,A1:H637,3,1)),C390,VLOOKUP(H390,A1:H637,3,1))</f>
         <v>512</v>
       </c>
       <c r="C390" s="5">
@@ -19220,12 +19235,12 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:8" ht="20.05" customHeight="1">
       <c r="A391" s="8" t="s">
         <v>1494</v>
       </c>
       <c r="B391" s="4">
-        <f>IF(ISERROR(VLOOKUP(H391,A1:H635,3,1)),C391,VLOOKUP(H391,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H391,A1:H637,3,1)),C391,VLOOKUP(H391,A1:H637,3,1))</f>
         <v>520</v>
       </c>
       <c r="C391" s="5">
@@ -19247,12 +19262,12 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:8" ht="20.05" customHeight="1">
       <c r="A392" s="8" t="s">
         <v>1498</v>
       </c>
       <c r="B392" s="4">
-        <f>IF(ISERROR(VLOOKUP(H392,A1:H635,3,1)),C392,VLOOKUP(H392,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H392,A1:H637,3,1)),C392,VLOOKUP(H392,A1:H637,3,1))</f>
         <v>516</v>
       </c>
       <c r="C392" s="5">
@@ -19274,12 +19289,12 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:8" ht="20.05" customHeight="1">
       <c r="A393" s="8" t="s">
         <v>1502</v>
       </c>
       <c r="B393" s="4">
-        <f>IF(ISERROR(VLOOKUP(H393,A1:H635,3,1)),C393,VLOOKUP(H393,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H393,A1:H637,3,1)),C393,VLOOKUP(H393,A1:H637,3,1))</f>
         <v>520</v>
       </c>
       <c r="C393" s="5">
@@ -19301,12 +19316,12 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:8" ht="20.05" customHeight="1">
       <c r="A394" s="8" t="s">
         <v>1506</v>
       </c>
       <c r="B394" s="4">
-        <f>IF(ISERROR(VLOOKUP(H394,A1:H635,3,1)),C394,VLOOKUP(H394,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H394,A1:H637,3,1)),C394,VLOOKUP(H394,A1:H637,3,1))</f>
         <v>520</v>
       </c>
       <c r="C394" s="5">
@@ -19328,12 +19343,12 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:8" ht="20.05" customHeight="1">
       <c r="A395" s="8" t="s">
         <v>1510</v>
       </c>
       <c r="B395" s="4">
-        <f>IF(ISERROR(VLOOKUP(H395,A1:H635,3,1)),C395,VLOOKUP(H395,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H395,A1:H637,3,1)),C395,VLOOKUP(H395,A1:H637,3,1))</f>
         <v>514</v>
       </c>
       <c r="C395" s="5">
@@ -19355,12 +19370,12 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:8" ht="20.05" customHeight="1">
       <c r="A396" s="8" t="s">
         <v>1514</v>
       </c>
       <c r="B396" s="4">
-        <f>IF(ISERROR(VLOOKUP(H396,A1:H635,3,1)),C396,VLOOKUP(H396,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H396,A1:H637,3,1)),C396,VLOOKUP(H396,A1:H637,3,1))</f>
         <v>516</v>
       </c>
       <c r="C396" s="5">
@@ -19382,12 +19397,12 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:8" ht="20.05" customHeight="1">
       <c r="A397" s="8" t="s">
         <v>1518</v>
       </c>
       <c r="B397" s="4">
-        <f>IF(ISERROR(VLOOKUP(H397,A1:H635,3,1)),C397,VLOOKUP(H397,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H397,A1:H637,3,1)),C397,VLOOKUP(H397,A1:H637,3,1))</f>
         <v>520</v>
       </c>
       <c r="C397" s="5">
@@ -19409,12 +19424,12 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:8" ht="20.05" customHeight="1">
       <c r="A398" s="8" t="s">
         <v>1522</v>
       </c>
       <c r="B398" s="4">
-        <f>IF(ISERROR(VLOOKUP(H398,A1:H635,3,1)),C398,VLOOKUP(H398,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H398,A1:H637,3,1)),C398,VLOOKUP(H398,A1:H637,3,1))</f>
         <v>593</v>
       </c>
       <c r="C398" s="5">
@@ -19436,12 +19451,12 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:8" ht="20.05" customHeight="1">
       <c r="A399" s="8" t="s">
         <v>1526</v>
       </c>
       <c r="B399" s="4">
-        <f>IF(ISERROR(VLOOKUP(H399,A1:H635,3,1)),C399,VLOOKUP(H399,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H399,A1:H637,3,1)),C399,VLOOKUP(H399,A1:H637,3,1))</f>
         <v>95</v>
       </c>
       <c r="C399" s="5">
@@ -19463,12 +19478,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:8" ht="20.05" customHeight="1">
       <c r="A400" s="8" t="s">
         <v>1530</v>
       </c>
       <c r="B400" s="4">
-        <f>IF(ISERROR(VLOOKUP(H400,A1:H635,3,1)),C400,VLOOKUP(H400,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H400,A1:H637,3,1)),C400,VLOOKUP(H400,A1:H637,3,1))</f>
         <v>593</v>
       </c>
       <c r="C400" s="5">
@@ -19490,12 +19505,12 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:8" ht="20.05" customHeight="1">
       <c r="A401" s="8" t="s">
         <v>1534</v>
       </c>
       <c r="B401" s="4">
-        <f>IF(ISERROR(VLOOKUP(H401,A1:H635,3,1)),C401,VLOOKUP(H401,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H401,A1:H637,3,1)),C401,VLOOKUP(H401,A1:H637,3,1))</f>
         <v>593</v>
       </c>
       <c r="C401" s="5">
@@ -19517,12 +19532,12 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:8" ht="20.05" customHeight="1">
       <c r="A402" s="8" t="s">
         <v>1538</v>
       </c>
       <c r="B402" s="4">
-        <f>IF(ISERROR(VLOOKUP(H402,A1:H635,3,1)),C402,VLOOKUP(H402,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H402,A1:H637,3,1)),C402,VLOOKUP(H402,A1:H637,3,1))</f>
         <v>593</v>
       </c>
       <c r="C402" s="5">
@@ -19544,12 +19559,12 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:8" ht="20.05" customHeight="1">
       <c r="A403" s="8" t="s">
         <v>1542</v>
       </c>
       <c r="B403" s="4">
-        <f>IF(ISERROR(VLOOKUP(H403,A1:H635,3,1)),C403,VLOOKUP(H403,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H403,A1:H637,3,1)),C403,VLOOKUP(H403,A1:H637,3,1))</f>
         <v>593</v>
       </c>
       <c r="C403" s="5">
@@ -19571,12 +19586,12 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:8" ht="20.05" customHeight="1">
       <c r="A404" s="8" t="s">
         <v>1546</v>
       </c>
       <c r="B404" s="4">
-        <f>IF(ISERROR(VLOOKUP(H404,A1:H635,3,1)),C404,VLOOKUP(H404,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H404,A1:H637,3,1)),C404,VLOOKUP(H404,A1:H637,3,1))</f>
         <v>593</v>
       </c>
       <c r="C404" s="5">
@@ -19598,12 +19613,12 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:8" ht="20.05" customHeight="1">
       <c r="A405" s="8" t="s">
         <v>1550</v>
       </c>
       <c r="B405" s="4">
-        <f>IF(ISERROR(VLOOKUP(H405,A1:H635,3,1)),C405,VLOOKUP(H405,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H405,A1:H637,3,1)),C405,VLOOKUP(H405,A1:H637,3,1))</f>
         <v>593</v>
       </c>
       <c r="C405" s="5">
@@ -19625,12 +19640,12 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:8" ht="20.05" customHeight="1">
       <c r="A406" s="8" t="s">
         <v>1554</v>
       </c>
       <c r="B406" s="4">
-        <f>IF(ISERROR(VLOOKUP(H406,A1:H635,3,1)),C406,VLOOKUP(H406,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H406,A1:H637,3,1)),C406,VLOOKUP(H406,A1:H637,3,1))</f>
         <v>593</v>
       </c>
       <c r="C406" s="5">
@@ -19652,12 +19667,12 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:8" ht="20.05" customHeight="1">
       <c r="A407" s="8" t="s">
         <v>1558</v>
       </c>
       <c r="B407" s="4">
-        <f>IF(ISERROR(VLOOKUP(H407,A1:H635,3,1)),C407,VLOOKUP(H407,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H407,A1:H637,3,1)),C407,VLOOKUP(H407,A1:H637,3,1))</f>
         <v>593</v>
       </c>
       <c r="C407" s="5">
@@ -19679,12 +19694,12 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:8" ht="20.05" customHeight="1">
       <c r="A408" s="8" t="s">
         <v>1562</v>
       </c>
       <c r="B408" s="4">
-        <f>IF(ISERROR(VLOOKUP(H408,A1:H635,3,1)),C408,VLOOKUP(H408,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H408,A1:H637,3,1)),C408,VLOOKUP(H408,A1:H637,3,1))</f>
         <v>593</v>
       </c>
       <c r="C408" s="5">
@@ -19706,12 +19721,12 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:8" ht="20.05" customHeight="1">
       <c r="A409" s="8" t="s">
         <v>1566</v>
       </c>
       <c r="B409" s="4">
-        <f>IF(ISERROR(VLOOKUP(H409,A1:H635,3,1)),C409,VLOOKUP(H409,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H409,A1:H637,3,1)),C409,VLOOKUP(H409,A1:H637,3,1))</f>
         <v>593</v>
       </c>
       <c r="C409" s="5">
@@ -19733,12 +19748,12 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:8" ht="20.05" customHeight="1">
       <c r="A410" s="8" t="s">
         <v>1570</v>
       </c>
       <c r="B410" s="4">
-        <f>IF(ISERROR(VLOOKUP(H410,A1:H635,3,1)),C410,VLOOKUP(H410,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H410,A1:H637,3,1)),C410,VLOOKUP(H410,A1:H637,3,1))</f>
         <v>10</v>
       </c>
       <c r="C410" s="5">
@@ -19760,12 +19775,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:8" ht="20.05" customHeight="1">
       <c r="A411" s="8" t="s">
         <v>1574</v>
       </c>
       <c r="B411" s="4">
-        <f>IF(ISERROR(VLOOKUP(H411,A1:H635,3,1)),C411,VLOOKUP(H411,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H411,A1:H637,3,1)),C411,VLOOKUP(H411,A1:H637,3,1))</f>
         <v>424</v>
       </c>
       <c r="C411" s="5">
@@ -19787,12 +19802,12 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:8" ht="20.05" customHeight="1">
       <c r="A412" s="8" t="s">
         <v>1578</v>
       </c>
       <c r="B412" s="4">
-        <f>IF(ISERROR(VLOOKUP(H412,A1:H635,3,1)),C412,VLOOKUP(H412,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H412,A1:H637,3,1)),C412,VLOOKUP(H412,A1:H637,3,1))</f>
         <v>469</v>
       </c>
       <c r="C412" s="5">
@@ -19814,12 +19829,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:8" ht="20.05" customHeight="1">
       <c r="A413" s="8" t="s">
         <v>1582</v>
       </c>
       <c r="B413" s="4">
-        <f>IF(ISERROR(VLOOKUP(H413,A1:H635,3,1)),C413,VLOOKUP(H413,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H413,A1:H637,3,1)),C413,VLOOKUP(H413,A1:H637,3,1))</f>
         <v>474</v>
       </c>
       <c r="C413" s="5">
@@ -19841,12 +19856,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:8" ht="20.05" customHeight="1">
       <c r="A414" s="8" t="s">
         <v>1586</v>
       </c>
       <c r="B414" s="4">
-        <f>IF(ISERROR(VLOOKUP(H414,A1:H635,3,1)),C414,VLOOKUP(H414,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H414,A1:H637,3,1)),C414,VLOOKUP(H414,A1:H637,3,1))</f>
         <v>474</v>
       </c>
       <c r="C414" s="5">
@@ -19868,12 +19883,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:8" ht="20.05" customHeight="1">
       <c r="A415" s="8" t="s">
         <v>1590</v>
       </c>
       <c r="B415" s="4">
-        <f>IF(ISERROR(VLOOKUP(H415,A1:H635,3,1)),C415,VLOOKUP(H415,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H415,A1:H637,3,1)),C415,VLOOKUP(H415,A1:H637,3,1))</f>
         <v>559</v>
       </c>
       <c r="C415" s="5">
@@ -19895,12 +19910,12 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:8" ht="20.05" customHeight="1">
       <c r="A416" s="8" t="s">
         <v>1594</v>
       </c>
       <c r="B416" s="4">
-        <f>IF(ISERROR(VLOOKUP(H416,A1:H635,3,1)),C416,VLOOKUP(H416,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H416,A1:H637,3,1)),C416,VLOOKUP(H416,A1:H637,3,1))</f>
         <v>26</v>
       </c>
       <c r="C416" s="5">
@@ -19922,12 +19937,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="417" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:8" ht="20.05" customHeight="1">
       <c r="A417" s="8" t="s">
         <v>1598</v>
       </c>
       <c r="B417" s="4">
-        <f>IF(ISERROR(VLOOKUP(H417,A1:H635,3,1)),C417,VLOOKUP(H417,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H417,A1:H637,3,1)),C417,VLOOKUP(H417,A1:H637,3,1))</f>
         <v>345</v>
       </c>
       <c r="C417" s="5">
@@ -19949,12 +19964,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:8" ht="20.05" customHeight="1">
       <c r="A418" s="8" t="s">
         <v>1602</v>
       </c>
       <c r="B418" s="4">
-        <f>IF(ISERROR(VLOOKUP(H418,A1:H635,3,1)),C418,VLOOKUP(H418,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H418,A1:H637,3,1)),C418,VLOOKUP(H418,A1:H637,3,1))</f>
         <v>559</v>
       </c>
       <c r="C418" s="5">
@@ -19976,12 +19991,12 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:8" ht="20.05" customHeight="1">
       <c r="A419" s="8" t="s">
         <v>1378</v>
       </c>
       <c r="B419" s="4">
-        <f>IF(ISERROR(VLOOKUP(H419,A1:H635,3,1)),C419,VLOOKUP(H419,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H419,A1:H637,3,1)),C419,VLOOKUP(H419,A1:H637,3,1))</f>
         <v>561</v>
       </c>
       <c r="C419" s="5">
@@ -20003,12 +20018,12 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:8" ht="20.05" customHeight="1">
       <c r="A420" s="8" t="s">
         <v>1608</v>
       </c>
       <c r="B420" s="4">
-        <f>IF(ISERROR(VLOOKUP(H420,A1:H635,3,1)),C420,VLOOKUP(H420,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H420,A1:H637,3,1)),C420,VLOOKUP(H420,A1:H637,3,1))</f>
         <v>573</v>
       </c>
       <c r="C420" s="5">
@@ -20030,12 +20045,12 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:8" ht="20.05" customHeight="1">
       <c r="A421" s="8" t="s">
         <v>1612</v>
       </c>
       <c r="B421" s="4">
-        <f>IF(ISERROR(VLOOKUP(H421,A1:H635,3,1)),C421,VLOOKUP(H421,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H421,A1:H637,3,1)),C421,VLOOKUP(H421,A1:H637,3,1))</f>
         <v>575</v>
       </c>
       <c r="C421" s="5">
@@ -20057,12 +20072,12 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:8" ht="20.05" customHeight="1">
       <c r="A422" s="8" t="s">
         <v>1616</v>
       </c>
       <c r="B422" s="4">
-        <f>IF(ISERROR(VLOOKUP(H422,A1:H635,3,1)),C422,VLOOKUP(H422,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H422,A1:H637,3,1)),C422,VLOOKUP(H422,A1:H637,3,1))</f>
         <v>575</v>
       </c>
       <c r="C422" s="5">
@@ -20084,12 +20099,12 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:8" ht="20.05" customHeight="1">
       <c r="A423" s="8" t="s">
         <v>1620</v>
       </c>
       <c r="B423" s="4">
-        <f>IF(ISERROR(VLOOKUP(H423,A1:H635,3,1)),C423,VLOOKUP(H423,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H423,A1:H637,3,1)),C423,VLOOKUP(H423,A1:H637,3,1))</f>
         <v>575</v>
       </c>
       <c r="C423" s="5">
@@ -20111,12 +20126,12 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:8" ht="20.05" customHeight="1">
       <c r="A424" s="8" t="s">
         <v>1624</v>
       </c>
       <c r="B424" s="4">
-        <f>IF(ISERROR(VLOOKUP(H424,A1:H635,3,1)),C424,VLOOKUP(H424,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H424,A1:H637,3,1)),C424,VLOOKUP(H424,A1:H637,3,1))</f>
         <v>533</v>
       </c>
       <c r="C424" s="5">
@@ -20138,12 +20153,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:8" ht="20.05" customHeight="1">
       <c r="A425" s="8" t="s">
         <v>1628</v>
       </c>
       <c r="B425" s="4">
-        <f>IF(ISERROR(VLOOKUP(H425,A1:H635,3,1)),C425,VLOOKUP(H425,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H425,A1:H637,3,1)),C425,VLOOKUP(H425,A1:H637,3,1))</f>
         <v>533</v>
       </c>
       <c r="C425" s="5">
@@ -20165,12 +20180,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:8" ht="20.05" customHeight="1">
       <c r="A426" s="8" t="s">
         <v>1632</v>
       </c>
       <c r="B426" s="4">
-        <f>IF(ISERROR(VLOOKUP(H426,A1:H635,3,1)),C426,VLOOKUP(H426,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H426,A1:H637,3,1)),C426,VLOOKUP(H426,A1:H637,3,1))</f>
         <v>533</v>
       </c>
       <c r="C426" s="5">
@@ -20192,12 +20207,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:8" ht="20.05" customHeight="1">
       <c r="A427" s="8" t="s">
         <v>1636</v>
       </c>
       <c r="B427" s="4">
-        <f>IF(ISERROR(VLOOKUP(H427,A1:H635,3,1)),C427,VLOOKUP(H427,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H427,A1:H637,3,1)),C427,VLOOKUP(H427,A1:H637,3,1))</f>
         <v>533</v>
       </c>
       <c r="C427" s="5">
@@ -20219,12 +20234,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:8" ht="20.05" customHeight="1">
       <c r="A428" s="8" t="s">
         <v>1640</v>
       </c>
       <c r="B428" s="4">
-        <f>IF(ISERROR(VLOOKUP(H428,A1:H635,3,1)),C428,VLOOKUP(H428,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H428,A1:H637,3,1)),C428,VLOOKUP(H428,A1:H637,3,1))</f>
         <v>527</v>
       </c>
       <c r="C428" s="5">
@@ -20246,12 +20261,12 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:8" ht="20.05" customHeight="1">
       <c r="A429" s="8" t="s">
         <v>1644</v>
       </c>
       <c r="B429" s="4">
-        <f>IF(ISERROR(VLOOKUP(H429,A1:H635,3,1)),C429,VLOOKUP(H429,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H429,A1:H637,3,1)),C429,VLOOKUP(H429,A1:H637,3,1))</f>
         <v>527</v>
       </c>
       <c r="C429" s="5">
@@ -20273,12 +20288,12 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:8" ht="20.05" customHeight="1">
       <c r="A430" s="8" t="s">
         <v>1648</v>
       </c>
       <c r="B430" s="4">
-        <f>IF(ISERROR(VLOOKUP(H430,A1:H635,3,1)),C430,VLOOKUP(H430,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H430,A1:H637,3,1)),C430,VLOOKUP(H430,A1:H637,3,1))</f>
         <v>593</v>
       </c>
       <c r="C430" s="5">
@@ -20300,12 +20315,12 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:8" ht="20.05" customHeight="1">
       <c r="A431" s="8" t="s">
         <v>1652</v>
       </c>
       <c r="B431" s="4">
-        <f>IF(ISERROR(VLOOKUP(H431,A1:H635,3,1)),C431,VLOOKUP(H431,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H431,A1:H637,3,1)),C431,VLOOKUP(H431,A1:H637,3,1))</f>
         <v>593</v>
       </c>
       <c r="C431" s="5">
@@ -20327,12 +20342,12 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:8" ht="20.05" customHeight="1">
       <c r="A432" s="8" t="s">
         <v>1656</v>
       </c>
       <c r="B432" s="4">
-        <f>IF(ISERROR(VLOOKUP(H432,A1:H635,3,1)),C432,VLOOKUP(H432,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H432,A1:H637,3,1)),C432,VLOOKUP(H432,A1:H637,3,1))</f>
         <v>564</v>
       </c>
       <c r="C432" s="5">
@@ -20354,12 +20369,12 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:8" ht="20.05" customHeight="1">
       <c r="A433" s="8" t="s">
         <v>1660</v>
       </c>
       <c r="B433" s="4">
-        <f>IF(ISERROR(VLOOKUP(H433,A1:H635,3,1)),C433,VLOOKUP(H433,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H433,A1:H637,3,1)),C433,VLOOKUP(H433,A1:H637,3,1))</f>
         <v>564</v>
       </c>
       <c r="C433" s="5">
@@ -20381,12 +20396,12 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:8" ht="20.05" customHeight="1">
       <c r="A434" s="8" t="s">
         <v>1664</v>
       </c>
       <c r="B434" s="4">
-        <f>IF(ISERROR(VLOOKUP(H434,A1:H635,3,1)),C434,VLOOKUP(H434,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H434,A1:H637,3,1)),C434,VLOOKUP(H434,A1:H637,3,1))</f>
         <v>564</v>
       </c>
       <c r="C434" s="5">
@@ -20408,12 +20423,12 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:8" ht="20.05" customHeight="1">
       <c r="A435" s="8" t="s">
         <v>1668</v>
       </c>
       <c r="B435" s="4">
-        <f>IF(ISERROR(VLOOKUP(H435,A1:H635,3,1)),C435,VLOOKUP(H435,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H435,A1:H637,3,1)),C435,VLOOKUP(H435,A1:H637,3,1))</f>
         <v>564</v>
       </c>
       <c r="C435" s="5">
@@ -20435,12 +20450,12 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:8" ht="20.05" customHeight="1">
       <c r="A436" s="8" t="s">
         <v>1672</v>
       </c>
       <c r="B436" s="4">
-        <f>IF(ISERROR(VLOOKUP(H436,A1:H635,3,1)),C436,VLOOKUP(H436,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H436,A1:H637,3,1)),C436,VLOOKUP(H436,A1:H637,3,1))</f>
         <v>564</v>
       </c>
       <c r="C436" s="5">
@@ -20462,12 +20477,12 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:8" ht="20.05" customHeight="1">
       <c r="A437" s="8" t="s">
         <v>1676</v>
       </c>
       <c r="B437" s="4">
-        <f>IF(ISERROR(VLOOKUP(H437,A1:H635,3,1)),C437,VLOOKUP(H437,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H437,A1:H637,3,1)),C437,VLOOKUP(H437,A1:H637,3,1))</f>
         <v>564</v>
       </c>
       <c r="C437" s="5">
@@ -20489,12 +20504,12 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:8" ht="20.05" customHeight="1">
       <c r="A438" s="8" t="s">
         <v>1680</v>
       </c>
       <c r="B438" s="4">
-        <f>IF(ISERROR(VLOOKUP(H438,A1:H635,3,1)),C438,VLOOKUP(H438,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H438,A1:H637,3,1)),C438,VLOOKUP(H438,A1:H637,3,1))</f>
         <v>492</v>
       </c>
       <c r="C438" s="5">
@@ -20516,12 +20531,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:8" ht="20.05" customHeight="1">
       <c r="A439" s="8" t="s">
         <v>1684</v>
       </c>
       <c r="B439" s="4">
-        <f>IF(ISERROR(VLOOKUP(H439,A1:H635,3,1)),C439,VLOOKUP(H439,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H439,A1:H637,3,1)),C439,VLOOKUP(H439,A1:H637,3,1))</f>
         <v>538</v>
       </c>
       <c r="C439" s="5">
@@ -20543,12 +20558,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:8" ht="20.05" customHeight="1">
       <c r="A440" s="8" t="s">
         <v>1688</v>
       </c>
       <c r="B440" s="4">
-        <f>IF(ISERROR(VLOOKUP(H440,A1:H635,3,1)),C440,VLOOKUP(H440,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H440,A1:H637,3,1)),C440,VLOOKUP(H440,A1:H637,3,1))</f>
         <v>538</v>
       </c>
       <c r="C440" s="5">
@@ -20570,12 +20585,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:8" ht="20.05" customHeight="1">
       <c r="A441" s="8" t="s">
         <v>1692</v>
       </c>
       <c r="B441" s="4">
-        <f>IF(ISERROR(VLOOKUP(H441,A1:H635,3,1)),C441,VLOOKUP(H441,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H441,A1:H637,3,1)),C441,VLOOKUP(H441,A1:H637,3,1))</f>
         <v>538</v>
       </c>
       <c r="C441" s="5">
@@ -20597,12 +20612,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:8" ht="20.05" customHeight="1">
       <c r="A442" s="8" t="s">
         <v>1696</v>
       </c>
       <c r="B442" s="4">
-        <f>IF(ISERROR(VLOOKUP(H442,A1:H635,3,1)),C442,VLOOKUP(H442,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H442,A1:H637,3,1)),C442,VLOOKUP(H442,A1:H637,3,1))</f>
         <v>538</v>
       </c>
       <c r="C442" s="5">
@@ -20624,12 +20639,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:8" ht="20.05" customHeight="1">
       <c r="A443" s="8" t="s">
         <v>1700</v>
       </c>
       <c r="B443" s="4">
-        <f>IF(ISERROR(VLOOKUP(H443,A1:H635,3,1)),C443,VLOOKUP(H443,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H443,A1:H637,3,1)),C443,VLOOKUP(H443,A1:H637,3,1))</f>
         <v>538</v>
       </c>
       <c r="C443" s="5">
@@ -20651,12 +20666,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:8" ht="20.05" customHeight="1">
       <c r="A444" s="8" t="s">
         <v>1704</v>
       </c>
       <c r="B444" s="4">
-        <f>IF(ISERROR(VLOOKUP(H444,A1:H635,3,1)),C444,VLOOKUP(H444,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H444,A1:H637,3,1)),C444,VLOOKUP(H444,A1:H637,3,1))</f>
         <v>538</v>
       </c>
       <c r="C444" s="5">
@@ -20678,12 +20693,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="445" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:8" ht="20.05" customHeight="1">
       <c r="A445" s="8" t="s">
         <v>1708</v>
       </c>
       <c r="B445" s="4">
-        <f>IF(ISERROR(VLOOKUP(H445,A1:H635,3,1)),C445,VLOOKUP(H445,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H445,A1:H637,3,1)),C445,VLOOKUP(H445,A1:H637,3,1))</f>
         <v>538</v>
       </c>
       <c r="C445" s="5">
@@ -20705,12 +20720,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="446" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:8" ht="20.05" customHeight="1">
       <c r="A446" s="8" t="s">
         <v>1712</v>
       </c>
       <c r="B446" s="4">
-        <f>IF(ISERROR(VLOOKUP(H446,A1:H635,3,1)),C446,VLOOKUP(H446,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H446,A1:H637,3,1)),C446,VLOOKUP(H446,A1:H637,3,1))</f>
         <v>538</v>
       </c>
       <c r="C446" s="5">
@@ -20732,12 +20747,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:8" ht="20.05" customHeight="1">
       <c r="A447" s="8" t="s">
         <v>1716</v>
       </c>
       <c r="B447" s="4">
-        <f>IF(ISERROR(VLOOKUP(H447,A1:H635,3,1)),C447,VLOOKUP(H447,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H447,A1:H637,3,1)),C447,VLOOKUP(H447,A1:H637,3,1))</f>
         <v>538</v>
       </c>
       <c r="C447" s="5">
@@ -20759,12 +20774,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:8" ht="20.05" customHeight="1">
       <c r="A448" s="8" t="s">
         <v>115</v>
       </c>
       <c r="B448" s="4">
-        <f>IF(ISERROR(VLOOKUP(H448,A1:H635,3,1)),C448,VLOOKUP(H448,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H448,A1:H637,3,1)),C448,VLOOKUP(H448,A1:H637,3,1))</f>
         <v>538</v>
       </c>
       <c r="C448" s="5">
@@ -20786,12 +20801,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="449" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:8" ht="20.05" customHeight="1">
       <c r="A449" s="8" t="s">
         <v>1722</v>
       </c>
       <c r="B449" s="4">
-        <f>IF(ISERROR(VLOOKUP(H449,A1:H635,3,1)),C449,VLOOKUP(H449,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H449,A1:H637,3,1)),C449,VLOOKUP(H449,A1:H637,3,1))</f>
         <v>538</v>
       </c>
       <c r="C449" s="5">
@@ -20813,12 +20828,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:8" ht="20.05" customHeight="1">
       <c r="A450" s="8" t="s">
         <v>1726</v>
       </c>
       <c r="B450" s="4">
-        <f>IF(ISERROR(VLOOKUP(H450,A1:H635,3,1)),C450,VLOOKUP(H450,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H450,A1:H637,3,1)),C450,VLOOKUP(H450,A1:H637,3,1))</f>
         <v>572</v>
       </c>
       <c r="C450" s="5">
@@ -20840,12 +20855,12 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="451" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:8" ht="20.05" customHeight="1">
       <c r="A451" s="8" t="s">
         <v>1730</v>
       </c>
       <c r="B451" s="4">
-        <f>IF(ISERROR(VLOOKUP(H451,A1:H635,3,1)),C451,VLOOKUP(H451,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H451,A1:H637,3,1)),C451,VLOOKUP(H451,A1:H637,3,1))</f>
         <v>382</v>
       </c>
       <c r="C451" s="5">
@@ -20867,12 +20882,12 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="452" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:8" ht="20.05" customHeight="1">
       <c r="A452" s="8" t="s">
         <v>1734</v>
       </c>
       <c r="B452" s="4">
-        <f>IF(ISERROR(VLOOKUP(H452,A1:H635,3,1)),C452,VLOOKUP(H452,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H452,A1:H637,3,1)),C452,VLOOKUP(H452,A1:H637,3,1))</f>
         <v>390</v>
       </c>
       <c r="C452" s="5">
@@ -20894,12 +20909,12 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="453" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:8" ht="20.05" customHeight="1">
       <c r="A453" s="8" t="s">
         <v>1738</v>
       </c>
       <c r="B453" s="4">
-        <f>IF(ISERROR(VLOOKUP(H453,A1:H635,3,1)),C453,VLOOKUP(H453,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H453,A1:H637,3,1)),C453,VLOOKUP(H453,A1:H637,3,1))</f>
         <v>413</v>
       </c>
       <c r="C453" s="5">
@@ -20921,12 +20936,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="454" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:8" ht="20.05" customHeight="1">
       <c r="A454" s="8" t="s">
         <v>1742</v>
       </c>
       <c r="B454" s="4">
-        <f>IF(ISERROR(VLOOKUP(H454,A1:H635,3,1)),C454,VLOOKUP(H454,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H454,A1:H637,3,1)),C454,VLOOKUP(H454,A1:H637,3,1))</f>
         <v>570</v>
       </c>
       <c r="C454" s="5">
@@ -20948,12 +20963,12 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="455" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:8" ht="20.05" customHeight="1">
       <c r="A455" s="8" t="s">
         <v>1746</v>
       </c>
       <c r="B455" s="4">
-        <f>IF(ISERROR(VLOOKUP(H455,A1:H635,3,1)),C455,VLOOKUP(H455,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H455,A1:H637,3,1)),C455,VLOOKUP(H455,A1:H637,3,1))</f>
         <v>570</v>
       </c>
       <c r="C455" s="5">
@@ -20975,12 +20990,12 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="456" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:8" ht="20.05" customHeight="1">
       <c r="A456" s="8" t="s">
         <v>1750</v>
       </c>
       <c r="B456" s="4">
-        <f>IF(ISERROR(VLOOKUP(H456,A1:H635,3,1)),C456,VLOOKUP(H456,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H456,A1:H637,3,1)),C456,VLOOKUP(H456,A1:H637,3,1))</f>
         <v>296</v>
       </c>
       <c r="C456" s="5">
@@ -21002,12 +21017,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="457" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:8" ht="20.05" customHeight="1">
       <c r="A457" s="8" t="s">
         <v>1754</v>
       </c>
       <c r="B457" s="4">
-        <f>IF(ISERROR(VLOOKUP(H457,A1:H635,3,1)),C457,VLOOKUP(H457,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H457,A1:H637,3,1)),C457,VLOOKUP(H457,A1:H637,3,1))</f>
         <v>573</v>
       </c>
       <c r="C457" s="5">
@@ -21029,12 +21044,12 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:8" ht="20.05" customHeight="1">
       <c r="A458" s="8" t="s">
         <v>1758</v>
       </c>
       <c r="B458" s="4">
-        <f>IF(ISERROR(VLOOKUP(H458,A1:H635,3,1)),C458,VLOOKUP(H458,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H458,A1:H637,3,1)),C458,VLOOKUP(H458,A1:H637,3,1))</f>
         <v>527</v>
       </c>
       <c r="C458" s="5">
@@ -21056,12 +21071,12 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="459" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:8" ht="20.05" customHeight="1">
       <c r="A459" s="8" t="s">
         <v>1762</v>
       </c>
       <c r="B459" s="4">
-        <f>IF(ISERROR(VLOOKUP(H459,A1:H635,3,1)),C459,VLOOKUP(H459,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H459,A1:H637,3,1)),C459,VLOOKUP(H459,A1:H637,3,1))</f>
         <v>527</v>
       </c>
       <c r="C459" s="5">
@@ -21083,12 +21098,12 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="460" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:8" ht="20.05" customHeight="1">
       <c r="A460" s="8" t="s">
         <v>1766</v>
       </c>
       <c r="B460" s="4">
-        <f>IF(ISERROR(VLOOKUP(H460,A1:H635,3,1)),C460,VLOOKUP(H460,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H460,A1:H637,3,1)),C460,VLOOKUP(H460,A1:H637,3,1))</f>
         <v>527</v>
       </c>
       <c r="C460" s="5">
@@ -21110,12 +21125,12 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="461" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:8" ht="20.05" customHeight="1">
       <c r="A461" s="8" t="s">
         <v>1770</v>
       </c>
       <c r="B461" s="4">
-        <f>IF(ISERROR(VLOOKUP(H461,A1:H635,3,1)),C461,VLOOKUP(H461,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H461,A1:H637,3,1)),C461,VLOOKUP(H461,A1:H637,3,1))</f>
         <v>578</v>
       </c>
       <c r="C461" s="5">
@@ -21137,12 +21152,12 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="462" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:8" ht="20.05" customHeight="1">
       <c r="A462" s="8" t="s">
         <v>1774</v>
       </c>
       <c r="B462" s="4">
-        <f>IF(ISERROR(VLOOKUP(H462,A1:H635,3,1)),C462,VLOOKUP(H462,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H462,A1:H637,3,1)),C462,VLOOKUP(H462,A1:H637,3,1))</f>
         <v>578</v>
       </c>
       <c r="C462" s="5">
@@ -21164,12 +21179,12 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="463" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:8" ht="20.05" customHeight="1">
       <c r="A463" s="8" t="s">
         <v>1778</v>
       </c>
       <c r="B463" s="4">
-        <f>IF(ISERROR(VLOOKUP(H463,A1:H635,3,1)),C463,VLOOKUP(H463,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H463,A1:H637,3,1)),C463,VLOOKUP(H463,A1:H637,3,1))</f>
         <v>580</v>
       </c>
       <c r="C463" s="5">
@@ -21191,12 +21206,12 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="464" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:8" ht="20.05" customHeight="1">
       <c r="A464" s="8" t="s">
         <v>1782</v>
       </c>
       <c r="B464" s="4">
-        <f>IF(ISERROR(VLOOKUP(H464,A1:H635,3,1)),C464,VLOOKUP(H464,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H464,A1:H637,3,1)),C464,VLOOKUP(H464,A1:H637,3,1))</f>
         <v>580</v>
       </c>
       <c r="C464" s="5">
@@ -21218,12 +21233,12 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="465" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:8" ht="20.05" customHeight="1">
       <c r="A465" s="8" t="s">
         <v>1786</v>
       </c>
       <c r="B465" s="4">
-        <f>IF(ISERROR(VLOOKUP(H465,A1:H635,3,1)),C465,VLOOKUP(H465,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H465,A1:H637,3,1)),C465,VLOOKUP(H465,A1:H637,3,1))</f>
         <v>582</v>
       </c>
       <c r="C465" s="5">
@@ -21245,12 +21260,12 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="466" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:8" ht="20.05" customHeight="1">
       <c r="A466" s="8" t="s">
         <v>1792</v>
       </c>
       <c r="B466" s="4">
-        <f>IF(ISERROR(VLOOKUP(H466,A1:H635,3,1)),C466,VLOOKUP(H466,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H466,A1:H637,3,1)),C466,VLOOKUP(H466,A1:H637,3,1))</f>
         <v>582</v>
       </c>
       <c r="C466" s="5">
@@ -21272,12 +21287,12 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:8" ht="20.05" customHeight="1">
       <c r="A467" s="8" t="s">
         <v>1791</v>
       </c>
       <c r="B467" s="4">
-        <f>IF(ISERROR(VLOOKUP(H467,A1:H635,3,1)),C467,VLOOKUP(H467,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H467,A1:H637,3,1)),C467,VLOOKUP(H467,A1:H637,3,1))</f>
         <v>582</v>
       </c>
       <c r="C467" s="5">
@@ -21299,12 +21314,12 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:8" ht="20.05" customHeight="1">
       <c r="A468" s="8" t="s">
         <v>1798</v>
       </c>
       <c r="B468" s="4">
-        <f>IF(ISERROR(VLOOKUP(H468,A1:H635,3,1)),C468,VLOOKUP(H468,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H468,A1:H637,3,1)),C468,VLOOKUP(H468,A1:H637,3,1))</f>
         <v>451</v>
       </c>
       <c r="C468" s="5">
@@ -21326,12 +21341,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="469" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:8" ht="20.05" customHeight="1">
       <c r="A469" s="8" t="s">
         <v>1802</v>
       </c>
       <c r="B469" s="4">
-        <f>IF(ISERROR(VLOOKUP(H469,A1:H635,3,1)),C469,VLOOKUP(H469,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H469,A1:H637,3,1)),C469,VLOOKUP(H469,A1:H637,3,1))</f>
         <v>451</v>
       </c>
       <c r="C469" s="5">
@@ -21353,12 +21368,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="470" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:8" ht="20.05" customHeight="1">
       <c r="A470" s="8" t="s">
         <v>1806</v>
       </c>
       <c r="B470" s="4">
-        <f>IF(ISERROR(VLOOKUP(H470,A1:H635,3,1)),C470,VLOOKUP(H470,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H470,A1:H637,3,1)),C470,VLOOKUP(H470,A1:H637,3,1))</f>
         <v>451</v>
       </c>
       <c r="C470" s="5">
@@ -21380,12 +21395,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="471" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:8" ht="20.05" customHeight="1">
       <c r="A471" s="8" t="s">
         <v>1810</v>
       </c>
       <c r="B471" s="4">
-        <f>IF(ISERROR(VLOOKUP(H471,A1:H635,3,1)),C471,VLOOKUP(H471,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H471,A1:H637,3,1)),C471,VLOOKUP(H471,A1:H637,3,1))</f>
         <v>451</v>
       </c>
       <c r="C471" s="5">
@@ -21407,12 +21422,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:8" ht="20.05" customHeight="1">
       <c r="A472" s="8" t="s">
         <v>1814</v>
       </c>
       <c r="B472" s="4">
-        <f>IF(ISERROR(VLOOKUP(H472,A1:H635,3,1)),C472,VLOOKUP(H472,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H472,A1:H637,3,1)),C472,VLOOKUP(H472,A1:H637,3,1))</f>
         <v>451</v>
       </c>
       <c r="C472" s="5">
@@ -21434,12 +21449,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="473" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:8" ht="20.05" customHeight="1">
       <c r="A473" s="8" t="s">
         <v>1818</v>
       </c>
       <c r="B473" s="4">
-        <f>IF(ISERROR(VLOOKUP(H473,A1:H635,3,1)),C473,VLOOKUP(H473,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H473,A1:H637,3,1)),C473,VLOOKUP(H473,A1:H637,3,1))</f>
         <v>451</v>
       </c>
       <c r="C473" s="5">
@@ -21461,12 +21476,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="474" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:8" ht="20.05" customHeight="1">
       <c r="A474" s="8" t="s">
         <v>1822</v>
       </c>
       <c r="B474" s="4">
-        <f>IF(ISERROR(VLOOKUP(H474,A1:H635,3,1)),C474,VLOOKUP(H474,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H474,A1:H637,3,1)),C474,VLOOKUP(H474,A1:H637,3,1))</f>
         <v>582</v>
       </c>
       <c r="C474" s="5">
@@ -21488,12 +21503,12 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="475" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:8" ht="20.05" customHeight="1">
       <c r="A475" s="8" t="s">
         <v>1826</v>
       </c>
       <c r="B475" s="4">
-        <f>IF(ISERROR(VLOOKUP(H475,A1:H635,3,1)),C475,VLOOKUP(H475,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H475,A1:H637,3,1)),C475,VLOOKUP(H475,A1:H637,3,1))</f>
         <v>606</v>
       </c>
       <c r="C475" s="5">
@@ -21515,12 +21530,12 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:8" ht="20.05" customHeight="1">
       <c r="A476" s="8" t="s">
         <v>1830</v>
       </c>
       <c r="B476" s="4">
-        <f>IF(ISERROR(VLOOKUP(H476,A1:H635,3,1)),C476,VLOOKUP(H476,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H476,A1:H637,3,1)),C476,VLOOKUP(H476,A1:H637,3,1))</f>
         <v>606</v>
       </c>
       <c r="C476" s="5">
@@ -21542,12 +21557,12 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="477" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:8" ht="20.05" customHeight="1">
       <c r="A477" s="8" t="s">
         <v>1834</v>
       </c>
       <c r="B477" s="4">
-        <f>IF(ISERROR(VLOOKUP(H477,A1:H635,3,1)),C477,VLOOKUP(H477,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H477,A1:H637,3,1)),C477,VLOOKUP(H477,A1:H637,3,1))</f>
         <v>1</v>
       </c>
       <c r="C477" s="5">
@@ -21569,12 +21584,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:8" ht="20.05" customHeight="1">
       <c r="A478" s="8" t="s">
         <v>1838</v>
       </c>
       <c r="B478" s="4">
-        <f>IF(ISERROR(VLOOKUP(H478,A1:H635,3,1)),C478,VLOOKUP(H478,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H478,A1:H637,3,1)),C478,VLOOKUP(H478,A1:H637,3,1))</f>
         <v>606</v>
       </c>
       <c r="C478" s="5">
@@ -21596,12 +21611,12 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="479" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:8" ht="20.05" customHeight="1">
       <c r="A479" s="8" t="s">
         <v>1842</v>
       </c>
       <c r="B479" s="4">
-        <f>IF(ISERROR(VLOOKUP(H479,A1:H635,3,1)),C479,VLOOKUP(H479,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H479,A1:H637,3,1)),C479,VLOOKUP(H479,A1:H637,3,1))</f>
         <v>606</v>
       </c>
       <c r="C479" s="5">
@@ -21623,12 +21638,12 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="480" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:8" ht="20.05" customHeight="1">
       <c r="A480" s="8" t="s">
         <v>1846</v>
       </c>
       <c r="B480" s="4">
-        <f>IF(ISERROR(VLOOKUP(H480,A1:H635,3,1)),C480,VLOOKUP(H480,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H480,A1:H637,3,1)),C480,VLOOKUP(H480,A1:H637,3,1))</f>
         <v>509</v>
       </c>
       <c r="C480" s="5">
@@ -21650,12 +21665,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="481" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:8" ht="20.05" customHeight="1">
       <c r="A481" s="8" t="s">
         <v>1849</v>
       </c>
       <c r="B481" s="4">
-        <f>IF(ISERROR(VLOOKUP(H481,A1:H635,3,1)),C481,VLOOKUP(H481,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H481,A1:H637,3,1)),C481,VLOOKUP(H481,A1:H637,3,1))</f>
         <v>485</v>
       </c>
       <c r="C481" s="5">
@@ -21677,12 +21692,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:8" ht="20.05" customHeight="1">
       <c r="A482" s="8" t="s">
         <v>1852</v>
       </c>
       <c r="B482" s="4">
-        <f>IF(ISERROR(VLOOKUP(H482,A1:H635,3,1)),C482,VLOOKUP(H482,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H482,A1:H637,3,1)),C482,VLOOKUP(H482,A1:H637,3,1))</f>
         <v>483</v>
       </c>
       <c r="C482" s="5">
@@ -21704,12 +21719,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:8" ht="20.05" customHeight="1">
       <c r="A483" s="8" t="s">
         <v>1854</v>
       </c>
       <c r="B483" s="4">
-        <f>IF(ISERROR(VLOOKUP(H483,A1:H635,3,1)),C483,VLOOKUP(H483,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H483,A1:H637,3,1)),C483,VLOOKUP(H483,A1:H637,3,1))</f>
         <v>582</v>
       </c>
       <c r="C483" s="5">
@@ -21731,12 +21746,12 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="484" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:8" ht="20.05" customHeight="1">
       <c r="A484" s="8" t="s">
         <v>1857</v>
       </c>
       <c r="B484" s="4">
-        <f>IF(ISERROR(VLOOKUP(H484,A1:H635,3,1)),C484,VLOOKUP(H484,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H484,A1:H637,3,1)),C484,VLOOKUP(H484,A1:H637,3,1))</f>
         <v>516</v>
       </c>
       <c r="C484" s="5">
@@ -21758,12 +21773,12 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="485" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:8" ht="20.05" customHeight="1">
       <c r="A485" s="8" t="s">
         <v>1860</v>
       </c>
       <c r="B485" s="4">
-        <f>IF(ISERROR(VLOOKUP(H485,A1:H635,3,1)),C485,VLOOKUP(H485,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H485,A1:H637,3,1)),C485,VLOOKUP(H485,A1:H637,3,1))</f>
         <v>582</v>
       </c>
       <c r="C485" s="5">
@@ -21785,12 +21800,12 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="486" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:8" ht="20.05" customHeight="1">
       <c r="A486" s="8" t="s">
         <v>1863</v>
       </c>
       <c r="B486" s="4">
-        <f>IF(ISERROR(VLOOKUP(H486,A1:H635,3,1)),C486,VLOOKUP(H486,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H486,A1:H637,3,1)),C486,VLOOKUP(H486,A1:H637,3,1))</f>
         <v>591</v>
       </c>
       <c r="C486" s="5">
@@ -21812,12 +21827,12 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:8" ht="20.05" customHeight="1">
       <c r="A487" s="8" t="s">
         <v>1866</v>
       </c>
       <c r="B487" s="4">
-        <f>IF(ISERROR(VLOOKUP(H487,A1:H635,3,1)),C487,VLOOKUP(H487,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H487,A1:H637,3,1)),C487,VLOOKUP(H487,A1:H637,3,1))</f>
         <v>591</v>
       </c>
       <c r="C487" s="5">
@@ -21839,12 +21854,12 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="488" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:8" ht="20.05" customHeight="1">
       <c r="A488" s="8" t="s">
         <v>1869</v>
       </c>
       <c r="B488" s="4">
-        <f>IF(ISERROR(VLOOKUP(H488,A1:H635,3,1)),C488,VLOOKUP(H488,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H488,A1:H637,3,1)),C488,VLOOKUP(H488,A1:H637,3,1))</f>
         <v>582</v>
       </c>
       <c r="C488" s="5">
@@ -21866,12 +21881,12 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="489" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:8" ht="20.05" customHeight="1">
       <c r="A489" s="8" t="s">
         <v>1872</v>
       </c>
       <c r="B489" s="4">
-        <f>IF(ISERROR(VLOOKUP(H489,A1:H635,3,1)),C489,VLOOKUP(H489,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H489,A1:H637,3,1)),C489,VLOOKUP(H489,A1:H637,3,1))</f>
         <v>461</v>
       </c>
       <c r="C489" s="5">
@@ -21891,12 +21906,12 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="490" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:8" ht="20.05" customHeight="1">
       <c r="A490" s="8" t="s">
         <v>1875</v>
       </c>
       <c r="B490" s="4">
-        <f>IF(ISERROR(VLOOKUP(H490,A1:H635,3,1)),C490,VLOOKUP(H490,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H490,A1:H637,3,1)),C490,VLOOKUP(H490,A1:H637,3,1))</f>
         <v>461</v>
       </c>
       <c r="C490" s="5">
@@ -21916,12 +21931,12 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="491" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:8" ht="20.05" customHeight="1">
       <c r="A491" s="8" t="s">
         <v>1878</v>
       </c>
       <c r="B491" s="4">
-        <f>IF(ISERROR(VLOOKUP(H491,A1:H635,3,1)),C491,VLOOKUP(H491,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H491,A1:H637,3,1)),C491,VLOOKUP(H491,A1:H637,3,1))</f>
         <v>461</v>
       </c>
       <c r="C491" s="5">
@@ -21941,12 +21956,12 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="492" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:8" ht="20.05" customHeight="1">
       <c r="A492" s="8" t="s">
         <v>1881</v>
       </c>
       <c r="B492" s="4">
-        <f>IF(ISERROR(VLOOKUP(H492,A1:H635,3,1)),C492,VLOOKUP(H492,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H492,A1:H637,3,1)),C492,VLOOKUP(H492,A1:H637,3,1))</f>
         <v>461</v>
       </c>
       <c r="C492" s="5">
@@ -21966,12 +21981,12 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:8" ht="20.05" customHeight="1">
       <c r="A493" s="8" t="s">
         <v>1884</v>
       </c>
       <c r="B493" s="4">
-        <f>IF(ISERROR(VLOOKUP(H493,A1:H635,3,1)),C493,VLOOKUP(H493,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H493,A1:H637,3,1)),C493,VLOOKUP(H493,A1:H637,3,1))</f>
         <v>582</v>
       </c>
       <c r="C493" s="5">
@@ -21991,12 +22006,12 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="494" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:8" ht="20.05" customHeight="1">
       <c r="A494" s="8" t="s">
         <v>1887</v>
       </c>
       <c r="B494" s="4">
-        <f>IF(ISERROR(VLOOKUP(H494,A1:H635,3,1)),C494,VLOOKUP(H494,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H494,A1:H637,3,1)),C494,VLOOKUP(H494,A1:H637,3,1))</f>
         <v>15</v>
       </c>
       <c r="C494" s="5">
@@ -22018,12 +22033,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="495" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:8" ht="20.05" customHeight="1">
       <c r="A495" s="8" t="s">
         <v>1891</v>
       </c>
       <c r="B495" s="4">
-        <f>IF(ISERROR(VLOOKUP(H495,A1:H635,3,1)),C495,VLOOKUP(H495,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H495,A1:H637,3,1)),C495,VLOOKUP(H495,A1:H637,3,1))</f>
         <v>22</v>
       </c>
       <c r="C495" s="5">
@@ -22045,12 +22060,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:8" ht="20.05" customHeight="1">
       <c r="A496" s="8" t="s">
         <v>1895</v>
       </c>
       <c r="B496" s="4">
-        <f>IF(ISERROR(VLOOKUP(H496,A1:H635,3,1)),C496,VLOOKUP(H496,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H496,A1:H637,3,1)),C496,VLOOKUP(H496,A1:H637,3,1))</f>
         <v>26</v>
       </c>
       <c r="C496" s="5">
@@ -22072,12 +22087,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:8" ht="20.05" customHeight="1">
       <c r="A497" s="8" t="s">
         <v>1899</v>
       </c>
       <c r="B497" s="4">
-        <f>IF(ISERROR(VLOOKUP(H497,A1:H635,3,1)),C497,VLOOKUP(H497,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H497,A1:H637,3,1)),C497,VLOOKUP(H497,A1:H637,3,1))</f>
         <v>31</v>
       </c>
       <c r="C497" s="5">
@@ -22099,12 +22114,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:8" ht="20.05" customHeight="1">
       <c r="A498" s="8" t="s">
         <v>1903</v>
       </c>
       <c r="B498" s="4">
-        <f>IF(ISERROR(VLOOKUP(H498,A1:H635,3,1)),C498,VLOOKUP(H498,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H498,A1:H637,3,1)),C498,VLOOKUP(H498,A1:H637,3,1))</f>
         <v>35</v>
       </c>
       <c r="C498" s="5">
@@ -22126,12 +22141,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:8" ht="20.05" customHeight="1">
       <c r="A499" s="8" t="s">
         <v>1907</v>
       </c>
       <c r="B499" s="4">
-        <f>IF(ISERROR(VLOOKUP(H499,A1:H635,3,1)),C499,VLOOKUP(H499,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H499,A1:H637,3,1)),C499,VLOOKUP(H499,A1:H637,3,1))</f>
         <v>39</v>
       </c>
       <c r="C499" s="5">
@@ -22153,12 +22168,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:8" ht="20.05" customHeight="1">
       <c r="A500" s="8" t="s">
         <v>1911</v>
       </c>
       <c r="B500" s="4">
-        <f>IF(ISERROR(VLOOKUP(H500,A1:H635,3,1)),C500,VLOOKUP(H500,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H500,A1:H637,3,1)),C500,VLOOKUP(H500,A1:H637,3,1))</f>
         <v>43</v>
       </c>
       <c r="C500" s="5">
@@ -22180,12 +22195,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:8" ht="20.05" customHeight="1">
       <c r="A501" s="8" t="s">
         <v>1915</v>
       </c>
       <c r="B501" s="4">
-        <f>IF(ISERROR(VLOOKUP(H501,A1:H635,3,1)),C501,VLOOKUP(H501,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H501,A1:H637,3,1)),C501,VLOOKUP(H501,A1:H637,3,1))</f>
         <v>47</v>
       </c>
       <c r="C501" s="5">
@@ -22207,12 +22222,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:8" ht="20.05" customHeight="1">
       <c r="A502" s="8" t="s">
         <v>1919</v>
       </c>
       <c r="B502" s="4">
-        <f>IF(ISERROR(VLOOKUP(H502,A1:H635,3,1)),C502,VLOOKUP(H502,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H502,A1:H637,3,1)),C502,VLOOKUP(H502,A1:H637,3,1))</f>
         <v>51</v>
       </c>
       <c r="C502" s="5">
@@ -22234,12 +22249,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:8" ht="20.05" customHeight="1">
       <c r="A503" s="8" t="s">
         <v>1923</v>
       </c>
       <c r="B503" s="4">
-        <f>IF(ISERROR(VLOOKUP(H503,A1:H635,3,1)),C503,VLOOKUP(H503,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H503,A1:H637,3,1)),C503,VLOOKUP(H503,A1:H637,3,1))</f>
         <v>55</v>
       </c>
       <c r="C503" s="5">
@@ -22261,12 +22276,12 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:8" ht="20.05" customHeight="1">
       <c r="A504" s="8" t="s">
         <v>1929</v>
       </c>
       <c r="B504" s="4">
-        <f>IF(ISERROR(VLOOKUP(H504,A1:H635,3,1)),C504,VLOOKUP(H504,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H504,A1:H637,3,1)),C504,VLOOKUP(H504,A1:H637,3,1))</f>
         <v>57</v>
       </c>
       <c r="C504" s="5">
@@ -22288,12 +22303,12 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="505" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:8" ht="20.05" customHeight="1">
       <c r="A505" s="8" t="s">
         <v>1933</v>
       </c>
       <c r="B505" s="4">
-        <f>IF(ISERROR(VLOOKUP(H505,A1:H635,3,1)),C505,VLOOKUP(H505,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H505,A1:H637,3,1)),C505,VLOOKUP(H505,A1:H637,3,1))</f>
         <v>58</v>
       </c>
       <c r="C505" s="5">
@@ -22315,12 +22330,12 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:8" ht="20.05" customHeight="1">
       <c r="A506" s="8" t="s">
         <v>1937</v>
       </c>
       <c r="B506" s="4">
-        <f>IF(ISERROR(VLOOKUP(H506,A1:H635,3,1)),C506,VLOOKUP(H506,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H506,A1:H637,3,1)),C506,VLOOKUP(H506,A1:H637,3,1))</f>
         <v>59</v>
       </c>
       <c r="C506" s="5">
@@ -22342,12 +22357,12 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="507" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:8" ht="20.05" customHeight="1">
       <c r="A507" s="8" t="s">
         <v>1941</v>
       </c>
       <c r="B507" s="4">
-        <f>IF(ISERROR(VLOOKUP(H507,A1:H635,3,1)),C507,VLOOKUP(H507,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H507,A1:H637,3,1)),C507,VLOOKUP(H507,A1:H637,3,1))</f>
         <v>60</v>
       </c>
       <c r="C507" s="5">
@@ -22369,12 +22384,12 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="508" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:8" ht="20.05" customHeight="1">
       <c r="A508" s="8" t="s">
         <v>1945</v>
       </c>
       <c r="B508" s="4">
-        <f>IF(ISERROR(VLOOKUP(H508,A1:H635,3,1)),C508,VLOOKUP(H508,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H508,A1:H637,3,1)),C508,VLOOKUP(H508,A1:H637,3,1))</f>
         <v>61</v>
       </c>
       <c r="C508" s="5">
@@ -22396,12 +22411,12 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:8" ht="20.05" customHeight="1">
       <c r="A509" s="8" t="s">
         <v>1949</v>
       </c>
       <c r="B509" s="4">
-        <f>IF(ISERROR(VLOOKUP(H509,A1:H635,3,1)),C509,VLOOKUP(H509,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H509,A1:H637,3,1)),C509,VLOOKUP(H509,A1:H637,3,1))</f>
         <v>62</v>
       </c>
       <c r="C509" s="5">
@@ -22423,12 +22438,12 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="510" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:8" ht="20.05" customHeight="1">
       <c r="A510" s="8" t="s">
         <v>1928</v>
       </c>
       <c r="B510" s="4">
-        <f>IF(ISERROR(VLOOKUP(H510,A1:H635,3,1)),C510,VLOOKUP(H510,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H510,A1:H637,3,1)),C510,VLOOKUP(H510,A1:H637,3,1))</f>
         <v>55</v>
       </c>
       <c r="C510" s="5">
@@ -22450,12 +22465,12 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="511" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:8" ht="20.05" customHeight="1">
       <c r="A511" s="8" t="s">
         <v>1955</v>
       </c>
       <c r="B511" s="4">
-        <f>IF(ISERROR(VLOOKUP(H511,A1:H635,3,1)),C511,VLOOKUP(H511,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H511,A1:H637,3,1)),C511,VLOOKUP(H511,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C511" s="5">
@@ -22477,12 +22492,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="512" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:8" ht="20.05" customHeight="1">
       <c r="A512" s="8" t="s">
         <v>1959</v>
       </c>
       <c r="B512" s="4">
-        <f>IF(ISERROR(VLOOKUP(H512,A1:H635,3,1)),C512,VLOOKUP(H512,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H512,A1:H637,3,1)),C512,VLOOKUP(H512,A1:H637,3,1))</f>
         <v>89</v>
       </c>
       <c r="C512" s="5">
@@ -22504,12 +22519,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="513" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:8" ht="20.05" customHeight="1">
       <c r="A513" s="8" t="s">
         <v>1963</v>
       </c>
       <c r="B513" s="4">
-        <f>IF(ISERROR(VLOOKUP(H513,A1:H635,3,1)),C513,VLOOKUP(H513,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H513,A1:H637,3,1)),C513,VLOOKUP(H513,A1:H637,3,1))</f>
         <v>95</v>
       </c>
       <c r="C513" s="5">
@@ -22531,12 +22546,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="514" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:8" ht="20.05" customHeight="1">
       <c r="A514" s="8" t="s">
         <v>1967</v>
       </c>
       <c r="B514" s="4">
-        <f>IF(ISERROR(VLOOKUP(H514,A1:H635,3,1)),C514,VLOOKUP(H514,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H514,A1:H637,3,1)),C514,VLOOKUP(H514,A1:H637,3,1))</f>
         <v>109</v>
       </c>
       <c r="C514" s="5">
@@ -22558,12 +22573,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="515" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:8" ht="20.05" customHeight="1">
       <c r="A515" s="8" t="s">
         <v>1971</v>
       </c>
       <c r="B515" s="4">
-        <f>IF(ISERROR(VLOOKUP(H515,A1:H635,3,1)),C515,VLOOKUP(H515,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H515,A1:H637,3,1)),C515,VLOOKUP(H515,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C515" s="5">
@@ -22585,12 +22600,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="516" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:8" ht="20.05" customHeight="1">
       <c r="A516" s="8" t="s">
         <v>1975</v>
       </c>
       <c r="B516" s="4">
-        <f>IF(ISERROR(VLOOKUP(H516,A1:H635,3,1)),C516,VLOOKUP(H516,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H516,A1:H637,3,1)),C516,VLOOKUP(H516,A1:H637,3,1))</f>
         <v>146</v>
       </c>
       <c r="C516" s="5">
@@ -22612,12 +22627,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="517" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:8" ht="20.05" customHeight="1">
       <c r="A517" s="8" t="s">
         <v>1979</v>
       </c>
       <c r="B517" s="4">
-        <f>IF(ISERROR(VLOOKUP(H517,A1:H635,3,1)),C517,VLOOKUP(H517,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H517,A1:H637,3,1)),C517,VLOOKUP(H517,A1:H637,3,1))</f>
         <v>152</v>
       </c>
       <c r="C517" s="5">
@@ -22639,12 +22654,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="518" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:8" ht="20.05" customHeight="1">
       <c r="A518" s="8" t="s">
         <v>1983</v>
       </c>
       <c r="B518" s="4">
-        <f>IF(ISERROR(VLOOKUP(H518,A1:H635,3,1)),C518,VLOOKUP(H518,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H518,A1:H637,3,1)),C518,VLOOKUP(H518,A1:H637,3,1))</f>
         <v>160</v>
       </c>
       <c r="C518" s="5">
@@ -22666,12 +22681,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="519" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:8" ht="20.05" customHeight="1">
       <c r="A519" s="8" t="s">
         <v>1987</v>
       </c>
       <c r="B519" s="4">
-        <f>IF(ISERROR(VLOOKUP(H519,A1:H635,3,1)),C519,VLOOKUP(H519,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H519,A1:H637,3,1)),C519,VLOOKUP(H519,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C519" s="5">
@@ -22693,12 +22708,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="520" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:8" ht="20.05" customHeight="1">
       <c r="A520" s="8" t="s">
         <v>1991</v>
       </c>
       <c r="B520" s="4">
-        <f>IF(ISERROR(VLOOKUP(H520,A1:H635,3,1)),C520,VLOOKUP(H520,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H520,A1:H637,3,1)),C520,VLOOKUP(H520,A1:H637,3,1))</f>
         <v>191</v>
       </c>
       <c r="C520" s="5">
@@ -22720,12 +22735,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="521" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:8" ht="20.05" customHeight="1">
       <c r="A521" s="8" t="s">
         <v>1995</v>
       </c>
       <c r="B521" s="4">
-        <f>IF(ISERROR(VLOOKUP(H521,A1:H635,3,1)),C521,VLOOKUP(H521,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H521,A1:H637,3,1)),C521,VLOOKUP(H521,A1:H637,3,1))</f>
         <v>197</v>
       </c>
       <c r="C521" s="5">
@@ -22747,12 +22762,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="522" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:8" ht="20.05" customHeight="1">
       <c r="A522" s="8" t="s">
         <v>1999</v>
       </c>
       <c r="B522" s="4">
-        <f>IF(ISERROR(VLOOKUP(H522,A1:H635,3,1)),C522,VLOOKUP(H522,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H522,A1:H637,3,1)),C522,VLOOKUP(H522,A1:H637,3,1))</f>
         <v>203</v>
       </c>
       <c r="C522" s="5">
@@ -22774,12 +22789,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="523" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:8" ht="20.05" customHeight="1">
       <c r="A523" s="8" t="s">
         <v>2003</v>
       </c>
       <c r="B523" s="4">
-        <f>IF(ISERROR(VLOOKUP(H523,A1:H635,3,1)),C523,VLOOKUP(H523,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H523,A1:H637,3,1)),C523,VLOOKUP(H523,A1:H637,3,1))</f>
         <v>215</v>
       </c>
       <c r="C523" s="5">
@@ -22801,12 +22816,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="524" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:8" ht="20.05" customHeight="1">
       <c r="A524" s="8" t="s">
         <v>2007</v>
       </c>
       <c r="B524" s="4">
-        <f>IF(ISERROR(VLOOKUP(H524,A1:H635,3,1)),C524,VLOOKUP(H524,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H524,A1:H637,3,1)),C524,VLOOKUP(H524,A1:H637,3,1))</f>
         <v>221</v>
       </c>
       <c r="C524" s="5">
@@ -22828,12 +22843,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="525" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:8" ht="20.05" customHeight="1">
       <c r="A525" s="8" t="s">
         <v>2011</v>
       </c>
       <c r="B525" s="4">
-        <f>IF(ISERROR(VLOOKUP(H525,A1:H635,3,1)),C525,VLOOKUP(H525,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H525,A1:H637,3,1)),C525,VLOOKUP(H525,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C525" s="5">
@@ -22855,12 +22870,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="526" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:8" ht="20.05" customHeight="1">
       <c r="A526" s="8" t="s">
         <v>2015</v>
       </c>
       <c r="B526" s="4">
-        <f>IF(ISERROR(VLOOKUP(H526,A1:H635,3,1)),C526,VLOOKUP(H526,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H526,A1:H637,3,1)),C526,VLOOKUP(H526,A1:H637,3,1))</f>
         <v>259</v>
       </c>
       <c r="C526" s="5">
@@ -22882,12 +22897,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="527" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:8" ht="20.05" customHeight="1">
       <c r="A527" s="8" t="s">
         <v>2019</v>
       </c>
       <c r="B527" s="4">
-        <f>IF(ISERROR(VLOOKUP(H527,A1:H635,3,1)),C527,VLOOKUP(H527,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H527,A1:H637,3,1)),C527,VLOOKUP(H527,A1:H637,3,1))</f>
         <v>265</v>
       </c>
       <c r="C527" s="5">
@@ -22909,12 +22924,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="528" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:8" ht="20.05" customHeight="1">
       <c r="A528" s="8" t="s">
         <v>2023</v>
       </c>
       <c r="B528" s="4">
-        <f>IF(ISERROR(VLOOKUP(H528,A1:H635,3,1)),C528,VLOOKUP(H528,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H528,A1:H637,3,1)),C528,VLOOKUP(H528,A1:H637,3,1))</f>
         <v>272</v>
       </c>
       <c r="C528" s="5">
@@ -22936,12 +22951,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="529" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:8" ht="20.05" customHeight="1">
       <c r="A529" s="8" t="s">
         <v>2027</v>
       </c>
       <c r="B529" s="4">
-        <f>IF(ISERROR(VLOOKUP(H529,A1:H635,3,1)),C529,VLOOKUP(H529,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H529,A1:H637,3,1)),C529,VLOOKUP(H529,A1:H637,3,1))</f>
         <v>283</v>
       </c>
       <c r="C529" s="5">
@@ -22963,12 +22978,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="530" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:8" ht="20.05" customHeight="1">
       <c r="A530" s="8" t="s">
         <v>2031</v>
       </c>
       <c r="B530" s="4">
-        <f>IF(ISERROR(VLOOKUP(H530,A1:H635,3,1)),C530,VLOOKUP(H530,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H530,A1:H637,3,1)),C530,VLOOKUP(H530,A1:H637,3,1))</f>
         <v>296</v>
       </c>
       <c r="C530" s="5">
@@ -22990,12 +23005,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="531" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:8" ht="20.05" customHeight="1">
       <c r="A531" s="8" t="s">
         <v>2035</v>
       </c>
       <c r="B531" s="4">
-        <f>IF(ISERROR(VLOOKUP(H531,A1:H635,3,1)),C531,VLOOKUP(H531,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H531,A1:H637,3,1)),C531,VLOOKUP(H531,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C531" s="5">
@@ -23017,12 +23032,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="532" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:8" ht="20.05" customHeight="1">
       <c r="A532" s="8" t="s">
         <v>2039</v>
       </c>
       <c r="B532" s="4">
-        <f>IF(ISERROR(VLOOKUP(H532,A1:H635,3,1)),C532,VLOOKUP(H532,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H532,A1:H637,3,1)),C532,VLOOKUP(H532,A1:H637,3,1))</f>
         <v>331</v>
       </c>
       <c r="C532" s="5">
@@ -23044,12 +23059,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="533" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:8" ht="20.05" customHeight="1">
       <c r="A533" s="8" t="s">
         <v>2043</v>
       </c>
       <c r="B533" s="4">
-        <f>IF(ISERROR(VLOOKUP(H533,A1:H635,3,1)),C533,VLOOKUP(H533,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H533,A1:H637,3,1)),C533,VLOOKUP(H533,A1:H637,3,1))</f>
         <v>337</v>
       </c>
       <c r="C533" s="5">
@@ -23071,12 +23086,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="534" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:8" ht="20.05" customHeight="1">
       <c r="A534" s="8" t="s">
         <v>2047</v>
       </c>
       <c r="B534" s="4">
-        <f>IF(ISERROR(VLOOKUP(H534,A1:H635,3,1)),C534,VLOOKUP(H534,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H534,A1:H637,3,1)),C534,VLOOKUP(H534,A1:H637,3,1))</f>
         <v>345</v>
       </c>
       <c r="C534" s="5">
@@ -23098,12 +23113,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="535" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:8" ht="20.05" customHeight="1">
       <c r="A535" s="8" t="s">
         <v>2051</v>
       </c>
       <c r="B535" s="4">
-        <f>IF(ISERROR(VLOOKUP(H535,A1:H635,3,1)),C535,VLOOKUP(H535,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H535,A1:H637,3,1)),C535,VLOOKUP(H535,A1:H637,3,1))</f>
         <v>355</v>
       </c>
       <c r="C535" s="5">
@@ -23125,12 +23140,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="536" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:8" ht="20.05" customHeight="1">
       <c r="A536" s="8" t="s">
         <v>2055</v>
       </c>
       <c r="B536" s="4">
-        <f>IF(ISERROR(VLOOKUP(H536,A1:H635,3,1)),C536,VLOOKUP(H536,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H536,A1:H637,3,1)),C536,VLOOKUP(H536,A1:H637,3,1))</f>
         <v>369</v>
       </c>
       <c r="C536" s="5">
@@ -23152,12 +23167,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="537" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:8" ht="20.05" customHeight="1">
       <c r="A537" s="8" t="s">
         <v>2059</v>
       </c>
       <c r="B537" s="4">
-        <f>IF(ISERROR(VLOOKUP(H537,A1:H635,3,1)),C537,VLOOKUP(H537,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H537,A1:H637,3,1)),C537,VLOOKUP(H537,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C537" s="5">
@@ -23179,12 +23194,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="538" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:8" ht="20.05" customHeight="1">
       <c r="A538" s="8" t="s">
         <v>2063</v>
       </c>
       <c r="B538" s="4">
-        <f>IF(ISERROR(VLOOKUP(H538,A1:H635,3,1)),C538,VLOOKUP(H538,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H538,A1:H637,3,1)),C538,VLOOKUP(H538,A1:H637,3,1))</f>
         <v>89</v>
       </c>
       <c r="C538" s="5">
@@ -23206,12 +23221,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="539" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:8" ht="20.05" customHeight="1">
       <c r="A539" s="8" t="s">
         <v>2067</v>
       </c>
       <c r="B539" s="4">
-        <f>IF(ISERROR(VLOOKUP(H539,A1:H635,3,1)),C539,VLOOKUP(H539,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H539,A1:H637,3,1)),C539,VLOOKUP(H539,A1:H637,3,1))</f>
         <v>95</v>
       </c>
       <c r="C539" s="5">
@@ -23233,12 +23248,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="540" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:8" ht="20.05" customHeight="1">
       <c r="A540" s="8" t="s">
         <v>2071</v>
       </c>
       <c r="B540" s="4">
-        <f>IF(ISERROR(VLOOKUP(H540,A1:H635,3,1)),C540,VLOOKUP(H540,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H540,A1:H637,3,1)),C540,VLOOKUP(H540,A1:H637,3,1))</f>
         <v>109</v>
       </c>
       <c r="C540" s="5">
@@ -23260,12 +23275,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="541" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:8" ht="20.05" customHeight="1">
       <c r="A541" s="8" t="s">
         <v>2075</v>
       </c>
       <c r="B541" s="4">
-        <f>IF(ISERROR(VLOOKUP(H541,A1:H635,3,1)),C541,VLOOKUP(H541,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H541,A1:H637,3,1)),C541,VLOOKUP(H541,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C541" s="5">
@@ -23287,12 +23302,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="542" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:8" ht="20.05" customHeight="1">
       <c r="A542" s="8" t="s">
         <v>2079</v>
       </c>
       <c r="B542" s="4">
-        <f>IF(ISERROR(VLOOKUP(H542,A1:H635,3,1)),C542,VLOOKUP(H542,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H542,A1:H637,3,1)),C542,VLOOKUP(H542,A1:H637,3,1))</f>
         <v>146</v>
       </c>
       <c r="C542" s="5">
@@ -23314,12 +23329,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="543" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:8" ht="20.05" customHeight="1">
       <c r="A543" s="8" t="s">
         <v>2083</v>
       </c>
       <c r="B543" s="4">
-        <f>IF(ISERROR(VLOOKUP(H543,A1:H635,3,1)),C543,VLOOKUP(H543,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H543,A1:H637,3,1)),C543,VLOOKUP(H543,A1:H637,3,1))</f>
         <v>152</v>
       </c>
       <c r="C543" s="5">
@@ -23341,12 +23356,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="544" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:8" ht="20.05" customHeight="1">
       <c r="A544" s="8" t="s">
         <v>2087</v>
       </c>
       <c r="B544" s="4">
-        <f>IF(ISERROR(VLOOKUP(H544,A1:H635,3,1)),C544,VLOOKUP(H544,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H544,A1:H637,3,1)),C544,VLOOKUP(H544,A1:H637,3,1))</f>
         <v>160</v>
       </c>
       <c r="C544" s="5">
@@ -23368,12 +23383,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="545" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:8" ht="20.05" customHeight="1">
       <c r="A545" s="8" t="s">
         <v>2091</v>
       </c>
       <c r="B545" s="4">
-        <f>IF(ISERROR(VLOOKUP(H545,A1:H635,3,1)),C545,VLOOKUP(H545,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H545,A1:H637,3,1)),C545,VLOOKUP(H545,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C545" s="5">
@@ -23395,12 +23410,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="546" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:8" ht="20.05" customHeight="1">
       <c r="A546" s="8" t="s">
         <v>2095</v>
       </c>
       <c r="B546" s="4">
-        <f>IF(ISERROR(VLOOKUP(H546,A1:H635,3,1)),C546,VLOOKUP(H546,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H546,A1:H637,3,1)),C546,VLOOKUP(H546,A1:H637,3,1))</f>
         <v>191</v>
       </c>
       <c r="C546" s="5">
@@ -23422,12 +23437,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="547" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:8" ht="20.05" customHeight="1">
       <c r="A547" s="8" t="s">
         <v>2099</v>
       </c>
       <c r="B547" s="4">
-        <f>IF(ISERROR(VLOOKUP(H547,A1:H635,3,1)),C547,VLOOKUP(H547,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H547,A1:H637,3,1)),C547,VLOOKUP(H547,A1:H637,3,1))</f>
         <v>197</v>
       </c>
       <c r="C547" s="5">
@@ -23449,12 +23464,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:8" ht="20.05" customHeight="1">
       <c r="A548" s="8" t="s">
         <v>2103</v>
       </c>
       <c r="B548" s="4">
-        <f>IF(ISERROR(VLOOKUP(H548,A1:H635,3,1)),C548,VLOOKUP(H548,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H548,A1:H637,3,1)),C548,VLOOKUP(H548,A1:H637,3,1))</f>
         <v>203</v>
       </c>
       <c r="C548" s="5">
@@ -23476,12 +23491,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:8" ht="20.05" customHeight="1">
       <c r="A549" s="8" t="s">
         <v>2107</v>
       </c>
       <c r="B549" s="4">
-        <f>IF(ISERROR(VLOOKUP(H549,A1:H635,3,1)),C549,VLOOKUP(H549,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H549,A1:H637,3,1)),C549,VLOOKUP(H549,A1:H637,3,1))</f>
         <v>215</v>
       </c>
       <c r="C549" s="5">
@@ -23503,12 +23518,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:8" ht="20.05" customHeight="1">
       <c r="A550" s="8" t="s">
         <v>2111</v>
       </c>
       <c r="B550" s="4">
-        <f>IF(ISERROR(VLOOKUP(H550,A1:H635,3,1)),C550,VLOOKUP(H550,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H550,A1:H637,3,1)),C550,VLOOKUP(H550,A1:H637,3,1))</f>
         <v>221</v>
       </c>
       <c r="C550" s="5">
@@ -23530,12 +23545,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:8" ht="20.05" customHeight="1">
       <c r="A551" s="8" t="s">
         <v>2115</v>
       </c>
       <c r="B551" s="4">
-        <f>IF(ISERROR(VLOOKUP(H551,A1:H635,3,1)),C551,VLOOKUP(H551,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H551,A1:H637,3,1)),C551,VLOOKUP(H551,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C551" s="5">
@@ -23557,12 +23572,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="552" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:8" ht="20.05" customHeight="1">
       <c r="A552" s="8" t="s">
         <v>2119</v>
       </c>
       <c r="B552" s="4">
-        <f>IF(ISERROR(VLOOKUP(H552,A1:H635,3,1)),C552,VLOOKUP(H552,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H552,A1:H637,3,1)),C552,VLOOKUP(H552,A1:H637,3,1))</f>
         <v>259</v>
       </c>
       <c r="C552" s="5">
@@ -23584,12 +23599,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="553" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:8" ht="20.05" customHeight="1">
       <c r="A553" s="8" t="s">
         <v>2123</v>
       </c>
       <c r="B553" s="4">
-        <f>IF(ISERROR(VLOOKUP(H553,A1:H635,3,1)),C553,VLOOKUP(H553,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H553,A1:H637,3,1)),C553,VLOOKUP(H553,A1:H637,3,1))</f>
         <v>265</v>
       </c>
       <c r="C553" s="5">
@@ -23611,12 +23626,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="554" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:8" ht="20.05" customHeight="1">
       <c r="A554" s="8" t="s">
         <v>2127</v>
       </c>
       <c r="B554" s="4">
-        <f>IF(ISERROR(VLOOKUP(H554,A1:H635,3,1)),C554,VLOOKUP(H554,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H554,A1:H637,3,1)),C554,VLOOKUP(H554,A1:H637,3,1))</f>
         <v>272</v>
       </c>
       <c r="C554" s="5">
@@ -23638,12 +23653,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:8" ht="20.05" customHeight="1">
       <c r="A555" s="8" t="s">
         <v>2131</v>
       </c>
       <c r="B555" s="4">
-        <f>IF(ISERROR(VLOOKUP(H555,A1:H635,3,1)),C555,VLOOKUP(H555,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H555,A1:H637,3,1)),C555,VLOOKUP(H555,A1:H637,3,1))</f>
         <v>283</v>
       </c>
       <c r="C555" s="5">
@@ -23665,12 +23680,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:8" ht="20.05" customHeight="1">
       <c r="A556" s="8" t="s">
         <v>2135</v>
       </c>
       <c r="B556" s="4">
-        <f>IF(ISERROR(VLOOKUP(H556,A1:H635,3,1)),C556,VLOOKUP(H556,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H556,A1:H637,3,1)),C556,VLOOKUP(H556,A1:H637,3,1))</f>
         <v>296</v>
       </c>
       <c r="C556" s="5">
@@ -23692,12 +23707,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:8" ht="20.05" customHeight="1">
       <c r="A557" s="8" t="s">
         <v>2139</v>
       </c>
       <c r="B557" s="4">
-        <f>IF(ISERROR(VLOOKUP(H557,A1:H635,3,1)),C557,VLOOKUP(H557,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H557,A1:H637,3,1)),C557,VLOOKUP(H557,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C557" s="5">
@@ -23719,12 +23734,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:8" ht="20.05" customHeight="1">
       <c r="A558" s="8" t="s">
         <v>2143</v>
       </c>
       <c r="B558" s="4">
-        <f>IF(ISERROR(VLOOKUP(H558,A1:H635,3,1)),C558,VLOOKUP(H558,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H558,A1:H637,3,1)),C558,VLOOKUP(H558,A1:H637,3,1))</f>
         <v>331</v>
       </c>
       <c r="C558" s="5">
@@ -23746,12 +23761,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="559" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:8" ht="20.05" customHeight="1">
       <c r="A559" s="8" t="s">
         <v>2147</v>
       </c>
       <c r="B559" s="4">
-        <f>IF(ISERROR(VLOOKUP(H559,A1:H635,3,1)),C559,VLOOKUP(H559,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H559,A1:H637,3,1)),C559,VLOOKUP(H559,A1:H637,3,1))</f>
         <v>337</v>
       </c>
       <c r="C559" s="5">
@@ -23773,12 +23788,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="560" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:8" ht="20.05" customHeight="1">
       <c r="A560" s="8" t="s">
         <v>2151</v>
       </c>
       <c r="B560" s="4">
-        <f>IF(ISERROR(VLOOKUP(H560,A1:H635,3,1)),C560,VLOOKUP(H560,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H560,A1:H637,3,1)),C560,VLOOKUP(H560,A1:H637,3,1))</f>
         <v>345</v>
       </c>
       <c r="C560" s="5">
@@ -23800,12 +23815,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="561" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:8" ht="20.05" customHeight="1">
       <c r="A561" s="8" t="s">
         <v>2155</v>
       </c>
       <c r="B561" s="4">
-        <f>IF(ISERROR(VLOOKUP(H561,A1:H635,3,1)),C561,VLOOKUP(H561,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H561,A1:H637,3,1)),C561,VLOOKUP(H561,A1:H637,3,1))</f>
         <v>355</v>
       </c>
       <c r="C561" s="5">
@@ -23827,12 +23842,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="562" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:8" ht="20.05" customHeight="1">
       <c r="A562" s="8" t="s">
         <v>2159</v>
       </c>
       <c r="B562" s="4">
-        <f>IF(ISERROR(VLOOKUP(H562,A1:H635,3,1)),C562,VLOOKUP(H562,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H562,A1:H637,3,1)),C562,VLOOKUP(H562,A1:H637,3,1))</f>
         <v>369</v>
       </c>
       <c r="C562" s="5">
@@ -23854,12 +23869,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="563" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:8" ht="20.05" customHeight="1">
       <c r="A563" s="8" t="s">
         <v>2163</v>
       </c>
       <c r="B563" s="4">
-        <f>IF(ISERROR(VLOOKUP(H563,A1:H635,3,1)),C563,VLOOKUP(H563,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H563,A1:H637,3,1)),C563,VLOOKUP(H563,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C563" s="5">
@@ -23881,12 +23896,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="564" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:8" ht="20.05" customHeight="1">
       <c r="A564" s="8" t="s">
         <v>2167</v>
       </c>
       <c r="B564" s="4">
-        <f>IF(ISERROR(VLOOKUP(H564,A1:H635,3,1)),C564,VLOOKUP(H564,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H564,A1:H637,3,1)),C564,VLOOKUP(H564,A1:H637,3,1))</f>
         <v>89</v>
       </c>
       <c r="C564" s="5">
@@ -23908,12 +23923,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:8" ht="20.05" customHeight="1">
       <c r="A565" s="8" t="s">
         <v>2171</v>
       </c>
       <c r="B565" s="4">
-        <f>IF(ISERROR(VLOOKUP(H565,A1:H635,3,1)),C565,VLOOKUP(H565,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H565,A1:H637,3,1)),C565,VLOOKUP(H565,A1:H637,3,1))</f>
         <v>95</v>
       </c>
       <c r="C565" s="5">
@@ -23935,12 +23950,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="566" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:8" ht="20.05" customHeight="1">
       <c r="A566" s="8" t="s">
         <v>2175</v>
       </c>
       <c r="B566" s="4">
-        <f>IF(ISERROR(VLOOKUP(H566,A1:H635,3,1)),C566,VLOOKUP(H566,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H566,A1:H637,3,1)),C566,VLOOKUP(H566,A1:H637,3,1))</f>
         <v>109</v>
       </c>
       <c r="C566" s="5">
@@ -23962,12 +23977,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="567" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:8" ht="20.05" customHeight="1">
       <c r="A567" s="8" t="s">
         <v>2179</v>
       </c>
       <c r="B567" s="4">
-        <f>IF(ISERROR(VLOOKUP(H567,A1:H635,3,1)),C567,VLOOKUP(H567,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H567,A1:H637,3,1)),C567,VLOOKUP(H567,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C567" s="5">
@@ -23989,12 +24004,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="568" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:8" ht="20.05" customHeight="1">
       <c r="A568" s="8" t="s">
         <v>2183</v>
       </c>
       <c r="B568" s="4">
-        <f>IF(ISERROR(VLOOKUP(H568,A1:H635,3,1)),C568,VLOOKUP(H568,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H568,A1:H637,3,1)),C568,VLOOKUP(H568,A1:H637,3,1))</f>
         <v>146</v>
       </c>
       <c r="C568" s="5">
@@ -24016,12 +24031,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="569" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:8" ht="20.05" customHeight="1">
       <c r="A569" s="8" t="s">
         <v>2187</v>
       </c>
       <c r="B569" s="4">
-        <f>IF(ISERROR(VLOOKUP(H569,A1:H635,3,1)),C569,VLOOKUP(H569,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H569,A1:H637,3,1)),C569,VLOOKUP(H569,A1:H637,3,1))</f>
         <v>152</v>
       </c>
       <c r="C569" s="5">
@@ -24043,12 +24058,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="570" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:8" ht="20.05" customHeight="1">
       <c r="A570" s="8" t="s">
         <v>2191</v>
       </c>
       <c r="B570" s="4">
-        <f>IF(ISERROR(VLOOKUP(H570,A1:H635,3,1)),C570,VLOOKUP(H570,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H570,A1:H637,3,1)),C570,VLOOKUP(H570,A1:H637,3,1))</f>
         <v>160</v>
       </c>
       <c r="C570" s="5">
@@ -24070,12 +24085,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="571" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:8" ht="20.05" customHeight="1">
       <c r="A571" s="8" t="s">
         <v>2195</v>
       </c>
       <c r="B571" s="4">
-        <f>IF(ISERROR(VLOOKUP(H571,A1:H635,3,1)),C571,VLOOKUP(H571,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H571,A1:H637,3,1)),C571,VLOOKUP(H571,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C571" s="5">
@@ -24097,12 +24112,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="572" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:8" ht="20.05" customHeight="1">
       <c r="A572" s="8" t="s">
         <v>2199</v>
       </c>
       <c r="B572" s="4">
-        <f>IF(ISERROR(VLOOKUP(H572,A1:H635,3,1)),C572,VLOOKUP(H572,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H572,A1:H637,3,1)),C572,VLOOKUP(H572,A1:H637,3,1))</f>
         <v>191</v>
       </c>
       <c r="C572" s="5">
@@ -24124,12 +24139,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="573" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:8" ht="20.05" customHeight="1">
       <c r="A573" s="8" t="s">
         <v>2203</v>
       </c>
       <c r="B573" s="4">
-        <f>IF(ISERROR(VLOOKUP(H573,A1:H635,3,1)),C573,VLOOKUP(H573,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H573,A1:H637,3,1)),C573,VLOOKUP(H573,A1:H637,3,1))</f>
         <v>197</v>
       </c>
       <c r="C573" s="5">
@@ -24151,12 +24166,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="574" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:8" ht="20.05" customHeight="1">
       <c r="A574" s="8" t="s">
         <v>2207</v>
       </c>
       <c r="B574" s="4">
-        <f>IF(ISERROR(VLOOKUP(H574,A1:H635,3,1)),C574,VLOOKUP(H574,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H574,A1:H637,3,1)),C574,VLOOKUP(H574,A1:H637,3,1))</f>
         <v>203</v>
       </c>
       <c r="C574" s="5">
@@ -24178,12 +24193,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="575" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:8" ht="20.05" customHeight="1">
       <c r="A575" s="8" t="s">
         <v>2211</v>
       </c>
       <c r="B575" s="4">
-        <f>IF(ISERROR(VLOOKUP(H575,A1:H635,3,1)),C575,VLOOKUP(H575,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H575,A1:H637,3,1)),C575,VLOOKUP(H575,A1:H637,3,1))</f>
         <v>215</v>
       </c>
       <c r="C575" s="5">
@@ -24205,12 +24220,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="576" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:8" ht="20.05" customHeight="1">
       <c r="A576" s="8" t="s">
         <v>2215</v>
       </c>
       <c r="B576" s="4">
-        <f>IF(ISERROR(VLOOKUP(H576,A1:H635,3,1)),C576,VLOOKUP(H576,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H576,A1:H637,3,1)),C576,VLOOKUP(H576,A1:H637,3,1))</f>
         <v>221</v>
       </c>
       <c r="C576" s="5">
@@ -24232,12 +24247,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="577" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:8" ht="20.05" customHeight="1">
       <c r="A577" s="8" t="s">
         <v>2219</v>
       </c>
       <c r="B577" s="4">
-        <f>IF(ISERROR(VLOOKUP(H577,A1:H635,3,1)),C577,VLOOKUP(H577,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H577,A1:H637,3,1)),C577,VLOOKUP(H577,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C577" s="5">
@@ -24259,12 +24274,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="578" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:8" ht="20.05" customHeight="1">
       <c r="A578" s="8" t="s">
         <v>2223</v>
       </c>
       <c r="B578" s="4">
-        <f>IF(ISERROR(VLOOKUP(H578,A1:H635,3,1)),C578,VLOOKUP(H578,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H578,A1:H637,3,1)),C578,VLOOKUP(H578,A1:H637,3,1))</f>
         <v>259</v>
       </c>
       <c r="C578" s="5">
@@ -24286,12 +24301,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="579" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:8" ht="20.05" customHeight="1">
       <c r="A579" s="8" t="s">
         <v>2227</v>
       </c>
       <c r="B579" s="4">
-        <f>IF(ISERROR(VLOOKUP(H579,A1:H635,3,1)),C579,VLOOKUP(H579,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H579,A1:H637,3,1)),C579,VLOOKUP(H579,A1:H637,3,1))</f>
         <v>265</v>
       </c>
       <c r="C579" s="5">
@@ -24313,12 +24328,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="580" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:8" ht="20.05" customHeight="1">
       <c r="A580" s="8" t="s">
         <v>2231</v>
       </c>
       <c r="B580" s="4">
-        <f>IF(ISERROR(VLOOKUP(H580,A1:H635,3,1)),C580,VLOOKUP(H580,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H580,A1:H637,3,1)),C580,VLOOKUP(H580,A1:H637,3,1))</f>
         <v>272</v>
       </c>
       <c r="C580" s="5">
@@ -24340,12 +24355,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="581" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:8" ht="20.05" customHeight="1">
       <c r="A581" s="8" t="s">
         <v>2235</v>
       </c>
       <c r="B581" s="4">
-        <f>IF(ISERROR(VLOOKUP(H581,A1:H635,3,1)),C581,VLOOKUP(H581,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H581,A1:H637,3,1)),C581,VLOOKUP(H581,A1:H637,3,1))</f>
         <v>283</v>
       </c>
       <c r="C581" s="5">
@@ -24367,12 +24382,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="582" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:8" ht="20.05" customHeight="1">
       <c r="A582" s="8" t="s">
         <v>2239</v>
       </c>
       <c r="B582" s="4">
-        <f>IF(ISERROR(VLOOKUP(H582,A1:H635,3,1)),C582,VLOOKUP(H582,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H582,A1:H637,3,1)),C582,VLOOKUP(H582,A1:H637,3,1))</f>
         <v>296</v>
       </c>
       <c r="C582" s="5">
@@ -24394,12 +24409,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="583" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:8" ht="20.05" customHeight="1">
       <c r="A583" s="8" t="s">
         <v>2243</v>
       </c>
       <c r="B583" s="4">
-        <f>IF(ISERROR(VLOOKUP(H583,A1:H635,3,1)),C583,VLOOKUP(H583,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H583,A1:H637,3,1)),C583,VLOOKUP(H583,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C583" s="5">
@@ -24421,12 +24436,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="584" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:8" ht="20.05" customHeight="1">
       <c r="A584" s="8" t="s">
         <v>2247</v>
       </c>
       <c r="B584" s="4">
-        <f>IF(ISERROR(VLOOKUP(H584,A1:H635,3,1)),C584,VLOOKUP(H584,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H584,A1:H637,3,1)),C584,VLOOKUP(H584,A1:H637,3,1))</f>
         <v>331</v>
       </c>
       <c r="C584" s="5">
@@ -24448,12 +24463,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="585" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:8" ht="20.05" customHeight="1">
       <c r="A585" s="8" t="s">
         <v>2251</v>
       </c>
       <c r="B585" s="4">
-        <f>IF(ISERROR(VLOOKUP(H585,A1:H635,3,1)),C585,VLOOKUP(H585,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H585,A1:H637,3,1)),C585,VLOOKUP(H585,A1:H637,3,1))</f>
         <v>337</v>
       </c>
       <c r="C585" s="5">
@@ -24475,12 +24490,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="586" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:8" ht="20.05" customHeight="1">
       <c r="A586" s="8" t="s">
         <v>2255</v>
       </c>
       <c r="B586" s="4">
-        <f>IF(ISERROR(VLOOKUP(H586,A1:H635,3,1)),C586,VLOOKUP(H586,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H586,A1:H637,3,1)),C586,VLOOKUP(H586,A1:H637,3,1))</f>
         <v>345</v>
       </c>
       <c r="C586" s="5">
@@ -24502,12 +24517,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="587" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:8" ht="20.05" customHeight="1">
       <c r="A587" s="8" t="s">
         <v>2259</v>
       </c>
       <c r="B587" s="4">
-        <f>IF(ISERROR(VLOOKUP(H587,A1:H635,3,1)),C587,VLOOKUP(H587,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H587,A1:H637,3,1)),C587,VLOOKUP(H587,A1:H637,3,1))</f>
         <v>355</v>
       </c>
       <c r="C587" s="5">
@@ -24529,12 +24544,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="588" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:8" ht="20.05" customHeight="1">
       <c r="A588" s="8" t="s">
         <v>2263</v>
       </c>
       <c r="B588" s="4">
-        <f>IF(ISERROR(VLOOKUP(H588,A1:H635,3,1)),C588,VLOOKUP(H588,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H588,A1:H637,3,1)),C588,VLOOKUP(H588,A1:H637,3,1))</f>
         <v>369</v>
       </c>
       <c r="C588" s="5">
@@ -24556,12 +24571,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="589" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:8" ht="20.05" customHeight="1">
       <c r="A589" s="8" t="s">
         <v>2267</v>
       </c>
       <c r="B589" s="4">
-        <f>IF(ISERROR(VLOOKUP(H589,A1:H635,3,1)),C589,VLOOKUP(H589,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H589,A1:H637,3,1)),C589,VLOOKUP(H589,A1:H637,3,1))</f>
         <v>63</v>
       </c>
       <c r="C589" s="5">
@@ -24583,12 +24598,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:8" ht="20.05" customHeight="1">
       <c r="A590" s="8" t="s">
         <v>2271</v>
       </c>
       <c r="B590" s="4">
-        <f>IF(ISERROR(VLOOKUP(H590,A1:H635,3,1)),C590,VLOOKUP(H590,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H590,A1:H637,3,1)),C590,VLOOKUP(H590,A1:H637,3,1))</f>
         <v>89</v>
       </c>
       <c r="C590" s="5">
@@ -24610,12 +24625,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:8" ht="20.05" customHeight="1">
       <c r="A591" s="8" t="s">
         <v>2275</v>
       </c>
       <c r="B591" s="4">
-        <f>IF(ISERROR(VLOOKUP(H591,A1:H635,3,1)),C591,VLOOKUP(H591,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H591,A1:H637,3,1)),C591,VLOOKUP(H591,A1:H637,3,1))</f>
         <v>95</v>
       </c>
       <c r="C591" s="5">
@@ -24637,12 +24652,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="592" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:8" ht="20.05" customHeight="1">
       <c r="A592" s="8" t="s">
         <v>2279</v>
       </c>
       <c r="B592" s="4">
-        <f>IF(ISERROR(VLOOKUP(H592,A1:H635,3,1)),C592,VLOOKUP(H592,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H592,A1:H637,3,1)),C592,VLOOKUP(H592,A1:H637,3,1))</f>
         <v>109</v>
       </c>
       <c r="C592" s="5">
@@ -24664,12 +24679,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="593" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:8" ht="20.05" customHeight="1">
       <c r="A593" s="8" t="s">
         <v>2283</v>
       </c>
       <c r="B593" s="4">
-        <f>IF(ISERROR(VLOOKUP(H593,A1:H635,3,1)),C593,VLOOKUP(H593,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H593,A1:H637,3,1)),C593,VLOOKUP(H593,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C593" s="5">
@@ -24691,12 +24706,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="594" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:8" ht="20.05" customHeight="1">
       <c r="A594" s="8" t="s">
         <v>2286</v>
       </c>
       <c r="B594" s="4">
-        <f>IF(ISERROR(VLOOKUP(H594,A1:H635,3,1)),C594,VLOOKUP(H594,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H594,A1:H637,3,1)),C594,VLOOKUP(H594,A1:H637,3,1))</f>
         <v>146</v>
       </c>
       <c r="C594" s="5">
@@ -24718,12 +24733,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="595" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:8" ht="20.05" customHeight="1">
       <c r="A595" s="8" t="s">
         <v>2290</v>
       </c>
       <c r="B595" s="4">
-        <f>IF(ISERROR(VLOOKUP(H595,A1:H635,3,1)),C595,VLOOKUP(H595,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H595,A1:H637,3,1)),C595,VLOOKUP(H595,A1:H637,3,1))</f>
         <v>152</v>
       </c>
       <c r="C595" s="5">
@@ -24745,12 +24760,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="596" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:8" ht="20.05" customHeight="1">
       <c r="A596" s="8" t="s">
         <v>2294</v>
       </c>
       <c r="B596" s="4">
-        <f>IF(ISERROR(VLOOKUP(H596,A1:H635,3,1)),C596,VLOOKUP(H596,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H596,A1:H637,3,1)),C596,VLOOKUP(H596,A1:H637,3,1))</f>
         <v>160</v>
       </c>
       <c r="C596" s="5">
@@ -24772,12 +24787,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="597" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:8" ht="20.05" customHeight="1">
       <c r="A597" s="8" t="s">
         <v>2298</v>
       </c>
       <c r="B597" s="4">
-        <f>IF(ISERROR(VLOOKUP(H597,A1:H635,3,1)),C597,VLOOKUP(H597,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H597,A1:H637,3,1)),C597,VLOOKUP(H597,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C597" s="5">
@@ -24799,12 +24814,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="598" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:8" ht="20.05" customHeight="1">
       <c r="A598" s="8" t="s">
         <v>2302</v>
       </c>
       <c r="B598" s="4">
-        <f>IF(ISERROR(VLOOKUP(H598,A1:H635,3,1)),C598,VLOOKUP(H598,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H598,A1:H637,3,1)),C598,VLOOKUP(H598,A1:H637,3,1))</f>
         <v>191</v>
       </c>
       <c r="C598" s="5">
@@ -24826,12 +24841,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="599" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:8" ht="20.05" customHeight="1">
       <c r="A599" s="8" t="s">
         <v>2306</v>
       </c>
       <c r="B599" s="4">
-        <f>IF(ISERROR(VLOOKUP(H599,A1:H635,3,1)),C599,VLOOKUP(H599,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H599,A1:H637,3,1)),C599,VLOOKUP(H599,A1:H637,3,1))</f>
         <v>197</v>
       </c>
       <c r="C599" s="5">
@@ -24853,12 +24868,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="600" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:8" ht="20.05" customHeight="1">
       <c r="A600" s="8" t="s">
         <v>2310</v>
       </c>
       <c r="B600" s="4">
-        <f>IF(ISERROR(VLOOKUP(H600,A1:H635,3,1)),C600,VLOOKUP(H600,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H600,A1:H637,3,1)),C600,VLOOKUP(H600,A1:H637,3,1))</f>
         <v>203</v>
       </c>
       <c r="C600" s="5">
@@ -24880,12 +24895,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="601" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:8" ht="20.05" customHeight="1">
       <c r="A601" s="8" t="s">
         <v>2314</v>
       </c>
       <c r="B601" s="4">
-        <f>IF(ISERROR(VLOOKUP(H601,A1:H635,3,1)),C601,VLOOKUP(H601,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H601,A1:H637,3,1)),C601,VLOOKUP(H601,A1:H637,3,1))</f>
         <v>215</v>
       </c>
       <c r="C601" s="5">
@@ -24907,12 +24922,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="602" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:8" ht="20.05" customHeight="1">
       <c r="A602" s="8" t="s">
         <v>2318</v>
       </c>
       <c r="B602" s="4">
-        <f>IF(ISERROR(VLOOKUP(H602,A1:H635,3,1)),C602,VLOOKUP(H602,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H602,A1:H637,3,1)),C602,VLOOKUP(H602,A1:H637,3,1))</f>
         <v>221</v>
       </c>
       <c r="C602" s="5">
@@ -24934,12 +24949,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="603" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:8" ht="20.05" customHeight="1">
       <c r="A603" s="8" t="s">
         <v>2322</v>
       </c>
       <c r="B603" s="4">
-        <f>IF(ISERROR(VLOOKUP(H603,A1:H635,3,1)),C603,VLOOKUP(H603,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H603,A1:H637,3,1)),C603,VLOOKUP(H603,A1:H637,3,1))</f>
         <v>234</v>
       </c>
       <c r="C603" s="5">
@@ -24961,12 +24976,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="604" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:8" ht="20.05" customHeight="1">
       <c r="A604" s="8" t="s">
         <v>2326</v>
       </c>
       <c r="B604" s="4">
-        <f>IF(ISERROR(VLOOKUP(H604,A1:H635,3,1)),C604,VLOOKUP(H604,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H604,A1:H637,3,1)),C604,VLOOKUP(H604,A1:H637,3,1))</f>
         <v>259</v>
       </c>
       <c r="C604" s="5">
@@ -24988,12 +25003,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="605" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:8" ht="20.05" customHeight="1">
       <c r="A605" s="8" t="s">
         <v>2330</v>
       </c>
       <c r="B605" s="4">
-        <f>IF(ISERROR(VLOOKUP(H605,A1:H635,3,1)),C605,VLOOKUP(H605,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H605,A1:H637,3,1)),C605,VLOOKUP(H605,A1:H637,3,1))</f>
         <v>265</v>
       </c>
       <c r="C605" s="5">
@@ -25015,12 +25030,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="606" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:8" ht="20.05" customHeight="1">
       <c r="A606" s="8" t="s">
         <v>2334</v>
       </c>
       <c r="B606" s="4">
-        <f>IF(ISERROR(VLOOKUP(H606,A1:H635,3,1)),C606,VLOOKUP(H606,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H606,A1:H637,3,1)),C606,VLOOKUP(H606,A1:H637,3,1))</f>
         <v>272</v>
       </c>
       <c r="C606" s="5">
@@ -25042,12 +25057,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="607" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:8" ht="20.05" customHeight="1">
       <c r="A607" s="8" t="s">
         <v>2338</v>
       </c>
       <c r="B607" s="4">
-        <f>IF(ISERROR(VLOOKUP(H607,A1:H635,3,1)),C607,VLOOKUP(H607,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H607,A1:H637,3,1)),C607,VLOOKUP(H607,A1:H637,3,1))</f>
         <v>283</v>
       </c>
       <c r="C607" s="5">
@@ -25069,12 +25084,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="608" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:8" ht="20.05" customHeight="1">
       <c r="A608" s="8" t="s">
         <v>2342</v>
       </c>
       <c r="B608" s="4">
-        <f>IF(ISERROR(VLOOKUP(H608,A1:H635,3,1)),C608,VLOOKUP(H608,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H608,A1:H637,3,1)),C608,VLOOKUP(H608,A1:H637,3,1))</f>
         <v>296</v>
       </c>
       <c r="C608" s="5">
@@ -25096,12 +25111,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:8" ht="20.05" customHeight="1">
       <c r="A609" s="8" t="s">
         <v>2346</v>
       </c>
       <c r="B609" s="4">
-        <f>IF(ISERROR(VLOOKUP(H609,A1:H635,3,1)),C609,VLOOKUP(H609,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H609,A1:H637,3,1)),C609,VLOOKUP(H609,A1:H637,3,1))</f>
         <v>307</v>
       </c>
       <c r="C609" s="5">
@@ -25123,12 +25138,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:8" ht="20.05" customHeight="1">
       <c r="A610" s="8" t="s">
         <v>2350</v>
       </c>
       <c r="B610" s="4">
-        <f>IF(ISERROR(VLOOKUP(H610,A1:H635,3,1)),C610,VLOOKUP(H610,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H610,A1:H637,3,1)),C610,VLOOKUP(H610,A1:H637,3,1))</f>
         <v>331</v>
       </c>
       <c r="C610" s="5">
@@ -25150,12 +25165,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="611" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:8" ht="20.05" customHeight="1">
       <c r="A611" s="8" t="s">
         <v>2354</v>
       </c>
       <c r="B611" s="4">
-        <f>IF(ISERROR(VLOOKUP(H611,A1:H635,3,1)),C611,VLOOKUP(H611,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H611,A1:H637,3,1)),C611,VLOOKUP(H611,A1:H637,3,1))</f>
         <v>337</v>
       </c>
       <c r="C611" s="5">
@@ -25177,12 +25192,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="612" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:8" ht="20.05" customHeight="1">
       <c r="A612" s="8" t="s">
         <v>2358</v>
       </c>
       <c r="B612" s="4">
-        <f>IF(ISERROR(VLOOKUP(H612,A1:H635,3,1)),C612,VLOOKUP(H612,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H612,A1:H637,3,1)),C612,VLOOKUP(H612,A1:H637,3,1))</f>
         <v>345</v>
       </c>
       <c r="C612" s="5">
@@ -25204,12 +25219,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="613" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:8" ht="20.05" customHeight="1">
       <c r="A613" s="8" t="s">
         <v>2362</v>
       </c>
       <c r="B613" s="4">
-        <f>IF(ISERROR(VLOOKUP(H613,A1:H635,3,1)),C613,VLOOKUP(H613,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H613,A1:H637,3,1)),C613,VLOOKUP(H613,A1:H637,3,1))</f>
         <v>355</v>
       </c>
       <c r="C613" s="5">
@@ -25231,12 +25246,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="614" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:8" ht="20.05" customHeight="1">
       <c r="A614" s="8" t="s">
         <v>2366</v>
       </c>
       <c r="B614" s="4">
-        <f>IF(ISERROR(VLOOKUP(H614,A1:H635,3,1)),C614,VLOOKUP(H614,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H614,A1:H637,3,1)),C614,VLOOKUP(H614,A1:H637,3,1))</f>
         <v>369</v>
       </c>
       <c r="C614" s="5">
@@ -25258,12 +25273,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="615" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:8" ht="20.05" customHeight="1">
       <c r="A615" s="8" t="s">
         <v>2370</v>
       </c>
       <c r="B615" s="4">
-        <f>IF(ISERROR(VLOOKUP(H615,A1:H635,3,1)),C615,VLOOKUP(H615,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H615,A1:H637,3,1)),C615,VLOOKUP(H615,A1:H637,3,1))</f>
         <v>9</v>
       </c>
       <c r="C615" s="5">
@@ -25285,12 +25300,12 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="616" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:8" ht="20.05" customHeight="1">
       <c r="A616" s="8" t="s">
         <v>2374</v>
       </c>
       <c r="B616" s="4">
-        <f>IF(ISERROR(VLOOKUP(H616,A1:H635,3,1)),C616,VLOOKUP(H616,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H616,A1:H637,3,1)),C616,VLOOKUP(H616,A1:H637,3,1))</f>
         <v>448</v>
       </c>
       <c r="C616" s="5">
@@ -25310,12 +25325,12 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="617" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:8" ht="20.05" customHeight="1">
       <c r="A617" s="8" t="s">
         <v>2377</v>
       </c>
       <c r="B617" s="4">
-        <f>IF(ISERROR(VLOOKUP(H617,A1:H635,3,1)),C617,VLOOKUP(H617,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H617,A1:H637,3,1)),C617,VLOOKUP(H617,A1:H637,3,1))</f>
         <v>448</v>
       </c>
       <c r="C617" s="5">
@@ -25335,12 +25350,12 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="618" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:8" ht="20.05" customHeight="1">
       <c r="A618" s="8" t="s">
         <v>2380</v>
       </c>
       <c r="B618" s="4">
-        <f>IF(ISERROR(VLOOKUP(H618,A1:H635,3,1)),C618,VLOOKUP(H618,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H618,A1:H637,3,1)),C618,VLOOKUP(H618,A1:H637,3,1))</f>
         <v>448</v>
       </c>
       <c r="C618" s="5">
@@ -25360,12 +25375,12 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="619" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:8" ht="20.05" customHeight="1">
       <c r="A619" s="8" t="s">
         <v>2383</v>
       </c>
       <c r="B619" s="4">
-        <f>IF(ISERROR(VLOOKUP(H619,A1:H635,3,1)),C619,VLOOKUP(H619,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H619,A1:H637,3,1)),C619,VLOOKUP(H619,A1:H637,3,1))</f>
         <v>448</v>
       </c>
       <c r="C619" s="5">
@@ -25385,12 +25400,12 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="620" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:8" ht="20.05" customHeight="1">
       <c r="A620" s="8" t="s">
         <v>2386</v>
       </c>
       <c r="B620" s="4">
-        <f>IF(ISERROR(VLOOKUP(H620,A1:H635,3,1)),C620,VLOOKUP(H620,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H620,A1:H637,3,1)),C620,VLOOKUP(H620,A1:H637,3,1))</f>
         <v>448</v>
       </c>
       <c r="C620" s="5">
@@ -25410,12 +25425,12 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="621" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:8" ht="20.05" customHeight="1">
       <c r="A621" s="8" t="s">
         <v>2389</v>
       </c>
       <c r="B621" s="4">
-        <f>IF(ISERROR(VLOOKUP(H621,A1:H635,3,1)),C621,VLOOKUP(H621,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H621,A1:H637,3,1)),C621,VLOOKUP(H621,A1:H637,3,1))</f>
         <v>448</v>
       </c>
       <c r="C621" s="5">
@@ -25435,12 +25450,12 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="622" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:8" ht="20.05" customHeight="1">
       <c r="A622" s="8" t="s">
         <v>2392</v>
       </c>
       <c r="B622" s="4">
-        <f>IF(ISERROR(VLOOKUP(H622,A1:H635,3,1)),C622,VLOOKUP(H622,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H622,A1:H637,3,1)),C622,VLOOKUP(H622,A1:H637,3,1))</f>
         <v>512</v>
       </c>
       <c r="C622" s="5">
@@ -25462,13 +25477,13 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="623" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:8" ht="20.05" customHeight="1">
       <c r="A623" s="8" t="s">
         <v>2396</v>
       </c>
       <c r="B623" s="4">
-        <f>IF(ISERROR(VLOOKUP(H623,A1:H635,3,1)),C623,VLOOKUP(H623,A1:H635,3,1))</f>
-        <v>512</v>
+        <f>IF(ISERROR(VLOOKUP(H623,A1:H637,3,1)),C623,VLOOKUP(H623,A1:H637,3,1))</f>
+        <v>9</v>
       </c>
       <c r="C623" s="5">
         <v>512</v>
@@ -25489,12 +25504,12 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="624" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:8" ht="20.05" customHeight="1">
       <c r="A624" s="8" t="s">
         <v>2400</v>
       </c>
       <c r="B624" s="4">
-        <f>IF(ISERROR(VLOOKUP(H624,A1:H635,3,1)),C624,VLOOKUP(H624,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H624,A1:H637,3,1)),C624,VLOOKUP(H624,A1:H637,3,1))</f>
         <v>367</v>
       </c>
       <c r="C624" s="5">
@@ -25516,12 +25531,12 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="625" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:8" ht="20.05" customHeight="1">
       <c r="A625" s="8" t="s">
         <v>2404</v>
       </c>
       <c r="B625" s="4">
-        <f>IF(ISERROR(VLOOKUP(H625,A1:H635,3,1)),C625,VLOOKUP(H625,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H625,A1:H637,3,1)),C625,VLOOKUP(H625,A1:H637,3,1))</f>
         <v>9</v>
       </c>
       <c r="C625" s="5">
@@ -25543,12 +25558,12 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="626" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:8" ht="20.05" customHeight="1">
       <c r="A626" s="8" t="s">
         <v>2408</v>
       </c>
       <c r="B626" s="4">
-        <f>IF(ISERROR(VLOOKUP(H626,A1:H635,3,1)),C626,VLOOKUP(H626,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H626,A1:H637,3,1)),C626,VLOOKUP(H626,A1:H637,3,1))</f>
         <v>531</v>
       </c>
       <c r="C626" s="5">
@@ -25570,12 +25585,12 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:8" ht="20.05" customHeight="1">
       <c r="A627" s="8" t="s">
         <v>2412</v>
       </c>
       <c r="B627" s="4">
-        <f>IF(ISERROR(VLOOKUP(H627,A1:H635,3,1)),C627,VLOOKUP(H627,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H627,A1:H637,3,1)),C627,VLOOKUP(H627,A1:H637,3,1))</f>
         <v>9</v>
       </c>
       <c r="C627" s="5">
@@ -25597,12 +25612,12 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="628" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:8" ht="20.05" customHeight="1">
       <c r="A628" s="8" t="s">
         <v>2416</v>
       </c>
       <c r="B628" s="4">
-        <f>IF(ISERROR(VLOOKUP(H628,A1:H635,3,1)),C628,VLOOKUP(H628,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H628,A1:H637,3,1)),C628,VLOOKUP(H628,A1:H637,3,1))</f>
         <v>367</v>
       </c>
       <c r="C628" s="5">
@@ -25624,12 +25639,12 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="629" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:8" ht="20.05" customHeight="1">
       <c r="A629" s="8" t="s">
         <v>2419</v>
       </c>
       <c r="B629" s="4">
-        <f>IF(ISERROR(VLOOKUP(H629,A1:H635,3,1)),C629,VLOOKUP(H629,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H629,A1:H637,3,1)),C629,VLOOKUP(H629,A1:H637,3,1))</f>
         <v>571</v>
       </c>
       <c r="C629" s="5">
@@ -25651,12 +25666,12 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="630" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:8" ht="20.05" customHeight="1">
       <c r="A630" s="8" t="s">
         <v>2422</v>
       </c>
       <c r="B630" s="4">
-        <f>IF(ISERROR(VLOOKUP(H630,A1:H635,3,1)),C630,VLOOKUP(H630,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H630,A1:H637,3,1)),C630,VLOOKUP(H630,A1:H637,3,1))</f>
         <v>95</v>
       </c>
       <c r="C630" s="5">
@@ -25678,12 +25693,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="631" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:8" ht="20.05" customHeight="1">
       <c r="A631" s="8" t="s">
         <v>2425</v>
       </c>
       <c r="B631" s="4">
-        <f>IF(ISERROR(VLOOKUP(H631,A1:H635,3,1)),C631,VLOOKUP(H631,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H631,A1:H637,3,1)),C631,VLOOKUP(H631,A1:H637,3,1))</f>
         <v>221</v>
       </c>
       <c r="C631" s="5">
@@ -25705,12 +25720,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="632" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:8" ht="20.05" customHeight="1">
       <c r="A632" s="8" t="s">
         <v>2428</v>
       </c>
       <c r="B632" s="4">
-        <f>IF(ISERROR(VLOOKUP(H632,A1:H635,3,1)),C632,VLOOKUP(H632,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H632,A1:H637,3,1)),C632,VLOOKUP(H632,A1:H637,3,1))</f>
         <v>121</v>
       </c>
       <c r="C632" s="5">
@@ -25732,12 +25747,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="633" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:8" ht="20.05" customHeight="1">
       <c r="A633" s="8" t="s">
         <v>2432</v>
       </c>
       <c r="B633" s="4">
-        <f>IF(ISERROR(VLOOKUP(H633,A1:H635,3,1)),C633,VLOOKUP(H633,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H633,A1:H637,3,1)),C633,VLOOKUP(H633,A1:H637,3,1))</f>
         <v>169</v>
       </c>
       <c r="C633" s="5">
@@ -25759,12 +25774,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="634" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:8" ht="20.05" customHeight="1">
       <c r="A634" s="8" t="s">
         <v>2436</v>
       </c>
       <c r="B634" s="4">
-        <f>IF(ISERROR(VLOOKUP(H634,A1:H635,3,1)),C634,VLOOKUP(H634,A1:H635,3,1))</f>
+        <f>IF(ISERROR(VLOOKUP(H634,A1:H637,3,1)),C634,VLOOKUP(H634,A1:H637,3,1))</f>
         <v>191</v>
       </c>
       <c r="C634" s="5">
@@ -25786,29 +25801,83 @@
         <v>159</v>
       </c>
     </row>
-    <row r="635" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:8" ht="20.05" customHeight="1">
       <c r="A635" s="8" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B635" s="4">
+        <f>IF(ISERROR(VLOOKUP(H635,A2:H638,3,1)),C635,VLOOKUP(H635,A2:H638,3,1))</f>
+        <v>146</v>
+      </c>
+      <c r="C635" s="5">
+        <v>191</v>
+      </c>
+      <c r="D635" s="11" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E635" s="11" t="s">
+        <v>2443</v>
+      </c>
+      <c r="F635" s="11" t="s">
+        <v>2445</v>
+      </c>
+      <c r="G635" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="H635" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" ht="20.05" customHeight="1">
+      <c r="A636" s="8" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B636" s="4">
+        <f>IF(ISERROR(VLOOKUP(H636,A3:H639,3,1)),C636,VLOOKUP(H636,A3:H639,3,1))</f>
+        <v>152</v>
+      </c>
+      <c r="C636" s="5">
+        <v>191</v>
+      </c>
+      <c r="D636" s="11" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E636" s="11" t="s">
+        <v>2444</v>
+      </c>
+      <c r="F636" s="11" t="s">
+        <v>2446</v>
+      </c>
+      <c r="G636" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="H636" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" ht="20.05" customHeight="1">
+      <c r="A637" s="8" t="s">
         <v>2440</v>
       </c>
-      <c r="B635" s="4">
-        <f>IF(ISERROR(VLOOKUP(H635,A1:H635,3,1)),C635,VLOOKUP(H635,A1:H635,3,1))</f>
+      <c r="B637" s="4">
+        <f>IF(ISERROR(VLOOKUP(H637,A1:H637,3,1)),C637,VLOOKUP(H637,A1:H637,3,1))</f>
         <v>1</v>
       </c>
-      <c r="C635" s="5">
+      <c r="C637" s="5">
         <v>9</v>
       </c>
-      <c r="D635" s="11" t="s">
+      <c r="D637" s="11" t="s">
         <v>2441</v>
       </c>
-      <c r="E635" s="11"/>
-      <c r="F635" s="11"/>
-      <c r="G635" s="11"/>
-      <c r="H635" s="11" t="s">
+      <c r="E637" s="11"/>
+      <c r="F637" s="11"/>
+      <c r="G637" s="11"/>
+      <c r="H637" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="636" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A636" s="8"/>
+    <row r="638" spans="1:8" ht="20.05" customHeight="1">
+      <c r="A638" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
